--- a/Tableau métriques/moyenne/2022_2023/Skill Corner/moyenne_running.xlsx
+++ b/Tableau métriques/moyenne/2022_2023/Skill Corner/moyenne_running.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J120"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,8 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Ratio Moyennes</t>
+          <t>Diff Moyennes
+(données normalisées)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -483,23 +484,23 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>pulling_wide_runs_threat_per_match</t>
+          <t>count_support_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.004</v>
+        <v>0.05277310924369748</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006666666666666666</v>
+        <v>0.08901583260716389</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>0.9523809523809524</v>
       </c>
       <c r="E2" t="n">
-        <v>0.005477225575051661</v>
+        <v>0.04373947561733162</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002581988897471612</v>
+        <v>0.03707964950028693</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -508,826 +509,826 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01</v>
+        <v>0.1515151515151515</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_leading_to_goal_per_match</t>
+          <t>count_underlap_runs_received_per_match</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.002</v>
+        <v>1.282289348171701</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007999999999999998</v>
+        <v>0.9033813351770009</v>
       </c>
       <c r="D3" t="n">
-        <v>3.999999999999999</v>
+        <v>0.9428351592612403</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00447213595499958</v>
+        <v>0.2874572114042568</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004140393356054126</v>
+        <v>0.3731612432364002</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01</v>
+        <v>1.764705882352941</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01</v>
+        <v>1.628571428571429</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_coming_short_runs_received_per_match</t>
+          <t>count_dangerous_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.002</v>
+        <v>2.019495798319328</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0006666666666666666</v>
+        <v>1.578079876748608</v>
       </c>
       <c r="D4" t="n">
+        <v>0.8811751445474691</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6767882233554676</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3391328849400838</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.411764705882353</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="I4" t="n">
         <v>3</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.004472135954999579</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.002581988897471612</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="J4" t="n">
-        <v>0.01</v>
+        <v>2.205882352941177</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>overlap_runs_targeted_threat_per_match</t>
+          <t>pulling_wide_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.002</v>
+        <v>0.01502216670451965</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0006666666666666666</v>
+        <v>0.01213050430109253</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>0.7818585120214377</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004472135954999579</v>
+        <v>0.003257878342118194</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002581988897471612</v>
+        <v>0.003190851450662979</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.01028571428571429</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.007272727272727273</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01</v>
+        <v>0.01864864864864865</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01</v>
+        <v>0.0172972972972973</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_leading_to_shot_per_match</t>
+          <t>pulling_wide_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.018</v>
+        <v>0.05300095389507153</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01133333333333333</v>
+        <v>0.04241096380446226</v>
       </c>
       <c r="D6" t="n">
-        <v>1.588235294117647</v>
+        <v>0.7766536899963933</v>
       </c>
       <c r="E6" t="n">
-        <v>0.008366600265340755</v>
+        <v>0.01324893679010998</v>
       </c>
       <c r="F6" t="n">
-        <v>0.006399404734221844</v>
+        <v>0.0109602554231781</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01</v>
+        <v>0.04029411764705883</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03</v>
+        <v>0.06823529411764706</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02</v>
+        <v>0.06918918918918919</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_leading_to_shot_per_match</t>
+          <t>cross_receiver_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.012</v>
+        <v>1.933697842380196</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007999999999999998</v>
+        <v>1.641328133714512</v>
       </c>
       <c r="D7" t="n">
-        <v>1.5</v>
+        <v>0.7599046738108597</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004472135954999579</v>
+        <v>0.2162733862392378</v>
       </c>
       <c r="F7" t="n">
-        <v>0.005606119105813881</v>
+        <v>0.3201385495565845</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01</v>
+        <v>1.678235294117647</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1.267272727272727</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02</v>
+        <v>2.25764705882353</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02</v>
+        <v>2.207631578947368</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_received_per_match</t>
+          <t>count_pulling_half_space_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.094</v>
+        <v>0.1597410856234386</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06666666666666668</v>
+        <v>0.1122707951810119</v>
       </c>
       <c r="D8" t="n">
-        <v>1.41</v>
+        <v>0.7508193093327622</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0151657508881031</v>
+        <v>0.04878862681526781</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02768874620972691</v>
+        <v>0.06437350688154378</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.12</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="J8" t="n">
-        <v>0.12</v>
+        <v>0.2058823529411765</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_coming_short_runs_targeted_per_match</t>
+          <t>support_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.002</v>
+        <v>0.09550797183738359</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002666666666666667</v>
+        <v>0.08101203343989721</v>
       </c>
       <c r="D9" t="n">
-        <v>1.333333333333333</v>
+        <v>0.7449839133433965</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004472135954999579</v>
+        <v>0.006948291942969022</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004577377082170635</v>
+        <v>0.01622784333167735</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.08742857142857142</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.05545454545454546</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01</v>
+        <v>0.1054054054054054</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01</v>
+        <v>0.1118918918918919</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>count_overlap_runs_leading_to_goal_per_match</t>
+          <t>count_dangerous_overlap_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.002</v>
+        <v>0.7629343629343628</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002666666666666667</v>
+        <v>0.6029781435973386</v>
       </c>
       <c r="D10" t="n">
-        <v>1.333333333333333</v>
+        <v>0.7366164760874691</v>
       </c>
       <c r="E10" t="n">
-        <v>0.004472135954999579</v>
+        <v>0.3049076767895035</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004577377082170635</v>
+        <v>0.1540741507985022</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01</v>
+        <v>1.243243243243243</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01</v>
+        <v>0.8823529411764706</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_leading_to_shot_per_match</t>
+          <t>dropping_off_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.018</v>
+        <v>0.01053863275039746</v>
       </c>
       <c r="C11" t="n">
-        <v>0.014</v>
+        <v>0.008200076035989348</v>
       </c>
       <c r="D11" t="n">
-        <v>1.285714285714286</v>
+        <v>0.7278648320972743</v>
       </c>
       <c r="E11" t="n">
-        <v>0.004472135954999579</v>
+        <v>0.003873515088173755</v>
       </c>
       <c r="F11" t="n">
-        <v>0.008280786712108251</v>
+        <v>0.002828003723619227</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01</v>
+        <v>0.006</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.003243243243243243</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02</v>
+        <v>0.01647058823529412</v>
       </c>
       <c r="J11" t="n">
-        <v>0.03</v>
+        <v>0.01324324324324324</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>pulling_half_space_runs_threat_per_match</t>
+          <t>dropping_off_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.006</v>
+        <v>0.002835793776970247</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004666666666666667</v>
+        <v>0.00196756960007734</v>
       </c>
       <c r="D12" t="n">
-        <v>1.285714285714286</v>
+        <v>0.7274889943193352</v>
       </c>
       <c r="E12" t="n">
-        <v>0.005477225575051661</v>
+        <v>0.001794011693204707</v>
       </c>
       <c r="F12" t="n">
-        <v>0.005163977794943223</v>
+        <v>0.0008587215842305649</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.001428571428571429</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.0005714285714285715</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01</v>
+        <v>0.003243243243243243</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_targeted_per_match</t>
+          <t>count_pulling_wide_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.136</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1073333333333334</v>
+        <v>0.01305468147573411</v>
       </c>
       <c r="D13" t="n">
-        <v>1.267080745341615</v>
+        <v>0.7257747386024231</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02701851217221259</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03918211448145818</v>
+        <v>0.01846896155600711</v>
       </c>
       <c r="G13" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.18</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="J13" t="n">
-        <v>0.18</v>
+        <v>0.06060606060606061</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_overlap_runs_per_match</t>
+          <t>pulling_wide_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.148</v>
+        <v>0.01977774244833069</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1173333333333334</v>
+        <v>0.01624244137587791</v>
       </c>
       <c r="D14" t="n">
-        <v>1.261363636363636</v>
+        <v>0.7095017720199923</v>
       </c>
       <c r="E14" t="n">
-        <v>0.04969909455915671</v>
+        <v>0.004257955696066907</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02344192418560835</v>
+        <v>0.004304861248756499</v>
       </c>
       <c r="G14" t="n">
-        <v>0.11</v>
+        <v>0.014</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.009393939393939394</v>
       </c>
       <c r="I14" t="n">
-        <v>0.22</v>
+        <v>0.0245945945945946</v>
       </c>
       <c r="J14" t="n">
-        <v>0.16</v>
+        <v>0.0245945945945946</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_overlap_runs_received_per_match</t>
+          <t>count_dropping_off_runs_in_sample</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.042</v>
+        <v>13.15358164887577</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03333333333333333</v>
+        <v>11.26796543638649</v>
       </c>
       <c r="D15" t="n">
-        <v>1.26</v>
+        <v>0.7052153068713469</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01923538406167135</v>
+        <v>3.299187090186889</v>
       </c>
       <c r="F15" t="n">
-        <v>0.008164965809277261</v>
+        <v>1.907114898166378</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02</v>
+        <v>9.029411764705882</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02</v>
+        <v>7.515151515151516</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07000000000000001</v>
+        <v>17.91176470588235</v>
       </c>
       <c r="J15" t="n">
-        <v>0.05</v>
+        <v>14.48571428571429</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>underlap_runs_threat_per_match</t>
+          <t>count_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01</v>
+        <v>13.15358164887577</v>
       </c>
       <c r="C16" t="n">
-        <v>0.007999999999999998</v>
+        <v>11.26796543638649</v>
       </c>
       <c r="D16" t="n">
-        <v>1.25</v>
+        <v>0.7052153068713469</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>3.299187090186889</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004140393356054125</v>
+        <v>1.907114898166378</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01</v>
+        <v>9.029411764705882</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>7.515151515151516</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01</v>
+        <v>17.91176470588235</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01</v>
+        <v>14.48571428571429</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>support_runs_received_threat_per_match</t>
+          <t>count_dangerous_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01</v>
+        <v>23.63631614808085</v>
       </c>
       <c r="C17" t="n">
-        <v>0.007999999999999998</v>
+        <v>20.64195828211308</v>
       </c>
       <c r="D17" t="n">
-        <v>1.25</v>
+        <v>0.6969863571603564</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2.664515372094752</v>
       </c>
       <c r="F17" t="n">
-        <v>0.004140393356054125</v>
+        <v>3.395903039360439</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01</v>
+        <v>21.28571428571428</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>15.36666666666667</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01</v>
+        <v>28.08823529411765</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01</v>
+        <v>26.23684210526316</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pulling_half_space_runs_per_match</t>
+          <t>count_pulling_wide_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.04</v>
+        <v>0.2413081989552578</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03200000000000001</v>
+        <v>0.170345028394564</v>
       </c>
       <c r="D18" t="n">
-        <v>1.25</v>
+        <v>0.6813559683545761</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0158113883008419</v>
+        <v>0.1140057362935018</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01320173148816905</v>
+        <v>0.08830685873272019</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="I18" t="n">
-        <v>0.06</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="J18" t="n">
-        <v>0.06</v>
+        <v>0.3142857142857143</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_overlap_runs_targeted_per_match</t>
+          <t>dropping_off_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.05400000000000001</v>
+        <v>0.00312514194867136</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04400000000000001</v>
+        <v>0.002315333402639904</v>
       </c>
       <c r="D19" t="n">
-        <v>1.227272727272727</v>
+        <v>0.6804138174397717</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02302172886644268</v>
+        <v>0.001857166063183987</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01298350602000201</v>
+        <v>0.0008491477482143877</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03</v>
+        <v>0.001428571428571429</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02</v>
+        <v>0.001081081081081081</v>
       </c>
       <c r="I19" t="n">
-        <v>0.09</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="J19" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.003636363636363636</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pulling_half_space_runs_received_per_match</t>
+          <t>count_underlap_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.008</v>
+        <v>1.844960254372019</v>
       </c>
       <c r="C20" t="n">
-        <v>0.006666666666666666</v>
+        <v>1.459206016357719</v>
       </c>
       <c r="D20" t="n">
-        <v>1.2</v>
+        <v>0.6787588512569418</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00447213595499958</v>
+        <v>0.4210158209238694</v>
       </c>
       <c r="F20" t="n">
-        <v>0.006172133998483677</v>
+        <v>0.5423025918077695</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.441176470588235</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01</v>
+        <v>2.529411764705882</v>
       </c>
       <c r="J20" t="n">
-        <v>0.02</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_coming_short_runs_per_match</t>
+          <t>count_dangerous_overlap_runs_received_per_match</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.012</v>
+        <v>0.5738087667499432</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01</v>
+        <v>0.4510401652506915</v>
       </c>
       <c r="D21" t="n">
-        <v>1.2</v>
+        <v>0.6712712272293895</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004472135954999579</v>
+        <v>0.293274209824726</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005345224838248488</v>
+        <v>0.1056177066434502</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02</v>
+        <v>1.027027027027027</v>
       </c>
       <c r="J21" t="n">
-        <v>0.02</v>
+        <v>0.6111111111111112</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>coming_short_runs_threat_per_match</t>
+          <t>count_dropping_off_runs_received_per_match</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.004</v>
+        <v>5.267254144901203</v>
       </c>
       <c r="C22" t="n">
-        <v>0.003333333333333334</v>
+        <v>4.366864156585518</v>
       </c>
       <c r="D22" t="n">
-        <v>1.2</v>
+        <v>0.6652918075752274</v>
       </c>
       <c r="E22" t="n">
-        <v>0.005477225575051661</v>
+        <v>1.647830662075578</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004879500364742666</v>
+        <v>0.9844801859043973</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3.264705882352941</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2.424242424242424</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01</v>
+        <v>7.676470588235294</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01</v>
+        <v>5.864864864864865</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_underlap_runs_received_per_match</t>
+          <t>count_dropping_off_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.024</v>
+        <v>5.440163524869407</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02</v>
+        <v>4.53641565009986</v>
       </c>
       <c r="D23" t="n">
-        <v>1.2</v>
+        <v>0.6561149293231912</v>
       </c>
       <c r="E23" t="n">
-        <v>0.00547722557505166</v>
+        <v>1.646713685845159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01069044967649697</v>
+        <v>1.00544720084903</v>
       </c>
       <c r="G23" t="n">
-        <v>0.02</v>
+        <v>3.441176470588236</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01</v>
+        <v>2.606060606060606</v>
       </c>
       <c r="I23" t="n">
-        <v>0.03</v>
+        <v>7.852941176470588</v>
       </c>
       <c r="J23" t="n">
-        <v>0.04</v>
+        <v>6.054054054054054</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_support_runs_received_per_match</t>
+          <t>count_cross_receiver_runs_in_sample</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.092</v>
+        <v>24.3328276175335</v>
       </c>
       <c r="C24" t="n">
-        <v>0.07666666666666669</v>
+        <v>21.42363677416309</v>
       </c>
       <c r="D24" t="n">
-        <v>1.2</v>
+        <v>0.6459138780516525</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004472135954999583</v>
+        <v>2.616511304276901</v>
       </c>
       <c r="F24" t="n">
-        <v>0.02257263408474539</v>
+        <v>3.612867593131247</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09</v>
+        <v>22.25714285714286</v>
       </c>
       <c r="H24" t="n">
-        <v>0.04</v>
+        <v>15.93333333333333</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1</v>
+        <v>28.79411764705882</v>
       </c>
       <c r="J24" t="n">
-        <v>0.12</v>
+        <v>27.39473684210526</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>cross_receiver_runs_threat_per_match</t>
+          <t>count_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.144</v>
+        <v>24.3328276175335</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1200000000000001</v>
+        <v>21.42363677416309</v>
       </c>
       <c r="D25" t="n">
-        <v>1.2</v>
+        <v>0.6459138780516525</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01673320053068151</v>
+        <v>2.616511304276901</v>
       </c>
       <c r="F25" t="n">
-        <v>0.02267786838055363</v>
+        <v>3.612867593131247</v>
       </c>
       <c r="G25" t="n">
-        <v>0.13</v>
+        <v>22.25714285714286</v>
       </c>
       <c r="H25" t="n">
-        <v>0.09</v>
+        <v>15.93333333333333</v>
       </c>
       <c r="I25" t="n">
-        <v>0.17</v>
+        <v>28.79411764705882</v>
       </c>
       <c r="J25" t="n">
-        <v>0.16</v>
+        <v>27.39473684210526</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_received_per_match</t>
+          <t>count_underlap_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.382</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3226666666666667</v>
+        <v>0.01860008172701671</v>
       </c>
       <c r="D26" t="n">
-        <v>1.183884297520661</v>
+        <v>0.6306882198395203</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1070980858839223</v>
+        <v>0.01315334104411641</v>
       </c>
       <c r="F26" t="n">
-        <v>0.06974101751343699</v>
+        <v>0.02249733262912574</v>
       </c>
       <c r="G26" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.53</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="J26" t="n">
-        <v>0.42</v>
+        <v>0.05714285714285714</v>
       </c>
     </row>
     <row r="27">
@@ -1337,847 +1338,847 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>175.8</v>
+        <v>5.03464001816943</v>
       </c>
       <c r="C27" t="n">
-        <v>148.6</v>
+        <v>4.210339844085974</v>
       </c>
       <c r="D27" t="n">
-        <v>1.183041722745626</v>
+        <v>0.6235613375677844</v>
       </c>
       <c r="E27" t="n">
-        <v>49.55501992734943</v>
+        <v>1.324652689731996</v>
       </c>
       <c r="F27" t="n">
-        <v>42.6427016029707</v>
+        <v>1.106251376768684</v>
       </c>
       <c r="G27" t="n">
-        <v>121</v>
+        <v>3.558823529411764</v>
       </c>
       <c r="H27" t="n">
-        <v>76</v>
+        <v>2.184210526315789</v>
       </c>
       <c r="I27" t="n">
-        <v>235</v>
+        <v>6.470588235294118</v>
       </c>
       <c r="J27" t="n">
-        <v>236</v>
+        <v>6.210526315789473</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_targeted_per_match</t>
+          <t>count_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.394</v>
+        <v>5.03464001816943</v>
       </c>
       <c r="C28" t="n">
-        <v>0.334</v>
+        <v>4.210339844085974</v>
       </c>
       <c r="D28" t="n">
-        <v>1.179640718562874</v>
+        <v>0.6235613375677844</v>
       </c>
       <c r="E28" t="n">
-        <v>0.110589330407594</v>
+        <v>1.324652689731996</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0721902249021886</v>
+        <v>1.106251376768684</v>
       </c>
       <c r="G28" t="n">
-        <v>0.26</v>
+        <v>3.558823529411764</v>
       </c>
       <c r="H28" t="n">
-        <v>0.19</v>
+        <v>2.184210526315789</v>
       </c>
       <c r="I28" t="n">
-        <v>0.55</v>
+        <v>6.470588235294118</v>
       </c>
       <c r="J28" t="n">
-        <v>0.43</v>
+        <v>6.210526315789473</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_per_match</t>
+          <t>underlap_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.366</v>
+        <v>0.09907158755394049</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3106666666666667</v>
+        <v>0.08326552503611326</v>
       </c>
       <c r="D29" t="n">
-        <v>1.178111587982833</v>
+        <v>0.6029248457071233</v>
       </c>
       <c r="E29" t="n">
-        <v>0.08619744775803981</v>
+        <v>0.01926072665186083</v>
       </c>
       <c r="F29" t="n">
-        <v>0.07959420893028647</v>
+        <v>0.02311287936022197</v>
       </c>
       <c r="G29" t="n">
-        <v>0.27</v>
+        <v>0.07411764705882352</v>
       </c>
       <c r="H29" t="n">
-        <v>0.15</v>
+        <v>0.04631578947368421</v>
       </c>
       <c r="I29" t="n">
-        <v>0.46</v>
+        <v>0.1194117647058823</v>
       </c>
       <c r="J29" t="n">
-        <v>0.46</v>
+        <v>0.1286842105263158</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_leading_to_shot_per_match</t>
+          <t>count_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01</v>
+        <v>16.5298750851692</v>
       </c>
       <c r="C30" t="n">
-        <v>0.008666666666666665</v>
+        <v>14.22687936056357</v>
       </c>
       <c r="D30" t="n">
-        <v>1.153846153846154</v>
+        <v>0.6024619891788303</v>
       </c>
       <c r="E30" t="n">
-        <v>0.007071067811865475</v>
+        <v>3.983872186272472</v>
       </c>
       <c r="F30" t="n">
-        <v>0.005163977794943223</v>
+        <v>2.842585910498578</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>12.54285714285714</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>10.13333333333333</v>
       </c>
       <c r="I30" t="n">
-        <v>0.02</v>
+        <v>21.11764705882353</v>
       </c>
       <c r="J30" t="n">
-        <v>0.02</v>
+        <v>21.2972972972973</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_in_sample</t>
+          <t>count_pulling_wide_runs_in_sample</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>457.4</v>
+        <v>16.5298750851692</v>
       </c>
       <c r="C31" t="n">
-        <v>397.0666666666667</v>
+        <v>14.22687936056357</v>
       </c>
       <c r="D31" t="n">
-        <v>1.151947615849563</v>
+        <v>0.6024619891788303</v>
       </c>
       <c r="E31" t="n">
-        <v>111.965619723199</v>
+        <v>3.983872186272472</v>
       </c>
       <c r="F31" t="n">
-        <v>76.80724172206928</v>
+        <v>2.842585910498578</v>
       </c>
       <c r="G31" t="n">
-        <v>307</v>
+        <v>12.54285714285714</v>
       </c>
       <c r="H31" t="n">
-        <v>248</v>
+        <v>10.13333333333333</v>
       </c>
       <c r="I31" t="n">
-        <v>609</v>
+        <v>21.11764705882353</v>
       </c>
       <c r="J31" t="n">
-        <v>507</v>
+        <v>21.2972972972973</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_per_match</t>
+          <t>count_underlap_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.204</v>
+        <v>0.2486213945037475</v>
       </c>
       <c r="C32" t="n">
-        <v>1.047333333333333</v>
+        <v>0.1742635220963394</v>
       </c>
       <c r="D32" t="n">
-        <v>1.149586250795671</v>
+        <v>0.5988781542071396</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2583215051055563</v>
+        <v>0.1052869417151723</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1877105167411728</v>
+        <v>0.1151600692319571</v>
       </c>
       <c r="G32" t="n">
-        <v>0.92</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="H32" t="n">
-        <v>0.78</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="I32" t="n">
-        <v>1.48</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="J32" t="n">
-        <v>1.5</v>
+        <v>0.4210526315789473</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_per_match</t>
+          <t>support_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9560000000000001</v>
+        <v>0.4943071542130366</v>
       </c>
       <c r="C33" t="n">
-        <v>0.832</v>
+        <v>0.4391199932311388</v>
       </c>
       <c r="D33" t="n">
-        <v>1.149038461538462</v>
+        <v>0.598193235253603</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2161712284278368</v>
+        <v>0.07135612900377182</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1415324293984547</v>
+        <v>0.07069584010410122</v>
       </c>
       <c r="G33" t="n">
-        <v>0.68</v>
+        <v>0.4029411764705882</v>
       </c>
       <c r="H33" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.3326470588235294</v>
       </c>
       <c r="I33" t="n">
-        <v>1.25</v>
+        <v>0.5745945945945946</v>
       </c>
       <c r="J33" t="n">
-        <v>1.05</v>
+        <v>0.5655555555555556</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_in_sample</t>
+          <t>pulling_half_space_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>576.8</v>
+        <v>0.01573595275948217</v>
       </c>
       <c r="C34" t="n">
-        <v>502.6666666666667</v>
+        <v>0.01358132677730201</v>
       </c>
       <c r="D34" t="n">
-        <v>1.147480106100796</v>
+        <v>0.5934174814578754</v>
       </c>
       <c r="E34" t="n">
-        <v>149.3492551035994</v>
+        <v>0.00195295401117147</v>
       </c>
       <c r="F34" t="n">
-        <v>117.4123786773212</v>
+        <v>0.003517195800661562</v>
       </c>
       <c r="G34" t="n">
-        <v>439</v>
+        <v>0.01323529411764706</v>
       </c>
       <c r="H34" t="n">
-        <v>304</v>
+        <v>0.007105263157894737</v>
       </c>
       <c r="I34" t="n">
-        <v>757</v>
+        <v>0.01852941176470588</v>
       </c>
       <c r="J34" t="n">
-        <v>788</v>
+        <v>0.02117647058823529</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_received_per_match</t>
+          <t>coming_short_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.444</v>
+        <v>0.01881694299341358</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3873333333333333</v>
+        <v>0.0155061816068008</v>
       </c>
       <c r="D35" t="n">
-        <v>1.146299483648881</v>
+        <v>0.5915795611726559</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1033440854621105</v>
+        <v>0.004094633680388263</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07832776069337163</v>
+        <v>0.005067497852992307</v>
       </c>
       <c r="G35" t="n">
-        <v>0.28</v>
+        <v>0.015</v>
       </c>
       <c r="H35" t="n">
-        <v>0.24</v>
+        <v>0.008947368421052633</v>
       </c>
       <c r="I35" t="n">
-        <v>0.54</v>
+        <v>0.02513513513513514</v>
       </c>
       <c r="J35" t="n">
-        <v>0.57</v>
+        <v>0.02555555555555556</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_targeted_per_match</t>
+          <t>underlap_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.52</v>
+        <v>0.02211428571428571</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4546666666666667</v>
+        <v>0.01716833263241932</v>
       </c>
       <c r="D36" t="n">
-        <v>1.143695014662756</v>
+        <v>0.5862252340102911</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1170469991071963</v>
+        <v>0.004911405626974961</v>
       </c>
       <c r="F36" t="n">
-        <v>0.09210759753575991</v>
+        <v>0.008148875782859477</v>
       </c>
       <c r="G36" t="n">
-        <v>0.33</v>
+        <v>0.01735294117647059</v>
       </c>
       <c r="H36" t="n">
-        <v>0.27</v>
+        <v>0.005</v>
       </c>
       <c r="I36" t="n">
-        <v>0.63</v>
+        <v>0.03029411764705883</v>
       </c>
       <c r="J36" t="n">
-        <v>0.68</v>
+        <v>0.03210526315789473</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_received_per_match</t>
+          <t>coming_short_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.48</v>
+        <v>0.06880031796502387</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4213333333333333</v>
+        <v>0.06057783296544906</v>
       </c>
       <c r="D37" t="n">
-        <v>1.139240506329114</v>
+        <v>0.5669076664750834</v>
       </c>
       <c r="E37" t="n">
-        <v>0.06284902544988266</v>
+        <v>0.01428719992441168</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09485829029713343</v>
+        <v>0.01088963198847657</v>
       </c>
       <c r="G37" t="n">
-        <v>0.41</v>
+        <v>0.05800000000000001</v>
       </c>
       <c r="H37" t="n">
-        <v>0.27</v>
+        <v>0.03973684210526316</v>
       </c>
       <c r="I37" t="n">
-        <v>0.58</v>
+        <v>0.08864864864864866</v>
       </c>
       <c r="J37" t="n">
-        <v>0.57</v>
+        <v>0.07972222222222222</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_cross_receiver_runs_per_match</t>
+          <t>count_runs_in_behind_targeted_per_match</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.73</v>
+        <v>13.54401544401544</v>
       </c>
       <c r="C38" t="n">
-        <v>1.522666666666667</v>
+        <v>11.91308101274045</v>
       </c>
       <c r="D38" t="n">
-        <v>1.136164623467601</v>
+        <v>0.566864917057886</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2130727575266252</v>
+        <v>1.446076973805465</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2387606891149937</v>
+        <v>2.39745144440049</v>
       </c>
       <c r="G38" t="n">
-        <v>1.56</v>
+        <v>12.57142857142857</v>
       </c>
       <c r="H38" t="n">
-        <v>1.2</v>
+        <v>8.633333333333333</v>
       </c>
       <c r="I38" t="n">
-        <v>2.1</v>
+        <v>15.88235294117647</v>
       </c>
       <c r="J38" t="n">
-        <v>1.93</v>
+        <v>15.94117647058824</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_cross_receiver_runs_received_per_match</t>
+          <t>count_pulling_wide_runs_received_per_match</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.158</v>
+        <v>6.104047240517828</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1393333333333334</v>
+        <v>5.254601749833947</v>
       </c>
       <c r="D39" t="n">
-        <v>1.133971291866029</v>
+        <v>0.5650820478363296</v>
       </c>
       <c r="E39" t="n">
-        <v>0.01788854381999832</v>
+        <v>1.568009288541477</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0365409098851971</v>
+        <v>1.162970445661781</v>
       </c>
       <c r="G39" t="n">
-        <v>0.15</v>
+        <v>3.771428571428571</v>
       </c>
       <c r="H39" t="n">
-        <v>0.08</v>
+        <v>3.181818181818182</v>
       </c>
       <c r="I39" t="n">
-        <v>0.19</v>
+        <v>7.529411764705882</v>
       </c>
       <c r="J39" t="n">
-        <v>0.21</v>
+        <v>8.081081081081081</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>cross_receiver_runs_received_threat_per_match</t>
+          <t>count_dropping_off_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01133333333333334</v>
+        <v>0.0057703081232493</v>
       </c>
       <c r="D40" t="n">
-        <v>1.133333333333334</v>
+        <v>0.5601120336112039</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003518657752744984</v>
+        <v>0.01194708011781278</v>
       </c>
       <c r="G40" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.02</v>
+        <v>0.02941176470588235</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_leading_to_goal_per_match</t>
+          <t>count_pulling_wide_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01</v>
+        <v>7.119391324097205</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01133333333333333</v>
+        <v>6.158386166311863</v>
       </c>
       <c r="D41" t="n">
-        <v>1.133333333333333</v>
+        <v>0.5577629515088266</v>
       </c>
       <c r="E41" t="n">
-        <v>0.007071067811865475</v>
+        <v>1.709743739007609</v>
       </c>
       <c r="F41" t="n">
-        <v>0.005163977794943223</v>
+        <v>1.355341432245053</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>4.514285714285714</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>3.606060606060606</v>
       </c>
       <c r="I41" t="n">
-        <v>0.02</v>
+        <v>8.72972972972973</v>
       </c>
       <c r="J41" t="n">
-        <v>0.02</v>
+        <v>9.621621621621621</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_per_match</t>
+          <t>count_dangerous_support_runs_received_per_match</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.78</v>
+        <v>1.225064728594141</v>
       </c>
       <c r="C42" t="n">
-        <v>1.58</v>
+        <v>1.039528233553001</v>
       </c>
       <c r="D42" t="n">
-        <v>1.126582278481012</v>
+        <v>0.5473738990094845</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2166794868002046</v>
+        <v>0.06669332249841392</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2541090879355332</v>
+        <v>0.3027036093979674</v>
       </c>
       <c r="G42" t="n">
-        <v>1.63</v>
+        <v>1.171428571428571</v>
       </c>
       <c r="H42" t="n">
-        <v>1.24</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="I42" t="n">
-        <v>2.16</v>
+        <v>1.323529411764706</v>
       </c>
       <c r="J42" t="n">
-        <v>2.01</v>
+        <v>1.594594594594595</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_leading_to_shot_per_match</t>
+          <t>count_runs_in_behind_received_per_match</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.08400000000000001</v>
+        <v>6.591692028162617</v>
       </c>
       <c r="C43" t="n">
-        <v>0.07466666666666669</v>
+        <v>5.720157795606711</v>
       </c>
       <c r="D43" t="n">
-        <v>1.125</v>
+        <v>0.5390275104788916</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0151657508881031</v>
+        <v>1.061434827120191</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0188477610139267</v>
+        <v>1.337399908735841</v>
       </c>
       <c r="G43" t="n">
-        <v>0.07000000000000001</v>
+        <v>5.628571428571429</v>
       </c>
       <c r="H43" t="n">
-        <v>0.05</v>
+        <v>3.6</v>
       </c>
       <c r="I43" t="n">
-        <v>0.11</v>
+        <v>8.352941176470589</v>
       </c>
       <c r="J43" t="n">
-        <v>0.11</v>
+        <v>7.789473684210527</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>support_runs_threat_per_match</t>
+          <t>count_runs_ahead_of_the_ball_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.036</v>
+        <v>0.1215943674767204</v>
       </c>
       <c r="C44" t="n">
-        <v>0.03200000000000001</v>
+        <v>0.1631717013141162</v>
       </c>
       <c r="D44" t="n">
-        <v>1.125</v>
+        <v>0.535120049672521</v>
       </c>
       <c r="E44" t="n">
-        <v>0.005477225575051662</v>
+        <v>0.07149293053178021</v>
       </c>
       <c r="F44" t="n">
-        <v>0.005606119105813881</v>
+        <v>0.08685293004724939</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="H44" t="n">
-        <v>0.02</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="I44" t="n">
-        <v>0.04</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="J44" t="n">
-        <v>0.04</v>
+        <v>0.3243243243243243</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_received_per_match</t>
+          <t>count_dangerous_cross_receiver_runs_received_per_match</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.17</v>
+        <v>2.202993413581649</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1513333333333333</v>
+        <v>1.899340618411826</v>
       </c>
       <c r="D45" t="n">
-        <v>1.123348017621145</v>
+        <v>0.5305771595693628</v>
       </c>
       <c r="E45" t="n">
-        <v>0.01732050807568878</v>
+        <v>0.2280269272663426</v>
       </c>
       <c r="F45" t="n">
-        <v>0.03961721607488101</v>
+        <v>0.507588224222779</v>
       </c>
       <c r="G45" t="n">
-        <v>0.16</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
-        <v>0.09</v>
+        <v>1.121212121212121</v>
       </c>
       <c r="I45" t="n">
-        <v>0.2</v>
+        <v>2.588235294117647</v>
       </c>
       <c r="J45" t="n">
-        <v>0.23</v>
+        <v>2.861111111111111</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_targeted_per_match</t>
+          <t>support_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.9860000000000001</v>
+        <v>0.1212782648194413</v>
       </c>
       <c r="C46" t="n">
-        <v>0.8786666666666668</v>
+        <v>0.1084716271657448</v>
       </c>
       <c r="D46" t="n">
-        <v>1.122154779969651</v>
+        <v>0.5293074911535495</v>
       </c>
       <c r="E46" t="n">
-        <v>0.08443932733033822</v>
+        <v>0.008724574232945039</v>
       </c>
       <c r="F46" t="n">
-        <v>0.170999860762962</v>
+        <v>0.02014085545014307</v>
       </c>
       <c r="G46" t="n">
-        <v>0.91</v>
+        <v>0.1147058823529412</v>
       </c>
       <c r="H46" t="n">
-        <v>0.66</v>
+        <v>0.08030303030303031</v>
       </c>
       <c r="I46" t="n">
-        <v>1.1</v>
+        <v>0.1359459459459459</v>
       </c>
       <c r="J46" t="n">
-        <v>1.19</v>
+        <v>0.1410810810810811</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_in_sample</t>
+          <t>pulling_half_space_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>846.2</v>
+        <v>0.08071414944356121</v>
       </c>
       <c r="C47" t="n">
-        <v>755.9333333333333</v>
+        <v>0.06952424228337542</v>
       </c>
       <c r="D47" t="n">
-        <v>1.119410882793897</v>
+        <v>0.5275443868177447</v>
       </c>
       <c r="E47" t="n">
-        <v>88.12888289318094</v>
+        <v>0.02622143412195011</v>
       </c>
       <c r="F47" t="n">
-        <v>153.2926550596541</v>
+        <v>0.0158463337713869</v>
       </c>
       <c r="G47" t="n">
-        <v>769</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="H47" t="n">
-        <v>478</v>
+        <v>0.04763157894736842</v>
       </c>
       <c r="I47" t="n">
-        <v>979</v>
+        <v>0.1148648648648649</v>
       </c>
       <c r="J47" t="n">
-        <v>1041</v>
+        <v>0.1016666666666667</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_underlap_runs_targeted_per_match</t>
+          <t>count_dangerous_cross_receiver_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.04</v>
+        <v>5.94723597547127</v>
       </c>
       <c r="C48" t="n">
-        <v>0.036</v>
+        <v>5.304845408312902</v>
       </c>
       <c r="D48" t="n">
-        <v>1.111111111111111</v>
+        <v>0.5238438836310186</v>
       </c>
       <c r="E48" t="n">
-        <v>0.007071067811865477</v>
+        <v>0.9680844155553394</v>
       </c>
       <c r="F48" t="n">
-        <v>0.01764733893335115</v>
+        <v>0.9682871838062471</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03</v>
+        <v>4.942857142857143</v>
       </c>
       <c r="H48" t="n">
-        <v>0.02</v>
+        <v>3.96969696969697</v>
       </c>
       <c r="I48" t="n">
-        <v>0.05</v>
+        <v>7.058823529411764</v>
       </c>
       <c r="J48" t="n">
-        <v>0.08</v>
+        <v>7.194444444444445</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_cross_receiver_runs_targeted_per_match</t>
+          <t>overlap_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.434</v>
+        <v>0.1451175562116739</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3920000000000001</v>
+        <v>0.1292573054780485</v>
       </c>
       <c r="D49" t="n">
-        <v>1.107142857142857</v>
+        <v>0.5154446953074692</v>
       </c>
       <c r="E49" t="n">
-        <v>0.07056911505750942</v>
+        <v>0.03405899082800624</v>
       </c>
       <c r="F49" t="n">
-        <v>0.06940563995197262</v>
+        <v>0.02166429085145441</v>
       </c>
       <c r="G49" t="n">
-        <v>0.36</v>
+        <v>0.1064705882352941</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3</v>
+        <v>0.09000000000000001</v>
       </c>
       <c r="I49" t="n">
-        <v>0.53</v>
+        <v>0.1832432432432433</v>
       </c>
       <c r="J49" t="n">
-        <v>0.54</v>
+        <v>0.1816666666666667</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_received_per_match</t>
+          <t>count_coming_short_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.152</v>
+        <v>0.01128775834658188</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1373333333333334</v>
+        <v>0.0228463794098469</v>
       </c>
       <c r="D50" t="n">
-        <v>1.106796116504854</v>
+        <v>0.5121475197315839</v>
       </c>
       <c r="E50" t="n">
-        <v>0.02949576240750525</v>
+        <v>0.01547937862593079</v>
       </c>
       <c r="F50" t="n">
-        <v>0.03575045787252574</v>
+        <v>0.0242329210677283</v>
       </c>
       <c r="G50" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.18</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="J50" t="n">
-        <v>0.21</v>
+        <v>0.08108108108108109</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_support_runs_per_match</t>
+          <t>underlap_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.534</v>
+        <v>0.03500354303883715</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4846666666666666</v>
+        <v>0.02865559912371057</v>
       </c>
       <c r="D51" t="n">
-        <v>1.101788170563962</v>
+        <v>0.4850883834495583</v>
       </c>
       <c r="E51" t="n">
-        <v>0.09016651263079879</v>
+        <v>0.009906303913364707</v>
       </c>
       <c r="F51" t="n">
-        <v>0.09687006515848705</v>
+        <v>0.01211203510397688</v>
       </c>
       <c r="G51" t="n">
-        <v>0.43</v>
+        <v>0.02735294117647059</v>
       </c>
       <c r="H51" t="n">
-        <v>0.32</v>
+        <v>0.01233333333333333</v>
       </c>
       <c r="I51" t="n">
-        <v>0.64</v>
+        <v>0.05205882352941177</v>
       </c>
       <c r="J51" t="n">
-        <v>0.66</v>
+        <v>0.05421052631578947</v>
       </c>
     </row>
     <row r="52">
@@ -2187,1515 +2188,1515 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.45</v>
+        <v>6.131546672723142</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4086666666666667</v>
+        <v>5.542358372203575</v>
       </c>
       <c r="D52" t="n">
-        <v>1.101141924959217</v>
+        <v>0.4661612808987073</v>
       </c>
       <c r="E52" t="n">
-        <v>0.06363961030678929</v>
+        <v>0.8891802319947392</v>
       </c>
       <c r="F52" t="n">
-        <v>0.07288608202106185</v>
+        <v>1.017044092739819</v>
       </c>
       <c r="G52" t="n">
-        <v>0.39</v>
+        <v>5.235294117647059</v>
       </c>
       <c r="H52" t="n">
-        <v>0.31</v>
+        <v>4.121212121212121</v>
       </c>
       <c r="I52" t="n">
-        <v>0.54</v>
+        <v>7.235294117647059</v>
       </c>
       <c r="J52" t="n">
-        <v>0.5600000000000001</v>
+        <v>7.527777777777778</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_in_sample</t>
+          <t>count_support_runs_per_match</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>342.4</v>
+        <v>37.44808539632069</v>
       </c>
       <c r="C53" t="n">
-        <v>311.1333333333333</v>
+        <v>34.76193595348395</v>
       </c>
       <c r="D53" t="n">
-        <v>1.10049282194129</v>
+        <v>0.4655179900721305</v>
       </c>
       <c r="E53" t="n">
-        <v>124.0677234416752</v>
+        <v>5.254525586248627</v>
       </c>
       <c r="F53" t="n">
-        <v>71.932375650097</v>
+        <v>3.503271187118939</v>
       </c>
       <c r="G53" t="n">
-        <v>221</v>
+        <v>31.77142857142857</v>
       </c>
       <c r="H53" t="n">
-        <v>202</v>
+        <v>29.38235294117647</v>
       </c>
       <c r="I53" t="n">
-        <v>525</v>
+        <v>43.35135135135135</v>
       </c>
       <c r="J53" t="n">
-        <v>463</v>
+        <v>40.22222222222222</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_support_runs_targeted_per_match</t>
+          <t>count_support_runs_in_sample</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.122</v>
+        <v>37.44808539632069</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1113333333333334</v>
+        <v>34.76193595348395</v>
       </c>
       <c r="D54" t="n">
-        <v>1.095808383233533</v>
+        <v>0.4655179900721305</v>
       </c>
       <c r="E54" t="n">
-        <v>0.008366600265340758</v>
+        <v>5.254525586248627</v>
       </c>
       <c r="F54" t="n">
-        <v>0.02695675549220763</v>
+        <v>3.503271187118939</v>
       </c>
       <c r="G54" t="n">
-        <v>0.11</v>
+        <v>31.77142857142857</v>
       </c>
       <c r="H54" t="n">
-        <v>0.08</v>
+        <v>29.38235294117647</v>
       </c>
       <c r="I54" t="n">
-        <v>0.13</v>
+        <v>43.35135135135135</v>
       </c>
       <c r="J54" t="n">
-        <v>0.16</v>
+        <v>40.22222222222222</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_leading_to_shot_per_match</t>
+          <t>count_dropping_off_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.06999999999999999</v>
+        <v>0.1447876447876448</v>
       </c>
       <c r="C55" t="n">
-        <v>0.07666666666666667</v>
+        <v>0.1152578645148305</v>
       </c>
       <c r="D55" t="n">
-        <v>1.095238095238095</v>
+        <v>0.4495708474684822</v>
       </c>
       <c r="E55" t="n">
-        <v>0.01732050807568878</v>
+        <v>0.08190890494267634</v>
       </c>
       <c r="F55" t="n">
-        <v>0.01543033499620919</v>
+        <v>0.05554121807102219</v>
       </c>
       <c r="G55" t="n">
-        <v>0.06</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="H55" t="n">
-        <v>0.05</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="J55" t="n">
-        <v>0.11</v>
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_underlap_runs_per_match</t>
+          <t>count_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.118</v>
+        <v>32.3626754485578</v>
       </c>
       <c r="C56" t="n">
-        <v>0.108</v>
+        <v>29.2981493785209</v>
       </c>
       <c r="D56" t="n">
-        <v>1.092592592592592</v>
+        <v>0.4485128597556386</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0216794833886788</v>
+        <v>4.683787006506974</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0340587727318528</v>
+        <v>5.485614908024549</v>
       </c>
       <c r="G56" t="n">
-        <v>0.09</v>
+        <v>27.41176470588235</v>
       </c>
       <c r="H56" t="n">
-        <v>0.06</v>
+        <v>21.43333333333333</v>
       </c>
       <c r="I56" t="n">
-        <v>0.14</v>
+        <v>40.11764705882353</v>
       </c>
       <c r="J56" t="n">
-        <v>0.18</v>
+        <v>37.52941176470588</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_per_match</t>
+          <t>count_runs_in_behind_in_sample</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2.358</v>
+        <v>32.3626754485578</v>
       </c>
       <c r="C57" t="n">
-        <v>2.159333333333334</v>
+        <v>29.2981493785209</v>
       </c>
       <c r="D57" t="n">
-        <v>1.092003704847175</v>
+        <v>0.4485128597556386</v>
       </c>
       <c r="E57" t="n">
-        <v>0.2637612556839993</v>
+        <v>4.683787006506974</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3883015519388189</v>
+        <v>5.485614908024549</v>
       </c>
       <c r="G57" t="n">
-        <v>2.07</v>
+        <v>27.41176470588235</v>
       </c>
       <c r="H57" t="n">
-        <v>1.68</v>
+        <v>21.43333333333333</v>
       </c>
       <c r="I57" t="n">
-        <v>2.79</v>
+        <v>40.11764705882353</v>
       </c>
       <c r="J57" t="n">
-        <v>2.8</v>
+        <v>37.52941176470588</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_per_match</t>
+          <t>count_dangerous_support_runs_per_match</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.7140000000000001</v>
+        <v>7.296697706109471</v>
       </c>
       <c r="C58" t="n">
-        <v>0.654</v>
+        <v>6.566912236912239</v>
       </c>
       <c r="D58" t="n">
-        <v>1.091743119266055</v>
+        <v>0.444980683770335</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2261194374661321</v>
+        <v>1.17422802562357</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1291621350971605</v>
+        <v>1.335940289545153</v>
       </c>
       <c r="G58" t="n">
-        <v>0.49</v>
+        <v>5.735294117647059</v>
       </c>
       <c r="H58" t="n">
-        <v>0.42</v>
+        <v>4.411764705882353</v>
       </c>
       <c r="I58" t="n">
-        <v>1.03</v>
+        <v>8.558823529411764</v>
       </c>
       <c r="J58" t="n">
-        <v>0.88</v>
+        <v>8.911764705882353</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_leading_to_goal_per_match</t>
+          <t>count_coming_short_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.016</v>
+        <v>0.199795593913241</v>
       </c>
       <c r="C59" t="n">
-        <v>0.01466666666666667</v>
+        <v>0.1723323025490208</v>
       </c>
       <c r="D59" t="n">
-        <v>1.090909090909091</v>
+        <v>0.4346966706437808</v>
       </c>
       <c r="E59" t="n">
-        <v>0.005477225575051661</v>
+        <v>0.08828188920860353</v>
       </c>
       <c r="F59" t="n">
-        <v>0.008338093878327919</v>
+        <v>0.05000352092822971</v>
       </c>
       <c r="G59" t="n">
-        <v>0.01</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="I59" t="n">
-        <v>0.02</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="J59" t="n">
-        <v>0.03</v>
+        <v>0.2368421052631579</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>runs_in_behind_threat_per_match</t>
+          <t>count_cross_receiver_runs_received_per_match</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.07200000000000001</v>
+        <v>2.300863047921871</v>
       </c>
       <c r="C60" t="n">
-        <v>0.06600000000000003</v>
+        <v>2.037655920968614</v>
       </c>
       <c r="D60" t="n">
-        <v>1.090909090909091</v>
+        <v>0.4302581005609785</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0130384048104053</v>
+        <v>0.2188886379758183</v>
       </c>
       <c r="F60" t="n">
-        <v>0.01121223821162776</v>
+        <v>0.537463809667263</v>
       </c>
       <c r="G60" t="n">
-        <v>0.06</v>
+        <v>2.117647058823529</v>
       </c>
       <c r="H60" t="n">
-        <v>0.05</v>
+        <v>1.212121212121212</v>
       </c>
       <c r="I60" t="n">
-        <v>0.09</v>
+        <v>2.676470588235294</v>
       </c>
       <c r="J60" t="n">
-        <v>0.09</v>
+        <v>3.055555555555555</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_ahead_of_the_ball_received_per_match</t>
+          <t>count_dangerous_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.15</v>
+        <v>0.5256643197819668</v>
       </c>
       <c r="C61" t="n">
-        <v>0.138</v>
+        <v>0.4481022790310715</v>
       </c>
       <c r="D61" t="n">
-        <v>1.08695652173913</v>
+        <v>0.4048317187777124</v>
       </c>
       <c r="E61" t="n">
-        <v>0.04183300132670378</v>
+        <v>0.1964053113133244</v>
       </c>
       <c r="F61" t="n">
-        <v>0.02677952309401452</v>
+        <v>0.1761406448020426</v>
       </c>
       <c r="G61" t="n">
-        <v>0.11</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H61" t="n">
-        <v>0.09</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="I61" t="n">
-        <v>0.2</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="J61" t="n">
-        <v>0.18</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_leading_to_shot_per_match</t>
+          <t>overlap_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.11</v>
+        <v>0.05912600499659323</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1013333333333334</v>
+        <v>0.05320524284487133</v>
       </c>
       <c r="D62" t="n">
-        <v>1.085526315789473</v>
+        <v>0.3932256559073541</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0158113883008419</v>
+        <v>0.01699218744966589</v>
       </c>
       <c r="F62" t="n">
-        <v>0.02325838302531757</v>
+        <v>0.01068816044352055</v>
       </c>
       <c r="G62" t="n">
-        <v>0.09</v>
+        <v>0.04058823529411765</v>
       </c>
       <c r="H62" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03266666666666666</v>
       </c>
       <c r="I62" t="n">
-        <v>0.13</v>
+        <v>0.08162162162162162</v>
       </c>
       <c r="J62" t="n">
-        <v>0.14</v>
+        <v>0.07833333333333332</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>count_overlap_runs_leading_to_shot_per_match</t>
+          <t>count_support_runs_received_per_match</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.032</v>
+        <v>9.573009311832839</v>
       </c>
       <c r="C63" t="n">
-        <v>0.03466666666666667</v>
+        <v>8.801126191931145</v>
       </c>
       <c r="D63" t="n">
-        <v>1.083333333333333</v>
+        <v>0.3922273344291675</v>
       </c>
       <c r="E63" t="n">
-        <v>0.00447213595499958</v>
+        <v>1.262320420025655</v>
       </c>
       <c r="F63" t="n">
-        <v>0.00833809387832792</v>
+        <v>1.353201470721109</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03</v>
+        <v>7.885714285714286</v>
       </c>
       <c r="H63" t="n">
-        <v>0.02</v>
+        <v>6.433333333333334</v>
       </c>
       <c r="I63" t="n">
-        <v>0.04</v>
+        <v>10.85294117647059</v>
       </c>
       <c r="J63" t="n">
-        <v>0.05</v>
+        <v>11.1578947368421</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_received_per_match</t>
+          <t>coming_short_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.6980000000000001</v>
+        <v>0.02099250511015217</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6506666666666668</v>
+        <v>0.01853353653601332</v>
       </c>
       <c r="D64" t="n">
-        <v>1.072745901639344</v>
+        <v>0.3870390726840048</v>
       </c>
       <c r="E64" t="n">
-        <v>0.07694153624668539</v>
+        <v>0.004197425658834357</v>
       </c>
       <c r="F64" t="n">
-        <v>0.09323293920273537</v>
+        <v>0.005787867802975151</v>
       </c>
       <c r="G64" t="n">
-        <v>0.58</v>
+        <v>0.01676470588235294</v>
       </c>
       <c r="H64" t="n">
-        <v>0.53</v>
+        <v>0.01078947368421053</v>
       </c>
       <c r="I64" t="n">
-        <v>0.76</v>
+        <v>0.02756756756756757</v>
       </c>
       <c r="J64" t="n">
-        <v>0.82</v>
+        <v>0.02916666666666667</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_in_sample</t>
+          <t>count_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>780.4</v>
+        <v>9.780358846241199</v>
       </c>
       <c r="C65" t="n">
-        <v>729.4666666666667</v>
+        <v>8.831131491750686</v>
       </c>
       <c r="D65" t="n">
-        <v>1.06982270151709</v>
+        <v>0.3768477818307855</v>
       </c>
       <c r="E65" t="n">
-        <v>166.6007202865582</v>
+        <v>3.249431817937457</v>
       </c>
       <c r="F65" t="n">
-        <v>148.9280107332143</v>
+        <v>1.813476918035459</v>
       </c>
       <c r="G65" t="n">
-        <v>581</v>
+        <v>6.5</v>
       </c>
       <c r="H65" t="n">
-        <v>500</v>
+        <v>5.868421052631579</v>
       </c>
       <c r="I65" t="n">
-        <v>978</v>
+        <v>14.18918918918919</v>
       </c>
       <c r="J65" t="n">
-        <v>1019</v>
+        <v>12.51351351351351</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>runs_in_behind_received_threat_per_match</t>
+          <t>count_pulling_half_space_runs_in_sample</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01</v>
+        <v>9.780358846241199</v>
       </c>
       <c r="C66" t="n">
-        <v>0.01066666666666667</v>
+        <v>8.831131491750687</v>
       </c>
       <c r="D66" t="n">
-        <v>1.066666666666667</v>
+        <v>0.3768477818307855</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>3.249431817937457</v>
       </c>
       <c r="F66" t="n">
-        <v>0.002581988897471612</v>
+        <v>1.813476918035459</v>
       </c>
       <c r="G66" t="n">
-        <v>0.01</v>
+        <v>6.5</v>
       </c>
       <c r="H66" t="n">
-        <v>0.01</v>
+        <v>5.868421052631579</v>
       </c>
       <c r="I66" t="n">
-        <v>0.01</v>
+        <v>14.18918918918919</v>
       </c>
       <c r="J66" t="n">
-        <v>0.02</v>
+        <v>12.51351351351351</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_in_sample</t>
+          <t>count_dangerous_dropping_off_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1305.6</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="C67" t="n">
-        <v>1224.533333333333</v>
+        <v>0.005773420479302832</v>
       </c>
       <c r="D67" t="n">
-        <v>1.066202090592334</v>
+        <v>0.3730019232961255</v>
       </c>
       <c r="E67" t="n">
-        <v>212.3070889066119</v>
+        <v>0.01610948698544606</v>
       </c>
       <c r="F67" t="n">
-        <v>169.363036389993</v>
+        <v>0.01632663640948621</v>
       </c>
       <c r="G67" t="n">
-        <v>1090</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>929</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1604</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="J67" t="n">
-        <v>1483</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_per_match</t>
+          <t>cross_receiver_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2.732</v>
+        <v>0.4831396774926186</v>
       </c>
       <c r="C68" t="n">
-        <v>2.566666666666667</v>
+        <v>0.4393842997434328</v>
       </c>
       <c r="D68" t="n">
-        <v>1.064415584415584</v>
+        <v>0.3721322900013325</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3600277767061869</v>
+        <v>0.06350403301734858</v>
       </c>
       <c r="F68" t="n">
-        <v>0.2622612292752254</v>
+        <v>0.0978036335520875</v>
       </c>
       <c r="G68" t="n">
-        <v>2.33</v>
+        <v>0.3926470588235294</v>
       </c>
       <c r="H68" t="n">
-        <v>2.16</v>
+        <v>0.2990909090909091</v>
       </c>
       <c r="I68" t="n">
-        <v>3.13</v>
+        <v>0.5435135135135135</v>
       </c>
       <c r="J68" t="n">
-        <v>3</v>
+        <v>0.5989473684210527</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>cross_receiver_runs_targeted_threat_per_match</t>
+          <t>count_dangerous_coming_short_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.034</v>
+        <v>0.03862366568248922</v>
       </c>
       <c r="C69" t="n">
-        <v>0.03200000000000001</v>
+        <v>0.05395540971392365</v>
       </c>
       <c r="D69" t="n">
-        <v>1.0625</v>
+        <v>0.3715909409555293</v>
       </c>
       <c r="E69" t="n">
-        <v>0.005477225575051662</v>
+        <v>0.05586578878874394</v>
       </c>
       <c r="F69" t="n">
-        <v>0.007745966692414835</v>
+        <v>0.03443169364792669</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0.04</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="J69" t="n">
-        <v>0.04</v>
+        <v>0.1351351351351351</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_per_match</t>
+          <t>count_cross_receiver_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1.628</v>
+        <v>1.143692936634113</v>
       </c>
       <c r="C70" t="n">
-        <v>1.532666666666667</v>
+        <v>1.020587877089425</v>
       </c>
       <c r="D70" t="n">
-        <v>1.062200956937799</v>
+        <v>0.3699224394461988</v>
       </c>
       <c r="E70" t="n">
-        <v>0.2730750812505601</v>
+        <v>0.2247395731718137</v>
       </c>
       <c r="F70" t="n">
-        <v>0.2893210442858705</v>
+        <v>0.2775811558658358</v>
       </c>
       <c r="G70" t="n">
-        <v>1.29</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="H70" t="n">
-        <v>0.93</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="I70" t="n">
-        <v>1.91</v>
+        <v>1.5</v>
       </c>
       <c r="J70" t="n">
-        <v>2.11</v>
+        <v>1.552631578947368</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_leading_to_shot_per_match</t>
+          <t>count_pulling_half_space_runs_received_per_match</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.014</v>
+        <v>2.057438110379287</v>
       </c>
       <c r="C71" t="n">
-        <v>0.01333333333333333</v>
+        <v>1.858396806198664</v>
       </c>
       <c r="D71" t="n">
-        <v>1.05</v>
+        <v>0.3683369102553868</v>
       </c>
       <c r="E71" t="n">
-        <v>0.005477225575051661</v>
+        <v>0.3884017829614841</v>
       </c>
       <c r="F71" t="n">
-        <v>0.006172133998483676</v>
+        <v>0.4987647253571572</v>
       </c>
       <c r="G71" t="n">
-        <v>0.01</v>
+        <v>1.5</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1.263157894736842</v>
       </c>
       <c r="I71" t="n">
-        <v>0.02</v>
+        <v>2.45945945945946</v>
       </c>
       <c r="J71" t="n">
-        <v>0.02</v>
+        <v>2.945945945945946</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_leading_to_goal_per_match</t>
+          <t>count_coming_short_runs_in_sample</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.014</v>
+        <v>22.36934362934363</v>
       </c>
       <c r="C72" t="n">
-        <v>0.01333333333333334</v>
+        <v>20.73403909317222</v>
       </c>
       <c r="D72" t="n">
-        <v>1.05</v>
+        <v>0.3468525484725485</v>
       </c>
       <c r="E72" t="n">
-        <v>0.008944271909999158</v>
+        <v>4.355589999391016</v>
       </c>
       <c r="F72" t="n">
-        <v>0.007237468644557459</v>
+        <v>3.795990691848278</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>17.08823529411765</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="I72" t="n">
-        <v>0.02</v>
+        <v>27.26470588235294</v>
       </c>
       <c r="J72" t="n">
-        <v>0.03</v>
+        <v>28.30555555555556</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_received_per_match</t>
+          <t>count_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.522</v>
+        <v>22.36934362934363</v>
       </c>
       <c r="C73" t="n">
-        <v>0.4973333333333334</v>
+        <v>20.73403909317222</v>
       </c>
       <c r="D73" t="n">
-        <v>1.049597855227882</v>
+        <v>0.3468525484725485</v>
       </c>
       <c r="E73" t="n">
-        <v>0.06797058187186571</v>
+        <v>4.355589999391016</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1152306176243764</v>
+        <v>3.795990691848278</v>
       </c>
       <c r="G73" t="n">
-        <v>0.42</v>
+        <v>17.08823529411765</v>
       </c>
       <c r="H73" t="n">
-        <v>0.29</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="I73" t="n">
-        <v>0.58</v>
+        <v>27.26470588235294</v>
       </c>
       <c r="J73" t="n">
-        <v>0.76</v>
+        <v>28.30555555555556</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_targeted_per_match</t>
+          <t>cross_receiver_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.8160000000000001</v>
+        <v>0.1639796956620486</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7786666666666666</v>
+        <v>0.1465791651689484</v>
       </c>
       <c r="D74" t="n">
-        <v>1.047945205479452</v>
+        <v>0.342947659642123</v>
       </c>
       <c r="E74" t="n">
-        <v>0.08264381404557757</v>
+        <v>0.02045600353822701</v>
       </c>
       <c r="F74" t="n">
-        <v>0.09956094089742699</v>
+        <v>0.04548143429401644</v>
       </c>
       <c r="G74" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.136764705882353</v>
       </c>
       <c r="H74" t="n">
-        <v>0.66</v>
+        <v>0.07866666666666666</v>
       </c>
       <c r="I74" t="n">
-        <v>0.9</v>
+        <v>0.1888235294117647</v>
       </c>
       <c r="J74" t="n">
-        <v>0.96</v>
+        <v>0.2280555555555556</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_in_behind_per_match</t>
+          <t>runs_in_behind_received_threat_per_match</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1.196</v>
+        <v>0.1609521235521236</v>
       </c>
       <c r="C75" t="n">
-        <v>1.141333333333333</v>
+        <v>0.1452746953016303</v>
       </c>
       <c r="D75" t="n">
-        <v>1.047897196261682</v>
+        <v>0.3404558563650017</v>
       </c>
       <c r="E75" t="n">
-        <v>0.1876965636339675</v>
+        <v>0.03096806171014679</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1988131451053141</v>
+        <v>0.03704793639882926</v>
       </c>
       <c r="G75" t="n">
-        <v>0.97</v>
+        <v>0.1220588235294118</v>
       </c>
       <c r="H75" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.08566666666666665</v>
       </c>
       <c r="I75" t="n">
-        <v>1.44</v>
+        <v>0.1991176470588235</v>
       </c>
       <c r="J75" t="n">
-        <v>1.59</v>
+        <v>0.2135294117647059</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>count_overlap_runs_targeted_per_match</t>
+          <t>count_dangerous_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.3119999999999999</v>
+        <v>1.629752441517148</v>
       </c>
       <c r="C76" t="n">
-        <v>0.2986666666666666</v>
+        <v>1.456470830526558</v>
       </c>
       <c r="D76" t="n">
-        <v>1.044642857142857</v>
+        <v>0.3402069087198859</v>
       </c>
       <c r="E76" t="n">
-        <v>0.07155417527999325</v>
+        <v>0.3124877186678297</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07140094703920416</v>
+        <v>0.4563758417148068</v>
       </c>
       <c r="G76" t="n">
-        <v>0.23</v>
+        <v>1.176470588235294</v>
       </c>
       <c r="H76" t="n">
-        <v>0.19</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="I76" t="n">
-        <v>0.41</v>
+        <v>1.882352941176471</v>
       </c>
       <c r="J76" t="n">
-        <v>0.49</v>
+        <v>2.447368421052631</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_per_match</t>
+          <t>count_dangerous_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>3.918</v>
+        <v>0.02302521008403361</v>
       </c>
       <c r="C77" t="n">
-        <v>4.092666666666667</v>
+        <v>0.03554327396432659</v>
       </c>
       <c r="D77" t="n">
-        <v>1.044580568317169</v>
+        <v>0.3361317894972893</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3733229165213408</v>
+        <v>0.03728669059314253</v>
       </c>
       <c r="F77" t="n">
-        <v>0.4354384763277893</v>
+        <v>0.04174717388052308</v>
       </c>
       <c r="G77" t="n">
-        <v>3.39</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>3.26</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>4.32</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="J77" t="n">
-        <v>4.83</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_in_sample</t>
+          <t>runs_in_behind_threat_per_match</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1870.8</v>
+        <v>0.9773756075403135</v>
       </c>
       <c r="C78" t="n">
-        <v>1954</v>
+        <v>0.9026613884480758</v>
       </c>
       <c r="D78" t="n">
-        <v>1.044472952747488</v>
+        <v>0.332169215572252</v>
       </c>
       <c r="E78" t="n">
-        <v>259.3254711747383</v>
+        <v>0.1843025851245145</v>
       </c>
       <c r="F78" t="n">
-        <v>294.6731845863918</v>
+        <v>0.167537293696371</v>
       </c>
       <c r="G78" t="n">
-        <v>1526</v>
+        <v>0.7470588235294118</v>
       </c>
       <c r="H78" t="n">
-        <v>1445</v>
+        <v>0.6786666666666666</v>
       </c>
       <c r="I78" t="n">
-        <v>2210</v>
+        <v>1.213714285714286</v>
       </c>
       <c r="J78" t="n">
-        <v>2498</v>
+        <v>1.241470588235294</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_in_behind_received_per_match</t>
+          <t>count_dangerous_support_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.194</v>
+        <v>1.659418578242108</v>
       </c>
       <c r="C79" t="n">
-        <v>0.186</v>
+        <v>1.520790283669541</v>
       </c>
       <c r="D79" t="n">
-        <v>1.043010752688172</v>
+        <v>0.3194790349760559</v>
       </c>
       <c r="E79" t="n">
-        <v>0.03646916505762093</v>
+        <v>0.09578375101524904</v>
       </c>
       <c r="F79" t="n">
-        <v>0.04610546915187271</v>
+        <v>0.3608717684954741</v>
       </c>
       <c r="G79" t="n">
-        <v>0.15</v>
+        <v>1.558823529411765</v>
       </c>
       <c r="H79" t="n">
-        <v>0.11</v>
+        <v>1.066666666666667</v>
       </c>
       <c r="I79" t="n">
-        <v>0.24</v>
+        <v>1.764705882352941</v>
       </c>
       <c r="J79" t="n">
-        <v>0.28</v>
+        <v>2.111111111111111</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_in_behind_targeted_per_match</t>
+          <t>count_runs_ahead_of_the_ball_in_sample</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.414</v>
+        <v>53.67384510560981</v>
       </c>
       <c r="C80" t="n">
-        <v>0.3986666666666666</v>
+        <v>55.42291531127444</v>
       </c>
       <c r="D80" t="n">
-        <v>1.038461538461539</v>
+        <v>0.3027347404476339</v>
       </c>
       <c r="E80" t="n">
-        <v>0.06024948132556826</v>
+        <v>6.287169289861645</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08609518541928435</v>
+        <v>6.082707815726875</v>
       </c>
       <c r="G80" t="n">
-        <v>0.34</v>
+        <v>44.88235294117647</v>
       </c>
       <c r="H80" t="n">
-        <v>0.26</v>
+        <v>44.90909090909091</v>
       </c>
       <c r="I80" t="n">
-        <v>0.49</v>
+        <v>59.72972972972973</v>
       </c>
       <c r="J80" t="n">
-        <v>0.59</v>
+        <v>65.73684210526316</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_ahead_of_the_ball_targeted_per_match</t>
+          <t>count_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.218</v>
+        <v>53.67384510560981</v>
       </c>
       <c r="C81" t="n">
-        <v>0.21</v>
+        <v>55.42291531127444</v>
       </c>
       <c r="D81" t="n">
-        <v>1.038095238095238</v>
+        <v>0.3027347404476339</v>
       </c>
       <c r="E81" t="n">
-        <v>0.03898717737923586</v>
+        <v>6.287169289861645</v>
       </c>
       <c r="F81" t="n">
-        <v>0.03295017884191655</v>
+        <v>6.082707815726875</v>
       </c>
       <c r="G81" t="n">
-        <v>0.19</v>
+        <v>44.88235294117647</v>
       </c>
       <c r="H81" t="n">
-        <v>0.13</v>
+        <v>44.90909090909091</v>
       </c>
       <c r="I81" t="n">
-        <v>0.27</v>
+        <v>59.72972972972973</v>
       </c>
       <c r="J81" t="n">
-        <v>0.26</v>
+        <v>65.73684210526316</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>runs_ahead_of_the_ball_threat_per_match</t>
+          <t>count_dangerous_runs_ahead_of_the_ball_received_per_match</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.05400000000000001</v>
+        <v>2.032055416761299</v>
       </c>
       <c r="C82" t="n">
-        <v>0.05600000000000002</v>
+        <v>1.873251689629399</v>
       </c>
       <c r="D82" t="n">
-        <v>1.037037037037037</v>
+        <v>0.2933221599909284</v>
       </c>
       <c r="E82" t="n">
-        <v>0.008944271909999156</v>
+        <v>0.5600067637458718</v>
       </c>
       <c r="F82" t="n">
-        <v>0.007367883976130072</v>
+        <v>0.3686157038129935</v>
       </c>
       <c r="G82" t="n">
-        <v>0.04</v>
+        <v>1.441176470588235</v>
       </c>
       <c r="H82" t="n">
-        <v>0.04</v>
+        <v>1.212121212121212</v>
       </c>
       <c r="I82" t="n">
-        <v>0.06</v>
+        <v>2.685714285714285</v>
       </c>
       <c r="J82" t="n">
-        <v>0.07000000000000001</v>
+        <v>2.352941176470588</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_targeted_per_match</t>
+          <t>overlap_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.18</v>
+        <v>0.04508194412900295</v>
       </c>
       <c r="C83" t="n">
-        <v>0.174</v>
+        <v>0.04142392129172315</v>
       </c>
       <c r="D83" t="n">
-        <v>1.03448275862069</v>
+        <v>0.2841468367492098</v>
       </c>
       <c r="E83" t="n">
-        <v>0.03674234614174766</v>
+        <v>0.01528334019127634</v>
       </c>
       <c r="F83" t="n">
-        <v>0.04136941589421552</v>
+        <v>0.008375648516888922</v>
       </c>
       <c r="G83" t="n">
-        <v>0.13</v>
+        <v>0.02705882352941177</v>
       </c>
       <c r="H83" t="n">
-        <v>0.11</v>
+        <v>0.02633333333333333</v>
       </c>
       <c r="I83" t="n">
-        <v>0.22</v>
+        <v>0.0645945945945946</v>
       </c>
       <c r="J83" t="n">
-        <v>0.26</v>
+        <v>0.06305555555555556</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_targeted_per_match</t>
+          <t>count_support_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.5660000000000001</v>
+        <v>11.20654099477629</v>
       </c>
       <c r="C84" t="n">
-        <v>0.5486666666666667</v>
+        <v>10.5555273974469</v>
       </c>
       <c r="D84" t="n">
-        <v>1.031591737545565</v>
+        <v>0.2817717933868527</v>
       </c>
       <c r="E84" t="n">
-        <v>0.06693280212272602</v>
+        <v>1.308442476589012</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1222916108947711</v>
+        <v>1.473844945780269</v>
       </c>
       <c r="G84" t="n">
-        <v>0.46</v>
+        <v>9.428571428571429</v>
       </c>
       <c r="H84" t="n">
-        <v>0.32</v>
+        <v>7.8</v>
       </c>
       <c r="I84" t="n">
-        <v>0.62</v>
+        <v>12.48648648648649</v>
       </c>
       <c r="J84" t="n">
-        <v>0.8100000000000001</v>
+        <v>13.05263157894737</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_targeted_per_match</t>
+          <t>runs_in_behind_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1.318</v>
+        <v>0.3367260958437429</v>
       </c>
       <c r="C85" t="n">
-        <v>1.358666666666667</v>
+        <v>0.3124782739274999</v>
       </c>
       <c r="D85" t="n">
-        <v>1.030854830551341</v>
+        <v>0.2804552687078059</v>
       </c>
       <c r="E85" t="n">
-        <v>0.06870225614927074</v>
+        <v>0.05171993661245074</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1523560991637058</v>
+        <v>0.06698033836247089</v>
       </c>
       <c r="G85" t="n">
-        <v>1.21</v>
+        <v>0.2814705882352941</v>
       </c>
       <c r="H85" t="n">
-        <v>0.98</v>
+        <v>0.223</v>
       </c>
       <c r="I85" t="n">
-        <v>1.37</v>
+        <v>0.4014285714285715</v>
       </c>
       <c r="J85" t="n">
-        <v>1.61</v>
+        <v>0.4570588235294117</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>count_overlap_runs_per_match</t>
+          <t>count_coming_short_runs_received_per_match</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.71</v>
+        <v>7.165600726777197</v>
       </c>
       <c r="C86" t="n">
-        <v>0.6906666666666667</v>
+        <v>6.725914978949035</v>
       </c>
       <c r="D86" t="n">
-        <v>1.027992277992278</v>
+        <v>0.2558084151660458</v>
       </c>
       <c r="E86" t="n">
-        <v>0.135092560861063</v>
+        <v>1.039969670608072</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1420496224496751</v>
+        <v>1.484553721368912</v>
       </c>
       <c r="G86" t="n">
-        <v>0.6</v>
+        <v>5.558823529411764</v>
       </c>
       <c r="H86" t="n">
-        <v>0.5</v>
+        <v>4.131578947368421</v>
       </c>
       <c r="I86" t="n">
-        <v>0.89</v>
+        <v>8.054054054054054</v>
       </c>
       <c r="J86" t="n">
-        <v>1.11</v>
+        <v>10.11111111111111</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>count_overlap_runs_received_per_match</t>
+          <t>count_support_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.244</v>
+        <v>0.9812764024528731</v>
       </c>
       <c r="C87" t="n">
-        <v>0.238</v>
+        <v>1.036352876941112</v>
       </c>
       <c r="D87" t="n">
-        <v>1.025210084033613</v>
+        <v>0.2517120506466018</v>
       </c>
       <c r="E87" t="n">
-        <v>0.06655824516917494</v>
+        <v>0.2569290331104926</v>
       </c>
       <c r="F87" t="n">
-        <v>0.05621387729022079</v>
+        <v>0.218460210128559</v>
       </c>
       <c r="G87" t="n">
-        <v>0.18</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="H87" t="n">
-        <v>0.16</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="I87" t="n">
-        <v>0.33</v>
+        <v>1.432432432432432</v>
       </c>
       <c r="J87" t="n">
-        <v>0.4</v>
+        <v>1.447368421052632</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>count_overlap_runs_in_sample</t>
+          <t>pulling_half_space_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>339</v>
+        <v>0.01987926413808767</v>
       </c>
       <c r="C88" t="n">
-        <v>331.1333333333333</v>
+        <v>0.01852204064061649</v>
       </c>
       <c r="D88" t="n">
-        <v>1.023756794845984</v>
+        <v>0.2494312210773761</v>
       </c>
       <c r="E88" t="n">
-        <v>76.16101364871662</v>
+        <v>0.002301578771532749</v>
       </c>
       <c r="F88" t="n">
-        <v>79.51088574768207</v>
+        <v>0.004698466915296335</v>
       </c>
       <c r="G88" t="n">
-        <v>273</v>
+        <v>0.01764705882352941</v>
       </c>
       <c r="H88" t="n">
-        <v>177</v>
+        <v>0.01066666666666667</v>
       </c>
       <c r="I88" t="n">
-        <v>457</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="J88" t="n">
-        <v>537</v>
+        <v>0.02702702702702703</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_received_per_match</t>
+          <t>count_dangerous_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.9899999999999999</v>
+        <v>16.40917101975926</v>
       </c>
       <c r="C89" t="n">
-        <v>1.006</v>
+        <v>15.46229069204301</v>
       </c>
       <c r="D89" t="n">
-        <v>1.016161616161616</v>
+        <v>0.2461134338847539</v>
       </c>
       <c r="E89" t="n">
-        <v>0.07382411530116702</v>
+        <v>2.762269858339679</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1259138027155312</v>
+        <v>2.720380189123743</v>
       </c>
       <c r="G89" t="n">
-        <v>0.87</v>
+        <v>12.82352941176471</v>
       </c>
       <c r="H89" t="n">
-        <v>0.73</v>
+        <v>12.16666666666667</v>
       </c>
       <c r="I89" t="n">
-        <v>1.05</v>
+        <v>19.65714285714286</v>
       </c>
       <c r="J89" t="n">
-        <v>1.24</v>
+        <v>21.32352941176471</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_ahead_of_the_ball_per_match</t>
+          <t>count_runs_ahead_of_the_ball_targeted_per_match</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.8320000000000001</v>
+        <v>18.06243924596866</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8200000000000001</v>
+        <v>18.39687493653438</v>
       </c>
       <c r="D90" t="n">
-        <v>1.014634146341463</v>
+        <v>0.2211806687060543</v>
       </c>
       <c r="E90" t="n">
-        <v>0.1294990347454374</v>
+        <v>1.375380319621505</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1111626864426317</v>
+        <v>2.18358180791825</v>
       </c>
       <c r="G90" t="n">
-        <v>0.67</v>
+        <v>16.02941176470588</v>
       </c>
       <c r="H90" t="n">
-        <v>0.6</v>
+        <v>13.51515151515152</v>
       </c>
       <c r="I90" t="n">
-        <v>0.98</v>
+        <v>19.64705882352941</v>
       </c>
       <c r="J90" t="n">
-        <v>1</v>
+        <v>21.86842105263158</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_leading_to_shot_per_match</t>
+          <t>runs_ahead_of_the_ball_received_threat_per_match</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.1572814898932546</v>
       </c>
       <c r="C91" t="n">
-        <v>0.08400000000000003</v>
+        <v>0.1492330166320879</v>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>0.2194872339667372</v>
       </c>
       <c r="E91" t="n">
-        <v>0.02073644135332772</v>
+        <v>0.02558815519676611</v>
       </c>
       <c r="F91" t="n">
-        <v>0.02971291205616075</v>
+        <v>0.02359471456786407</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06</v>
+        <v>0.116764705882353</v>
       </c>
       <c r="H91" t="n">
-        <v>0.04</v>
+        <v>0.1015151515151515</v>
       </c>
       <c r="I91" t="n">
-        <v>0.11</v>
+        <v>0.1797142857142857</v>
       </c>
       <c r="J91" t="n">
-        <v>0.15</v>
+        <v>0.1844736842105263</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>runs_in_behind_targeted_threat_per_match</t>
+          <t>count_dangerous_runs_ahead_of_the_ball_targeted_per_match</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.024</v>
+        <v>2.98611855553032</v>
       </c>
       <c r="C92" t="n">
-        <v>0.02400000000000001</v>
+        <v>2.840636351038828</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>0.1982365630306963</v>
       </c>
       <c r="E92" t="n">
-        <v>0.00547722557505166</v>
+        <v>0.5035039330622904</v>
       </c>
       <c r="F92" t="n">
-        <v>0.005070925528371099</v>
+        <v>0.4777956415274409</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02</v>
+        <v>2.558823529411764</v>
       </c>
       <c r="H92" t="n">
-        <v>0.02</v>
+        <v>1.727272727272727</v>
       </c>
       <c r="I92" t="n">
-        <v>0.03</v>
+        <v>3.657142857142857</v>
       </c>
       <c r="J92" t="n">
-        <v>0.03</v>
+        <v>3.444444444444445</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>runs_ahead_of_the_ball_received_threat_per_match</t>
+          <t>count_runs_ahead_of_the_ball_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.01</v>
+        <v>1.469230070406541</v>
       </c>
       <c r="C93" t="n">
-        <v>0.01</v>
+        <v>1.376848847963399</v>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>0.190931597705978</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>0.2150808549224011</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>0.3403765690004406</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01</v>
+        <v>1.235294117647059</v>
       </c>
       <c r="H93" t="n">
-        <v>0.01</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="I93" t="n">
-        <v>0.01</v>
+        <v>1.771428571428571</v>
       </c>
       <c r="J93" t="n">
-        <v>0.01</v>
+        <v>1.823529411764706</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>runs_ahead_of_the_ball_targeted_threat_per_match</t>
+          <t>count_dangerous_pulling_wide_runs_received_per_match</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.018</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="C94" t="n">
-        <v>0.018</v>
+        <v>0.004126984126984127</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>0.1867040112037347</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004472135954999579</v>
+        <v>0.0127775312999988</v>
       </c>
       <c r="F94" t="n">
-        <v>0.004140393356054125</v>
+        <v>0.01092819966860858</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0.02</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>support_runs_targeted_threat_per_match</t>
+          <t>count_dangerous_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.01</v>
+        <v>0.03512605042016807</v>
       </c>
       <c r="C95" t="n">
-        <v>0.01</v>
+        <v>0.02900239389403476</v>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>0.1867040112037346</v>
       </c>
       <c r="E95" t="n">
+        <v>0.02466068008003318</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.03476469466326691</v>
+      </c>
+      <c r="G95" t="n">
         <v>0</v>
       </c>
-      <c r="F95" t="n">
+      <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="G95" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0.01</v>
-      </c>
       <c r="I95" t="n">
-        <v>0.01</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="J95" t="n">
-        <v>0.01</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pulling_wide_runs_per_match</t>
+          <t>count_dangerous_dropping_off_runs_received_per_match</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.002</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="C96" t="n">
-        <v>0.002</v>
+        <v>0.003812636165577342</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0.1867040112037346</v>
       </c>
       <c r="E96" t="n">
-        <v>0.00447213595499958</v>
+        <v>0.01315334104411641</v>
       </c>
       <c r="F96" t="n">
-        <v>0.004140393356054125</v>
+        <v>0.01006625878658774</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -3704,508 +3705,508 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0.01</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="J96" t="n">
-        <v>0.01</v>
+        <v>0.02941176470588235</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>overlap_runs_threat_per_match</t>
+          <t>count_dangerous_runs_in_behind_received_per_match</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.01</v>
+        <v>2.664051782875312</v>
       </c>
       <c r="C97" t="n">
-        <v>0.01</v>
+        <v>2.510394579775385</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>0.1817354124435042</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>0.4870330323988936</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>0.6306946926585427</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01</v>
+        <v>2.029411764705882</v>
       </c>
       <c r="H97" t="n">
-        <v>0.01</v>
+        <v>1.514285714285714</v>
       </c>
       <c r="I97" t="n">
-        <v>0.01</v>
+        <v>3.205882352941177</v>
       </c>
       <c r="J97" t="n">
-        <v>0.01</v>
+        <v>3.794117647058823</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pulling_half_space_runs_targeted_per_match</t>
+          <t>count_overlap_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.01</v>
+        <v>4.286618214853509</v>
       </c>
       <c r="C98" t="n">
-        <v>0.01</v>
+        <v>4.060504102671285</v>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>0.166337194956167</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>1.062005644672877</v>
       </c>
       <c r="F98" t="n">
-        <v>0.005345224838248488</v>
+        <v>0.9873021360292875</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01</v>
+        <v>3.085714285714286</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2.266666666666667</v>
       </c>
       <c r="I98" t="n">
-        <v>0.01</v>
+        <v>5.72972972972973</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_leading_to_goal_per_match</t>
+          <t>count_coming_short_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>7.745359981830569</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0006666666666666666</v>
+        <v>7.415314834355081</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>0.1629032656017753</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>1.075019158813042</v>
       </c>
       <c r="F99" t="n">
-        <v>0.002581988897471612</v>
+        <v>1.600351367776258</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>6.058823529411764</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>4.526315789473684</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>8.648648648648649</v>
       </c>
       <c r="J99" t="n">
-        <v>0.01</v>
+        <v>10.80555555555556</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>pulling_wide_runs_received_threat_per_match</t>
+          <t>count_dangerous_runs_in_behind_targeted_per_match</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>5.654967067908245</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>5.382131680150256</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>0.1608271537956099</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>0.7758067678307432</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>1.16846072446463</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>4.675675675675675</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>3.542857142857143</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>6.628571428571429</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>7.852941176470588</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>pulling_wide_runs_targeted_threat_per_match</t>
+          <t>count_dangerous_pulling_half_space_runs_received_per_match</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>0.08041789688848514</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>0.08823824910512217</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>0.1565920585372543</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>0.01242006092440807</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>0.05867126514706107</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pulling_wide_runs_received_per_match</t>
+          <t>count_dangerous_underlap_runs_received_per_match</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>0.30007722007722</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>0.2749701863014556</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>0.1421661250591887</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>0.06302476525880757</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>0.1496518053537246</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
+        <v>0.6052631578947368</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pulling_wide_runs_targeted_per_match</t>
+          <t>count_dangerous_underlap_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>0.5359800136270725</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>0.4960625649170541</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>0.1412091503625844</v>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>0.1427869694884782</v>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>0.2333374290705338</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_leading_to_goal_per_match</t>
+          <t>count_overlap_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>0.4612491483079719</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>0.4683000486715657</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>0.1331669785170459</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>0.08546385460767944</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>0.1187405702769979</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
+        <v>0.6176470588235294</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>dropping_off_runs_threat_per_match</t>
+          <t>count_runs_ahead_of_the_ball_received_per_match</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>13.56240744946627</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>13.64143977075866</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>0.1268912408106939</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>1.323571842315648</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>1.777789060691256</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>11.52941176470588</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>10.06060606060606</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>15.11764705882353</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>16.86842105263158</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_dropping_off_runs_per_match</t>
+          <t>count_overlap_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>0.05134226663638428</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0006666666666666666</v>
+        <v>0.05447713887342372</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>0.1222264662704282</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>0.02233715319321644</v>
       </c>
       <c r="F106" t="n">
-        <v>0.002581988897471612</v>
+        <v>0.03423108647606065</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="J106" t="n">
-        <v>0.01</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>overlap_runs_received_threat_per_match</t>
+          <t>count_pulling_half_space_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>2.431265046559164</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>2.338355475414299</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>0.1189051675946295</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>0.477303333162449</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>0.5846374389431258</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>1.735294117647059</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1.533333333333333</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>2.852941176470588</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
+        <v>3.702702702702703</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>coming_short_runs_targeted_threat_per_match</t>
+          <t>count_runs_in_behind_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1.140281626163979</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1.161414045624572</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>0.1169848217470614</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>0.2698911639461046</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>0.4143125599478831</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1.529411764705882</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
+        <v>2.058823529411764</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>coming_short_runs_received_threat_per_match</t>
+          <t>count_overlap_runs_in_sample</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>9.704555984555984</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>9.377482145407843</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>0.1051500789460613</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>1.880635762178646</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>2.010143341861189</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>8.029411764705882</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>12.35135135135135</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
+        <v>14.91666666666667</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_leading_to_goal_per_match</t>
+          <t>count_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>9.704555984555984</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>9.377482145407843</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>0.1051500789460613</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>1.880635762178646</v>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>2.010143341861189</v>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>8.029411764705882</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>12.35135135135135</v>
       </c>
       <c r="J110" t="n">
-        <v>0</v>
+        <v>14.91666666666667</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>underlap_runs_received_threat_per_match</t>
+          <t>count_pulling_half_space_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>0.01747899159663865</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>0.0156396503455327</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>0.09965801236692483</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>0.01595975094310524</v>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>0.02143483774581696</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -4214,168 +4215,168 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>underlap_runs_targeted_threat_per_match</t>
+          <t>count_dangerous_pulling_half_space_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>0.1266636384283443</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>0.1306449407068602</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>0.09941148629391328</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>0.03407824047120905</v>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>0.06462692066164011</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_leading_to_goal_per_match</t>
+          <t>count_overlap_runs_received_per_match</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>3.369311832841245</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>3.243879816449476</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>0.09905624065189755</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>0.9116439938075028</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>0.8132765674554925</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>2.441176470588236</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1.866666666666667</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>4.567567567567568</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
+        <v>5.416666666666667</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>dropping_off_runs_received_threat_per_match</t>
+          <t>runs_ahead_of_the_ball_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>0.2214660458778106</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>0.2161462300666635</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>0.06840987622613294</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>0.02332306685771477</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>0.03102553455050423</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>0.1882352941176471</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>0.1427272727272727</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>0.2442857142857143</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
+        <v>0.2539473684210526</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_dropping_off_runs_targeted_per_match</t>
+          <t>count_dangerous_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>11.38725868725869</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>11.11787895490682</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>0.06473539571925589</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>1.720617622348265</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>1.585738002965896</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>8.882352941176471</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>13.14705882352941</v>
       </c>
       <c r="J115" t="n">
-        <v>0</v>
+        <v>13.35294117647059</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_leading_to_goal_per_match</t>
+          <t>count_dangerous_coming_short_runs_received_per_match</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>0.03321826027708381</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>0.0349365283421011</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>0.06117752903214982</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>0.04430428137680489</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>0.02596764344927216</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -4384,134 +4385,134 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="J116" t="n">
-        <v>0</v>
+        <v>0.07894736842105263</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>dropping_off_runs_targeted_threat_per_match</t>
+          <t>count_runs_in_behind_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>0.1914830797183738</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>0.1803966082603854</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>0.06044668922243692</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>0.09395303309557985</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>0.09833298823033293</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="J117" t="n">
-        <v>0</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_dropping_off_runs_received_per_match</t>
+          <t>runs_ahead_of_the_ball_threat_per_match</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>0.7606445605269136</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>0.7559838735241213</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>0.04118096215821435</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>0.09844403691900214</v>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>0.08810505861464672</v>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>0.5935294117647059</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>0.8476470588235294</v>
       </c>
       <c r="J118" t="n">
-        <v>0</v>
+        <v>0.8814705882352941</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>pulling_half_space_runs_received_threat_per_match</t>
+          <t>count_cross_receiver_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>0.2191551215080627</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>0.2153270608069369</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>0.01749094599612132</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>0.07238663638389523</v>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>0.1181090748514684</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="J119" t="n">
-        <v>0</v>
+        <v>0.4473684210526316</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>pulling_half_space_runs_targeted_threat_per_match</t>
+          <t>count_dangerous_pulling_wide_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>0.005928785928785929</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>1.480297366166875e-17</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>0.0127775312999988</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>0.01233647406445749</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
@@ -4520,10 +4521,44 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="J120" t="n">
-        <v>0</v>
+        <v>0.03333333333333333</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>count_dangerous_coming_short_runs_per_match</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0.140663184192596</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.1404923921951786</v>
+      </c>
+      <c r="D121" t="n">
+        <v>7.401486830834377e-18</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.1032875068513947</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.06516509806774992</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.08823529411764706</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.0303030303030303</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.3243243243243243</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.2571428571428571</v>
       </c>
     </row>
   </sheetData>

--- a/Tableau métriques/moyenne/2022_2023/Skill Corner/moyenne_running.xlsx
+++ b/Tableau métriques/moyenne/2022_2023/Skill Corner/moyenne_running.xlsx
@@ -608,7 +608,7 @@
         <v>0.01028571428571429</v>
       </c>
       <c r="H5" t="n">
-        <v>0.007272727272727273</v>
+        <v>0.007272727272727274</v>
       </c>
       <c r="I5" t="n">
         <v>0.01864864864864865</v>
@@ -732,7 +732,7 @@
         <v>0.08101203343989721</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7449839133433965</v>
+        <v>0.7449839133433966</v>
       </c>
       <c r="E9" t="n">
         <v>0.006948291942969022</v>
@@ -1078,7 +1078,7 @@
         <v>0.001857166063183987</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0008491477482143877</v>
+        <v>0.0008491477482143878</v>
       </c>
       <c r="G19" t="n">
         <v>0.001428571428571429</v>
@@ -1090,7 +1090,7 @@
         <v>0.005882352941176471</v>
       </c>
       <c r="J19" t="n">
-        <v>0.003636363636363636</v>
+        <v>0.003636363636363637</v>
       </c>
     </row>
     <row r="20">
@@ -1412,10 +1412,10 @@
         <v>0.08326552503611326</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6029248457071233</v>
+        <v>0.6029248457071236</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01926072665186083</v>
+        <v>0.01926072665186084</v>
       </c>
       <c r="F29" t="n">
         <v>0.02311287936022197</v>
@@ -1427,7 +1427,7 @@
         <v>0.04631578947368421</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1194117647058823</v>
+        <v>0.1194117647058824</v>
       </c>
       <c r="J29" t="n">
         <v>0.1286842105263158</v>
@@ -1582,7 +1582,7 @@
         <v>0.01358132677730201</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5934174814578754</v>
+        <v>0.5934174814578753</v>
       </c>
       <c r="E34" t="n">
         <v>0.00195295401117147</v>
@@ -1990,10 +1990,10 @@
         <v>0.1084716271657448</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5293074911535495</v>
+        <v>0.5293074911535498</v>
       </c>
       <c r="E46" t="n">
-        <v>0.008724574232945039</v>
+        <v>0.008724574232945035</v>
       </c>
       <c r="F46" t="n">
         <v>0.02014085545014307</v>
@@ -2092,10 +2092,10 @@
         <v>0.1292573054780485</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5154446953074692</v>
+        <v>0.5154446953074694</v>
       </c>
       <c r="E49" t="n">
-        <v>0.03405899082800624</v>
+        <v>0.03405899082800623</v>
       </c>
       <c r="F49" t="n">
         <v>0.02166429085145441</v>
@@ -2738,10 +2738,10 @@
         <v>0.4393842997434328</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3721322900013325</v>
+        <v>0.3721322900013326</v>
       </c>
       <c r="E68" t="n">
-        <v>0.06350403301734858</v>
+        <v>0.06350403301734857</v>
       </c>
       <c r="F68" t="n">
         <v>0.0978036335520875</v>
@@ -3078,7 +3078,7 @@
         <v>0.9026613884480758</v>
       </c>
       <c r="D78" t="n">
-        <v>0.332169215572252</v>
+        <v>0.3321692155722519</v>
       </c>
       <c r="E78" t="n">
         <v>0.1843025851245145</v>
@@ -3316,13 +3316,13 @@
         <v>0.3124782739274999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.2804552687078059</v>
+        <v>0.2804552687078058</v>
       </c>
       <c r="E85" t="n">
         <v>0.05171993661245074</v>
       </c>
       <c r="F85" t="n">
-        <v>0.06698033836247089</v>
+        <v>0.0669803383624709</v>
       </c>
       <c r="G85" t="n">
         <v>0.2814705882352941</v>
@@ -3334,7 +3334,7 @@
         <v>0.4014285714285715</v>
       </c>
       <c r="J85" t="n">
-        <v>0.4570588235294117</v>
+        <v>0.4570588235294118</v>
       </c>
     </row>
     <row r="86">
@@ -3418,7 +3418,7 @@
         <v>0.01852204064061649</v>
       </c>
       <c r="D88" t="n">
-        <v>0.2494312210773761</v>
+        <v>0.249431221077376</v>
       </c>
       <c r="E88" t="n">
         <v>0.002301578771532749</v>
@@ -4302,7 +4302,7 @@
         <v>0.2161462300666635</v>
       </c>
       <c r="D114" t="n">
-        <v>0.06840987622613294</v>
+        <v>0.06840987622613309</v>
       </c>
       <c r="E114" t="n">
         <v>0.02332306685771477</v>

--- a/Tableau métriques/moyenne/2022_2023/Skill Corner/moyenne_running.xlsx
+++ b/Tableau métriques/moyenne/2022_2023/Skill Corner/moyenne_running.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J121"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,8 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Diff Moyennes
-(données normalisées)</t>
+          <t>Diff. Top 5 avec Bottom 15 en %</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -484,23 +483,23 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_leading_to_goal_per_match</t>
+          <t>count_pulling_wide_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05277310924369748</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08901583260716389</v>
+        <v>0.01305468147573411</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9523809523809524</v>
+        <v>125.3</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04373947561733162</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03707964950028693</v>
+        <v>0.01846896155600711</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -509,372 +508,372 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.06060606060606061</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_received_per_match</t>
+          <t>count_dangerous_dropping_off_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.282289348171701</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9033813351770009</v>
+        <v>0.005773420479302832</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9428351592612403</v>
+        <v>103.77</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2874572114042568</v>
+        <v>0.01610948698544606</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3731612432364002</v>
+        <v>0.01632663640948621</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.764705882352941</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="J3" t="n">
-        <v>1.628571428571429</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_overlap_runs_per_match</t>
+          <t>count_dropping_off_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.019495798319328</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.578079876748608</v>
+        <v>0.0057703081232493</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8811751445474691</v>
+        <v>-100</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6767882233554676</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3391328849400838</v>
+        <v>0.01194708011781278</v>
       </c>
       <c r="G4" t="n">
-        <v>1.411764705882353</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9696969696969697</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.205882352941177</v>
+        <v>0.02941176470588235</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>pulling_wide_runs_received_threat_per_match</t>
+          <t>count_underlap_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01502216670451965</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01213050430109253</v>
+        <v>0.01860008172701671</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7818585120214377</v>
+        <v>-68.37</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003257878342118194</v>
+        <v>0.01315334104411641</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003190851450662979</v>
+        <v>0.02249733262912574</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01028571428571429</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.007272727272727274</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01864864864864865</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0172972972972973</v>
+        <v>0.05714285714285714</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>pulling_wide_runs_threat_per_match</t>
+          <t>count_dangerous_dropping_off_runs_received_per_match</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05300095389507153</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04241096380446226</v>
+        <v>0.003812636165577342</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7766536899963933</v>
+        <v>54.29</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01324893679010998</v>
+        <v>0.01315334104411641</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0109602554231781</v>
+        <v>0.01006625878658774</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04029411764705883</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06823529411764706</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="J6" t="n">
-        <v>0.06918918918918919</v>
+        <v>0.02941176470588235</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>cross_receiver_runs_threat_per_match</t>
+          <t>count_coming_short_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.933697842380196</v>
+        <v>0.01128775834658188</v>
       </c>
       <c r="C7" t="n">
-        <v>1.641328133714512</v>
+        <v>0.0228463794098469</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7599046738108597</v>
+        <v>-50.59</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2162733862392378</v>
+        <v>0.01547937862593079</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3201385495565845</v>
+        <v>0.0242329210677283</v>
       </c>
       <c r="G7" t="n">
-        <v>1.678235294117647</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.267272727272727</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2.25764705882353</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="J7" t="n">
-        <v>2.207631578947368</v>
+        <v>0.08108108108108109</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_leading_to_shot_per_match</t>
+          <t>dropping_off_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1597410856234386</v>
+        <v>0.002835793776970247</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1122707951810119</v>
+        <v>0.00196756960007734</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7508193093327622</v>
+        <v>44.13</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04878862681526781</v>
+        <v>0.001794011693204707</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06437350688154378</v>
+        <v>0.0008587215842305649</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.001428571428571429</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.0005714285714285715</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2432432432432433</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2058823529411765</v>
+        <v>0.003243243243243244</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>support_runs_received_threat_per_match</t>
+          <t>count_underlap_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.09550797183738359</v>
+        <v>0.2486213945037475</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08101203343989721</v>
+        <v>0.1742635220963394</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7449839133433966</v>
+        <v>42.67</v>
       </c>
       <c r="E9" t="n">
-        <v>0.006948291942969022</v>
+        <v>0.1052869417151723</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01622784333167735</v>
+        <v>0.1151600692319571</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08742857142857142</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05545454545454546</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1054054054054054</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1118918918918919</v>
+        <v>0.4210526315789473</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_overlap_runs_targeted_per_match</t>
+          <t>count_pulling_half_space_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7629343629343628</v>
+        <v>0.1597410856234386</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6029781435973386</v>
+        <v>0.1122707951810119</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7366164760874691</v>
+        <v>42.28</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3049076767895035</v>
+        <v>0.04878862681526781</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1540741507985022</v>
+        <v>0.06437350688154378</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4411764705882353</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="H10" t="n">
-        <v>0.303030303030303</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.243243243243243</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.2058823529411765</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>dropping_off_runs_threat_per_match</t>
+          <t>count_underlap_runs_received_per_match</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01053863275039746</v>
+        <v>1.282289348171701</v>
       </c>
       <c r="C11" t="n">
-        <v>0.008200076035989348</v>
+        <v>0.9033813351770009</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7278648320972743</v>
+        <v>41.94</v>
       </c>
       <c r="E11" t="n">
-        <v>0.003873515088173755</v>
+        <v>0.2874572114042568</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002828003723619227</v>
+        <v>0.3731612432364002</v>
       </c>
       <c r="G11" t="n">
-        <v>0.006</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.003243243243243243</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01647058823529412</v>
+        <v>1.764705882352941</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01324324324324324</v>
+        <v>1.628571428571429</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>dropping_off_runs_received_threat_per_match</t>
+          <t>count_pulling_wide_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.002835793776970247</v>
+        <v>0.2413081989552578</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00196756960007734</v>
+        <v>0.170345028394564</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7274889943193352</v>
+        <v>41.66</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001794011693204707</v>
+        <v>0.1140057362935018</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0008587215842305649</v>
+        <v>0.08830685873272019</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001428571428571429</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0005714285714285715</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="I12" t="n">
-        <v>0.005882352941176471</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="J12" t="n">
-        <v>0.003243243243243243</v>
+        <v>0.3142857142857143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_leading_to_goal_per_match</t>
+          <t>count_support_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.05277310924369748</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01305468147573411</v>
+        <v>0.08901583260716389</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7257747386024231</v>
+        <v>-40.71</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.04373947561733162</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01846896155600711</v>
+        <v>0.03707964950028693</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -883,248 +882,248 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="J13" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.1515151515151515</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>pulling_wide_runs_targeted_threat_per_match</t>
+          <t>count_dangerous_pulling_wide_runs_received_per_match</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01977774244833069</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01624244137587791</v>
+        <v>0.004126984126984127</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7095017720199923</v>
+        <v>38.46</v>
       </c>
       <c r="E14" t="n">
-        <v>0.004257955696066907</v>
+        <v>0.0127775312999988</v>
       </c>
       <c r="F14" t="n">
-        <v>0.004304861248756499</v>
+        <v>0.01092819966860858</v>
       </c>
       <c r="G14" t="n">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.009393939393939394</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0245945945945946</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0245945945945946</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_in_sample</t>
+          <t>count_dangerous_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13.15358164887577</v>
+        <v>0.02302521008403361</v>
       </c>
       <c r="C15" t="n">
-        <v>11.26796543638649</v>
+        <v>0.0355432739643266</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7052153068713469</v>
+        <v>-35.22</v>
       </c>
       <c r="E15" t="n">
-        <v>3.299187090186889</v>
+        <v>0.03728669059314253</v>
       </c>
       <c r="F15" t="n">
-        <v>1.907114898166378</v>
+        <v>0.04174717388052308</v>
       </c>
       <c r="G15" t="n">
-        <v>9.029411764705882</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>7.515151515151516</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>17.91176470588235</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="J15" t="n">
-        <v>14.48571428571429</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_per_match</t>
+          <t>dropping_off_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.15358164887577</v>
+        <v>0.00312514194867136</v>
       </c>
       <c r="C16" t="n">
-        <v>11.26796543638649</v>
+        <v>0.002315333402639904</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7052153068713469</v>
+        <v>34.98</v>
       </c>
       <c r="E16" t="n">
-        <v>3.299187090186889</v>
+        <v>0.001857166063183987</v>
       </c>
       <c r="F16" t="n">
-        <v>1.907114898166378</v>
+        <v>0.0008491477482143878</v>
       </c>
       <c r="G16" t="n">
-        <v>9.029411764705882</v>
+        <v>0.001428571428571429</v>
       </c>
       <c r="H16" t="n">
-        <v>7.515151515151516</v>
+        <v>0.001081081081081081</v>
       </c>
       <c r="I16" t="n">
-        <v>17.91176470588235</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="J16" t="n">
-        <v>14.48571428571429</v>
+        <v>0.003636363636363637</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_cross_receiver_runs_per_match</t>
+          <t>underlap_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>23.63631614808085</v>
+        <v>0.02211428571428571</v>
       </c>
       <c r="C17" t="n">
-        <v>20.64195828211308</v>
+        <v>0.01716833263241932</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6969863571603564</v>
+        <v>28.81</v>
       </c>
       <c r="E17" t="n">
-        <v>2.664515372094752</v>
+        <v>0.004911405626974961</v>
       </c>
       <c r="F17" t="n">
-        <v>3.395903039360439</v>
+        <v>0.008148875782859477</v>
       </c>
       <c r="G17" t="n">
-        <v>21.28571428571428</v>
+        <v>0.01735294117647059</v>
       </c>
       <c r="H17" t="n">
-        <v>15.36666666666667</v>
+        <v>0.005</v>
       </c>
       <c r="I17" t="n">
-        <v>28.08823529411765</v>
+        <v>0.03029411764705883</v>
       </c>
       <c r="J17" t="n">
-        <v>26.23684210526316</v>
+        <v>0.03210526315789473</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_leading_to_shot_per_match</t>
+          <t>dropping_off_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2413081989552578</v>
+        <v>0.01053863275039746</v>
       </c>
       <c r="C18" t="n">
-        <v>0.170345028394564</v>
+        <v>0.008200076035989348</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6813559683545761</v>
+        <v>28.52</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1140057362935018</v>
+        <v>0.003873515088173755</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08830685873272019</v>
+        <v>0.002828003723619227</v>
       </c>
       <c r="G18" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.006000000000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.003243243243243243</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.01647058823529412</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3142857142857143</v>
+        <v>0.01324324324324324</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>dropping_off_runs_targeted_threat_per_match</t>
+          <t>count_dangerous_coming_short_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.00312514194867136</v>
+        <v>0.03862366568248922</v>
       </c>
       <c r="C19" t="n">
-        <v>0.002315333402639904</v>
+        <v>0.05395540971392365</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6804138174397717</v>
+        <v>-28.42</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001857166063183987</v>
+        <v>0.05586578878874394</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0008491477482143878</v>
+        <v>0.03443169364792669</v>
       </c>
       <c r="G19" t="n">
-        <v>0.001428571428571429</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.001081081081081081</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.005882352941176471</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="J19" t="n">
-        <v>0.003636363636363637</v>
+        <v>0.1351351351351351</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_targeted_per_match</t>
+          <t>count_dangerous_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.844960254372019</v>
+        <v>2.019495798319328</v>
       </c>
       <c r="C20" t="n">
-        <v>1.459206016357719</v>
+        <v>1.578079876748608</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6787588512569418</v>
+        <v>27.97</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4210158209238694</v>
+        <v>0.6767882233554676</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5423025918077695</v>
+        <v>0.3391328849400838</v>
       </c>
       <c r="G20" t="n">
-        <v>1.441176470588235</v>
+        <v>1.411764705882353</v>
       </c>
       <c r="H20" t="n">
-        <v>0.631578947368421</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="I20" t="n">
-        <v>2.529411764705882</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>2.4</v>
+        <v>2.205882352941177</v>
       </c>
     </row>
     <row r="21">
@@ -1140,7 +1139,7 @@
         <v>0.4510401652506915</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6712712272293895</v>
+        <v>27.22</v>
       </c>
       <c r="E21" t="n">
         <v>0.293274209824726</v>
@@ -1164,1503 +1163,1503 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_received_per_match</t>
+          <t>count_dangerous_overlap_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.267254144901203</v>
+        <v>0.7629343629343628</v>
       </c>
       <c r="C22" t="n">
-        <v>4.366864156585518</v>
+        <v>0.6029781435973385</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6652918075752274</v>
+        <v>26.53</v>
       </c>
       <c r="E22" t="n">
-        <v>1.647830662075578</v>
+        <v>0.3049076767895035</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9844801859043973</v>
+        <v>0.1540741507985022</v>
       </c>
       <c r="G22" t="n">
-        <v>3.264705882352941</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="H22" t="n">
-        <v>2.424242424242424</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="I22" t="n">
-        <v>7.676470588235294</v>
+        <v>1.243243243243243</v>
       </c>
       <c r="J22" t="n">
-        <v>5.864864864864865</v>
+        <v>0.8823529411764706</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_targeted_per_match</t>
+          <t>count_underlap_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5.440163524869407</v>
+        <v>1.844960254372019</v>
       </c>
       <c r="C23" t="n">
-        <v>4.53641565009986</v>
+        <v>1.459206016357719</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6561149293231912</v>
+        <v>26.44</v>
       </c>
       <c r="E23" t="n">
-        <v>1.646713685845159</v>
+        <v>0.4210158209238694</v>
       </c>
       <c r="F23" t="n">
-        <v>1.00544720084903</v>
+        <v>0.5423025918077695</v>
       </c>
       <c r="G23" t="n">
-        <v>3.441176470588236</v>
+        <v>1.441176470588235</v>
       </c>
       <c r="H23" t="n">
-        <v>2.606060606060606</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="I23" t="n">
-        <v>7.852941176470588</v>
+        <v>2.529411764705882</v>
       </c>
       <c r="J23" t="n">
-        <v>6.054054054054054</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_in_sample</t>
+          <t>count_dropping_off_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>24.3328276175335</v>
+        <v>0.1447876447876448</v>
       </c>
       <c r="C24" t="n">
-        <v>21.42363677416309</v>
+        <v>0.1152578645148305</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6459138780516525</v>
+        <v>25.62</v>
       </c>
       <c r="E24" t="n">
-        <v>2.616511304276901</v>
+        <v>0.08190890494267634</v>
       </c>
       <c r="F24" t="n">
-        <v>3.612867593131247</v>
+        <v>0.05554121807102219</v>
       </c>
       <c r="G24" t="n">
-        <v>22.25714285714286</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="H24" t="n">
-        <v>15.93333333333333</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="I24" t="n">
-        <v>28.79411764705882</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="J24" t="n">
-        <v>27.39473684210526</v>
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_per_match</t>
+          <t>count_runs_ahead_of_the_ball_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.3328276175335</v>
+        <v>0.1215943674767204</v>
       </c>
       <c r="C25" t="n">
-        <v>21.42363677416309</v>
+        <v>0.1631717013141162</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6459138780516525</v>
+        <v>-25.48</v>
       </c>
       <c r="E25" t="n">
-        <v>2.616511304276901</v>
+        <v>0.07149293053178021</v>
       </c>
       <c r="F25" t="n">
-        <v>3.612867593131247</v>
+        <v>0.08685293004724939</v>
       </c>
       <c r="G25" t="n">
-        <v>22.25714285714286</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="H25" t="n">
-        <v>15.93333333333333</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="I25" t="n">
-        <v>28.79411764705882</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="J25" t="n">
-        <v>27.39473684210526</v>
+        <v>0.3243243243243243</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_leading_to_goal_per_match</t>
+          <t>pulling_wide_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.005882352941176471</v>
+        <v>0.05300095389507153</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01860008172701671</v>
+        <v>0.04241096380446226</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6306882198395203</v>
+        <v>24.97</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01315334104411641</v>
+        <v>0.01324893679010998</v>
       </c>
       <c r="F26" t="n">
-        <v>0.02249733262912574</v>
+        <v>0.0109602554231781</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.04029411764705883</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.06823529411764706</v>
       </c>
       <c r="J26" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.06918918918918919</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_in_sample</t>
+          <t>pulling_wide_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5.03464001816943</v>
+        <v>0.01502216670451965</v>
       </c>
       <c r="C27" t="n">
-        <v>4.210339844085974</v>
+        <v>0.01213050430109254</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6235613375677844</v>
+        <v>23.84</v>
       </c>
       <c r="E27" t="n">
-        <v>1.324652689731996</v>
+        <v>0.003257878342118194</v>
       </c>
       <c r="F27" t="n">
-        <v>1.106251376768684</v>
+        <v>0.003190851450662979</v>
       </c>
       <c r="G27" t="n">
-        <v>3.558823529411764</v>
+        <v>0.01028571428571429</v>
       </c>
       <c r="H27" t="n">
-        <v>2.184210526315789</v>
+        <v>0.007272727272727273</v>
       </c>
       <c r="I27" t="n">
-        <v>6.470588235294118</v>
+        <v>0.01864864864864865</v>
       </c>
       <c r="J27" t="n">
-        <v>6.210526315789473</v>
+        <v>0.0172972972972973</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_per_match</t>
+          <t>underlap_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5.03464001816943</v>
+        <v>0.03500354303883715</v>
       </c>
       <c r="C28" t="n">
-        <v>4.210339844085974</v>
+        <v>0.02865559912371057</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6235613375677844</v>
+        <v>22.15</v>
       </c>
       <c r="E28" t="n">
-        <v>1.324652689731996</v>
+        <v>0.009906303913364707</v>
       </c>
       <c r="F28" t="n">
-        <v>1.106251376768684</v>
+        <v>0.01211203510397688</v>
       </c>
       <c r="G28" t="n">
-        <v>3.558823529411764</v>
+        <v>0.02735294117647059</v>
       </c>
       <c r="H28" t="n">
-        <v>2.184210526315789</v>
+        <v>0.01233333333333333</v>
       </c>
       <c r="I28" t="n">
-        <v>6.470588235294118</v>
+        <v>0.05205882352941177</v>
       </c>
       <c r="J28" t="n">
-        <v>6.210526315789473</v>
+        <v>0.05421052631578947</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>underlap_runs_threat_per_match</t>
+          <t>pulling_wide_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.09907158755394049</v>
+        <v>0.01977774244833069</v>
       </c>
       <c r="C29" t="n">
-        <v>0.08326552503611326</v>
+        <v>0.01624244137587791</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6029248457071236</v>
+        <v>21.77</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01926072665186084</v>
+        <v>0.004257955696066907</v>
       </c>
       <c r="F29" t="n">
-        <v>0.02311287936022197</v>
+        <v>0.004304861248756499</v>
       </c>
       <c r="G29" t="n">
-        <v>0.07411764705882352</v>
+        <v>0.014</v>
       </c>
       <c r="H29" t="n">
-        <v>0.04631578947368421</v>
+        <v>0.009393939393939394</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1194117647058824</v>
+        <v>0.0245945945945946</v>
       </c>
       <c r="J29" t="n">
-        <v>0.1286842105263158</v>
+        <v>0.0245945945945946</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_per_match</t>
+          <t>coming_short_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>16.5298750851692</v>
+        <v>0.01881694299341358</v>
       </c>
       <c r="C30" t="n">
-        <v>14.22687936056357</v>
+        <v>0.0155061816068008</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6024619891788303</v>
+        <v>21.35</v>
       </c>
       <c r="E30" t="n">
-        <v>3.983872186272472</v>
+        <v>0.004094633680388263</v>
       </c>
       <c r="F30" t="n">
-        <v>2.842585910498578</v>
+        <v>0.005067497852992307</v>
       </c>
       <c r="G30" t="n">
-        <v>12.54285714285714</v>
+        <v>0.015</v>
       </c>
       <c r="H30" t="n">
-        <v>10.13333333333333</v>
+        <v>0.008947368421052633</v>
       </c>
       <c r="I30" t="n">
-        <v>21.11764705882353</v>
+        <v>0.02513513513513514</v>
       </c>
       <c r="J30" t="n">
-        <v>21.2972972972973</v>
+        <v>0.02555555555555556</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_in_sample</t>
+          <t>count_dangerous_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16.5298750851692</v>
+        <v>0.03512605042016807</v>
       </c>
       <c r="C31" t="n">
-        <v>14.22687936056357</v>
+        <v>0.02900239389403476</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6024619891788303</v>
+        <v>21.11</v>
       </c>
       <c r="E31" t="n">
-        <v>3.983872186272472</v>
+        <v>0.02466068008003318</v>
       </c>
       <c r="F31" t="n">
-        <v>2.842585910498578</v>
+        <v>0.03476469466326691</v>
       </c>
       <c r="G31" t="n">
-        <v>12.54285714285714</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>10.13333333333333</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>21.11764705882353</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="J31" t="n">
-        <v>21.2972972972973</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_leading_to_shot_per_match</t>
+          <t>count_dropping_off_runs_received_per_match</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2486213945037475</v>
+        <v>5.267254144901203</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1742635220963394</v>
+        <v>4.366864156585518</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5988781542071396</v>
+        <v>20.62</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1052869417151723</v>
+        <v>1.647830662075578</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1151600692319571</v>
+        <v>0.9844801859043973</v>
       </c>
       <c r="G32" t="n">
-        <v>0.08571428571428572</v>
+        <v>3.264705882352941</v>
       </c>
       <c r="H32" t="n">
-        <v>0.03333333333333333</v>
+        <v>2.424242424242424</v>
       </c>
       <c r="I32" t="n">
-        <v>0.3529411764705883</v>
+        <v>7.676470588235294</v>
       </c>
       <c r="J32" t="n">
-        <v>0.4210526315789473</v>
+        <v>5.864864864864865</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>support_runs_threat_per_match</t>
+          <t>count_dropping_off_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.4943071542130366</v>
+        <v>5.440163524869407</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4391199932311388</v>
+        <v>4.536415650099861</v>
       </c>
       <c r="D33" t="n">
-        <v>0.598193235253603</v>
+        <v>19.92</v>
       </c>
       <c r="E33" t="n">
-        <v>0.07135612900377182</v>
+        <v>1.646713685845159</v>
       </c>
       <c r="F33" t="n">
-        <v>0.07069584010410122</v>
+        <v>1.00544720084903</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4029411764705882</v>
+        <v>3.441176470588236</v>
       </c>
       <c r="H33" t="n">
-        <v>0.3326470588235294</v>
+        <v>2.606060606060606</v>
       </c>
       <c r="I33" t="n">
-        <v>0.5745945945945946</v>
+        <v>7.852941176470588</v>
       </c>
       <c r="J33" t="n">
-        <v>0.5655555555555556</v>
+        <v>6.054054054054054</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>pulling_half_space_runs_received_threat_per_match</t>
+          <t>count_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01573595275948217</v>
+        <v>5.03464001816943</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01358132677730201</v>
+        <v>4.210339844085974</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5934174814578753</v>
+        <v>19.58</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00195295401117147</v>
+        <v>1.324652689731996</v>
       </c>
       <c r="F34" t="n">
-        <v>0.003517195800661562</v>
+        <v>1.106251376768684</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01323529411764706</v>
+        <v>3.558823529411764</v>
       </c>
       <c r="H34" t="n">
-        <v>0.007105263157894737</v>
+        <v>2.184210526315789</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01852941176470588</v>
+        <v>6.470588235294118</v>
       </c>
       <c r="J34" t="n">
-        <v>0.02117647058823529</v>
+        <v>6.210526315789473</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>coming_short_runs_received_threat_per_match</t>
+          <t>underlap_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01881694299341358</v>
+        <v>0.09907158755394049</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0155061816068008</v>
+        <v>0.08326552503611326</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5915795611726559</v>
+        <v>18.98</v>
       </c>
       <c r="E35" t="n">
-        <v>0.004094633680388263</v>
+        <v>0.01926072665186084</v>
       </c>
       <c r="F35" t="n">
-        <v>0.005067497852992307</v>
+        <v>0.02311287936022197</v>
       </c>
       <c r="G35" t="n">
-        <v>0.015</v>
+        <v>0.07411764705882352</v>
       </c>
       <c r="H35" t="n">
-        <v>0.008947368421052633</v>
+        <v>0.04631578947368421</v>
       </c>
       <c r="I35" t="n">
-        <v>0.02513513513513514</v>
+        <v>0.1194117647058824</v>
       </c>
       <c r="J35" t="n">
-        <v>0.02555555555555556</v>
+        <v>0.1286842105263158</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>underlap_runs_received_threat_per_match</t>
+          <t>support_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.02211428571428571</v>
+        <v>0.09550797183738359</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01716833263241932</v>
+        <v>0.08101203343989721</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5862252340102911</v>
+        <v>17.89</v>
       </c>
       <c r="E36" t="n">
-        <v>0.004911405626974961</v>
+        <v>0.006948291942969022</v>
       </c>
       <c r="F36" t="n">
-        <v>0.008148875782859477</v>
+        <v>0.01622784333167735</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01735294117647059</v>
+        <v>0.08742857142857142</v>
       </c>
       <c r="H36" t="n">
-        <v>0.005</v>
+        <v>0.05545454545454546</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03029411764705883</v>
+        <v>0.1054054054054054</v>
       </c>
       <c r="J36" t="n">
-        <v>0.03210526315789473</v>
+        <v>0.1118918918918919</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>coming_short_runs_threat_per_match</t>
+          <t>count_dangerous_support_runs_received_per_match</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.06880031796502387</v>
+        <v>1.225064728594141</v>
       </c>
       <c r="C37" t="n">
-        <v>0.06057783296544906</v>
+        <v>1.039528233553001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5669076664750834</v>
+        <v>17.85</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01428719992441168</v>
+        <v>0.06669332249841392</v>
       </c>
       <c r="F37" t="n">
-        <v>0.01088963198847657</v>
+        <v>0.3027036093979674</v>
       </c>
       <c r="G37" t="n">
-        <v>0.05800000000000001</v>
+        <v>1.171428571428571</v>
       </c>
       <c r="H37" t="n">
-        <v>0.03973684210526316</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="I37" t="n">
-        <v>0.08864864864864866</v>
+        <v>1.323529411764706</v>
       </c>
       <c r="J37" t="n">
-        <v>0.07972222222222222</v>
+        <v>1.594594594594595</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_targeted_per_match</t>
+          <t>cross_receiver_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>13.54401544401544</v>
+        <v>1.933697842380196</v>
       </c>
       <c r="C38" t="n">
-        <v>11.91308101274045</v>
+        <v>1.641328133714512</v>
       </c>
       <c r="D38" t="n">
-        <v>0.566864917057886</v>
+        <v>17.81</v>
       </c>
       <c r="E38" t="n">
-        <v>1.446076973805465</v>
+        <v>0.2162733862392378</v>
       </c>
       <c r="F38" t="n">
-        <v>2.39745144440049</v>
+        <v>0.3201385495565845</v>
       </c>
       <c r="G38" t="n">
-        <v>12.57142857142857</v>
+        <v>1.678235294117647</v>
       </c>
       <c r="H38" t="n">
-        <v>8.633333333333333</v>
+        <v>1.267272727272727</v>
       </c>
       <c r="I38" t="n">
-        <v>15.88235294117647</v>
+        <v>2.25764705882353</v>
       </c>
       <c r="J38" t="n">
-        <v>15.94117647058824</v>
+        <v>2.207631578947368</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_received_per_match</t>
+          <t>count_dangerous_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>6.104047240517828</v>
+        <v>0.5256643197819668</v>
       </c>
       <c r="C39" t="n">
-        <v>5.254601749833947</v>
+        <v>0.4481022790310716</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5650820478363296</v>
+        <v>17.31</v>
       </c>
       <c r="E39" t="n">
-        <v>1.568009288541477</v>
+        <v>0.1964053113133244</v>
       </c>
       <c r="F39" t="n">
-        <v>1.162970445661781</v>
+        <v>0.1761406448020426</v>
       </c>
       <c r="G39" t="n">
-        <v>3.771428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H39" t="n">
-        <v>3.181818181818182</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="I39" t="n">
-        <v>7.529411764705882</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="J39" t="n">
-        <v>8.081081081081081</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_leading_to_goal_per_match</t>
+          <t>count_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>13.15358164887577</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0057703081232493</v>
+        <v>11.26796543638649</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5601120336112039</v>
+        <v>16.73</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>3.299187090186889</v>
       </c>
       <c r="F40" t="n">
-        <v>0.01194708011781278</v>
+        <v>1.907114898166378</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>9.029411764705882</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>7.515151515151516</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>17.91176470588235</v>
       </c>
       <c r="J40" t="n">
-        <v>0.02941176470588235</v>
+        <v>14.48571428571429</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_targeted_per_match</t>
+          <t>count_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7.119391324097205</v>
+        <v>16.5298750851692</v>
       </c>
       <c r="C41" t="n">
-        <v>6.158386166311863</v>
+        <v>14.22687936056357</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5577629515088266</v>
+        <v>16.19</v>
       </c>
       <c r="E41" t="n">
-        <v>1.709743739007609</v>
+        <v>3.983872186272472</v>
       </c>
       <c r="F41" t="n">
-        <v>1.355341432245053</v>
+        <v>2.842585910498578</v>
       </c>
       <c r="G41" t="n">
-        <v>4.514285714285714</v>
+        <v>12.54285714285714</v>
       </c>
       <c r="H41" t="n">
-        <v>3.606060606060606</v>
+        <v>10.13333333333333</v>
       </c>
       <c r="I41" t="n">
-        <v>8.72972972972973</v>
+        <v>21.11764705882353</v>
       </c>
       <c r="J41" t="n">
-        <v>9.621621621621621</v>
+        <v>21.2972972972973</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_support_runs_received_per_match</t>
+          <t>count_pulling_wide_runs_received_per_match</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.225064728594141</v>
+        <v>6.104047240517828</v>
       </c>
       <c r="C42" t="n">
-        <v>1.039528233553001</v>
+        <v>5.254601749833948</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5473738990094845</v>
+        <v>16.17</v>
       </c>
       <c r="E42" t="n">
-        <v>0.06669332249841392</v>
+        <v>1.568009288541477</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3027036093979674</v>
+        <v>1.162970445661781</v>
       </c>
       <c r="G42" t="n">
-        <v>1.171428571428571</v>
+        <v>3.771428571428571</v>
       </c>
       <c r="H42" t="n">
-        <v>0.5757575757575758</v>
+        <v>3.181818181818182</v>
       </c>
       <c r="I42" t="n">
-        <v>1.323529411764706</v>
+        <v>7.529411764705882</v>
       </c>
       <c r="J42" t="n">
-        <v>1.594594594594595</v>
+        <v>8.081081081081081</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_received_per_match</t>
+          <t>pulling_half_space_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>6.591692028162617</v>
+        <v>0.08071414944356121</v>
       </c>
       <c r="C43" t="n">
-        <v>5.720157795606711</v>
+        <v>0.06952424228337541</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5390275104788916</v>
+        <v>16.09</v>
       </c>
       <c r="E43" t="n">
-        <v>1.061434827120191</v>
+        <v>0.02622143412195011</v>
       </c>
       <c r="F43" t="n">
-        <v>1.337399908735841</v>
+        <v>0.0158463337713869</v>
       </c>
       <c r="G43" t="n">
-        <v>5.628571428571429</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="H43" t="n">
-        <v>3.6</v>
+        <v>0.04763157894736842</v>
       </c>
       <c r="I43" t="n">
-        <v>8.352941176470589</v>
+        <v>0.1148648648648649</v>
       </c>
       <c r="J43" t="n">
-        <v>7.789473684210527</v>
+        <v>0.1016666666666667</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_leading_to_goal_per_match</t>
+          <t>count_dangerous_cross_receiver_runs_received_per_match</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.1215943674767204</v>
+        <v>2.202993413581649</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1631717013141162</v>
+        <v>1.899340618411826</v>
       </c>
       <c r="D44" t="n">
-        <v>0.535120049672521</v>
+        <v>15.99</v>
       </c>
       <c r="E44" t="n">
-        <v>0.07149293053178021</v>
+        <v>0.2280269272663426</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08685293004724939</v>
+        <v>0.507588224222779</v>
       </c>
       <c r="G44" t="n">
-        <v>0.05882352941176471</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
-        <v>0.06060606060606061</v>
+        <v>1.121212121212121</v>
       </c>
       <c r="I44" t="n">
-        <v>0.2352941176470588</v>
+        <v>2.588235294117647</v>
       </c>
       <c r="J44" t="n">
-        <v>0.3243243243243243</v>
+        <v>2.861111111111111</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_cross_receiver_runs_received_per_match</t>
+          <t>count_coming_short_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.202993413581649</v>
+        <v>0.199795593913241</v>
       </c>
       <c r="C45" t="n">
-        <v>1.899340618411826</v>
+        <v>0.1723323025490208</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5305771595693628</v>
+        <v>15.94</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2280269272663426</v>
+        <v>0.08828188920860353</v>
       </c>
       <c r="F45" t="n">
-        <v>0.507588224222779</v>
+        <v>0.05000352092822971</v>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="H45" t="n">
-        <v>1.121212121212121</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="I45" t="n">
-        <v>2.588235294117647</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="J45" t="n">
-        <v>2.861111111111111</v>
+        <v>0.2368421052631579</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>support_runs_targeted_threat_per_match</t>
+          <t>pulling_half_space_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.1212782648194413</v>
+        <v>0.01573595275948217</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1084716271657448</v>
+        <v>0.01358132677730201</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5293074911535498</v>
+        <v>15.86</v>
       </c>
       <c r="E46" t="n">
-        <v>0.008724574232945035</v>
+        <v>0.00195295401117147</v>
       </c>
       <c r="F46" t="n">
-        <v>0.02014085545014307</v>
+        <v>0.003517195800661562</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1147058823529412</v>
+        <v>0.01323529411764706</v>
       </c>
       <c r="H46" t="n">
-        <v>0.08030303030303031</v>
+        <v>0.007105263157894737</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1359459459459459</v>
+        <v>0.01852941176470588</v>
       </c>
       <c r="J46" t="n">
-        <v>0.1410810810810811</v>
+        <v>0.02117647058823529</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>pulling_half_space_runs_threat_per_match</t>
+          <t>count_pulling_wide_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.08071414944356121</v>
+        <v>7.119391324097205</v>
       </c>
       <c r="C47" t="n">
-        <v>0.06952424228337542</v>
+        <v>6.158386166311863</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5275443868177447</v>
+        <v>15.6</v>
       </c>
       <c r="E47" t="n">
-        <v>0.02622143412195011</v>
+        <v>1.709743739007609</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0158463337713869</v>
+        <v>1.355341432245053</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05400000000000001</v>
+        <v>4.514285714285714</v>
       </c>
       <c r="H47" t="n">
-        <v>0.04763157894736842</v>
+        <v>3.606060606060606</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1148648648648649</v>
+        <v>8.72972972972973</v>
       </c>
       <c r="J47" t="n">
-        <v>0.1016666666666667</v>
+        <v>9.621621621621621</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_cross_receiver_runs_targeted_per_match</t>
+          <t>count_runs_in_behind_received_per_match</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>5.94723597547127</v>
+        <v>6.591692028162617</v>
       </c>
       <c r="C48" t="n">
-        <v>5.304845408312902</v>
+        <v>5.720157795606712</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5238438836310186</v>
+        <v>15.24</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9680844155553394</v>
+        <v>1.061434827120191</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9682871838062471</v>
+        <v>1.337399908735841</v>
       </c>
       <c r="G48" t="n">
-        <v>4.942857142857143</v>
+        <v>5.628571428571429</v>
       </c>
       <c r="H48" t="n">
-        <v>3.96969696969697</v>
+        <v>3.6</v>
       </c>
       <c r="I48" t="n">
-        <v>7.058823529411764</v>
+        <v>8.352941176470589</v>
       </c>
       <c r="J48" t="n">
-        <v>7.194444444444445</v>
+        <v>7.789473684210527</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>overlap_runs_threat_per_match</t>
+          <t>count_dangerous_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1451175562116739</v>
+        <v>23.63631614808085</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1292573054780485</v>
+        <v>20.64195828211308</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5154446953074694</v>
+        <v>14.51</v>
       </c>
       <c r="E49" t="n">
-        <v>0.03405899082800623</v>
+        <v>2.664515372094752</v>
       </c>
       <c r="F49" t="n">
-        <v>0.02166429085145441</v>
+        <v>3.395903039360439</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1064705882352941</v>
+        <v>21.28571428571428</v>
       </c>
       <c r="H49" t="n">
-        <v>0.09000000000000001</v>
+        <v>15.36666666666667</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1832432432432433</v>
+        <v>28.08823529411765</v>
       </c>
       <c r="J49" t="n">
-        <v>0.1816666666666667</v>
+        <v>26.23684210526316</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_leading_to_goal_per_match</t>
+          <t>count_runs_in_behind_targeted_per_match</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.01128775834658188</v>
+        <v>13.54401544401544</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0228463794098469</v>
+        <v>11.91308101274046</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5121475197315839</v>
+        <v>13.69</v>
       </c>
       <c r="E50" t="n">
-        <v>0.01547937862593079</v>
+        <v>1.446076973805465</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0242329210677283</v>
+        <v>2.39745144440049</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>12.57142857142857</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>8.633333333333333</v>
       </c>
       <c r="I50" t="n">
-        <v>0.02941176470588235</v>
+        <v>15.88235294117647</v>
       </c>
       <c r="J50" t="n">
-        <v>0.08108108108108109</v>
+        <v>15.94117647058824</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>underlap_runs_targeted_threat_per_match</t>
+          <t>count_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.03500354303883715</v>
+        <v>24.3328276175335</v>
       </c>
       <c r="C51" t="n">
-        <v>0.02865559912371057</v>
+        <v>21.42363677416309</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4850883834495583</v>
+        <v>13.58</v>
       </c>
       <c r="E51" t="n">
-        <v>0.009906303913364707</v>
+        <v>2.616511304276901</v>
       </c>
       <c r="F51" t="n">
-        <v>0.01211203510397688</v>
+        <v>3.612867593131247</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02735294117647059</v>
+        <v>22.25714285714286</v>
       </c>
       <c r="H51" t="n">
-        <v>0.01233333333333333</v>
+        <v>15.93333333333333</v>
       </c>
       <c r="I51" t="n">
-        <v>0.05205882352941177</v>
+        <v>28.79411764705882</v>
       </c>
       <c r="J51" t="n">
-        <v>0.05421052631578947</v>
+        <v>27.39473684210526</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_targeted_per_match</t>
+          <t>coming_short_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>6.131546672723142</v>
+        <v>0.06880031796502387</v>
       </c>
       <c r="C52" t="n">
-        <v>5.542358372203575</v>
+        <v>0.06057783296544907</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4661612808987073</v>
+        <v>13.57</v>
       </c>
       <c r="E52" t="n">
-        <v>0.8891802319947392</v>
+        <v>0.01428719992441168</v>
       </c>
       <c r="F52" t="n">
-        <v>1.017044092739819</v>
+        <v>0.01088963198847657</v>
       </c>
       <c r="G52" t="n">
-        <v>5.235294117647059</v>
+        <v>0.05800000000000001</v>
       </c>
       <c r="H52" t="n">
-        <v>4.121212121212121</v>
+        <v>0.03973684210526316</v>
       </c>
       <c r="I52" t="n">
-        <v>7.235294117647059</v>
+        <v>0.08864864864864866</v>
       </c>
       <c r="J52" t="n">
-        <v>7.527777777777778</v>
+        <v>0.07972222222222222</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_per_match</t>
+          <t>coming_short_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>37.44808539632069</v>
+        <v>0.02099250511015217</v>
       </c>
       <c r="C53" t="n">
-        <v>34.76193595348395</v>
+        <v>0.01853353653601332</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4655179900721305</v>
+        <v>13.27</v>
       </c>
       <c r="E53" t="n">
-        <v>5.254525586248627</v>
+        <v>0.004197425658834357</v>
       </c>
       <c r="F53" t="n">
-        <v>3.503271187118939</v>
+        <v>0.005787867802975151</v>
       </c>
       <c r="G53" t="n">
-        <v>31.77142857142857</v>
+        <v>0.01676470588235294</v>
       </c>
       <c r="H53" t="n">
-        <v>29.38235294117647</v>
+        <v>0.01078947368421053</v>
       </c>
       <c r="I53" t="n">
-        <v>43.35135135135135</v>
+        <v>0.02756756756756757</v>
       </c>
       <c r="J53" t="n">
-        <v>40.22222222222222</v>
+        <v>0.02916666666666667</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_in_sample</t>
+          <t>count_cross_receiver_runs_received_per_match</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>37.44808539632069</v>
+        <v>2.300863047921871</v>
       </c>
       <c r="C54" t="n">
-        <v>34.76193595348395</v>
+        <v>2.037655920968614</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4655179900721305</v>
+        <v>12.92</v>
       </c>
       <c r="E54" t="n">
-        <v>5.254525586248627</v>
+        <v>0.2188886379758183</v>
       </c>
       <c r="F54" t="n">
-        <v>3.503271187118939</v>
+        <v>0.537463809667263</v>
       </c>
       <c r="G54" t="n">
-        <v>31.77142857142857</v>
+        <v>2.117647058823529</v>
       </c>
       <c r="H54" t="n">
-        <v>29.38235294117647</v>
+        <v>1.212121212121212</v>
       </c>
       <c r="I54" t="n">
-        <v>43.35135135135135</v>
+        <v>2.676470588235294</v>
       </c>
       <c r="J54" t="n">
-        <v>40.22222222222222</v>
+        <v>3.055555555555555</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_leading_to_shot_per_match</t>
+          <t>support_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1447876447876448</v>
+        <v>0.4943071542130365</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1152578645148305</v>
+        <v>0.4391199932311387</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4495708474684822</v>
+        <v>12.57</v>
       </c>
       <c r="E55" t="n">
-        <v>0.08190890494267634</v>
+        <v>0.07135612900377183</v>
       </c>
       <c r="F55" t="n">
-        <v>0.05554121807102219</v>
+        <v>0.07069584010410122</v>
       </c>
       <c r="G55" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.4029411764705882</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.3326470588235294</v>
       </c>
       <c r="I55" t="n">
-        <v>0.2647058823529412</v>
+        <v>0.5745945945945946</v>
       </c>
       <c r="J55" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.5655555555555556</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_per_match</t>
+          <t>overlap_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>32.3626754485578</v>
+        <v>0.1451175562116739</v>
       </c>
       <c r="C56" t="n">
-        <v>29.2981493785209</v>
+        <v>0.1292573054780485</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4485128597556386</v>
+        <v>12.27</v>
       </c>
       <c r="E56" t="n">
-        <v>4.683787006506974</v>
+        <v>0.03405899082800623</v>
       </c>
       <c r="F56" t="n">
-        <v>5.485614908024549</v>
+        <v>0.02166429085145441</v>
       </c>
       <c r="G56" t="n">
-        <v>27.41176470588235</v>
+        <v>0.1064705882352941</v>
       </c>
       <c r="H56" t="n">
-        <v>21.43333333333333</v>
+        <v>0.09000000000000001</v>
       </c>
       <c r="I56" t="n">
-        <v>40.11764705882353</v>
+        <v>0.1832432432432433</v>
       </c>
       <c r="J56" t="n">
-        <v>37.52941176470588</v>
+        <v>0.1816666666666667</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_in_sample</t>
+          <t>count_dangerous_cross_receiver_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>32.3626754485578</v>
+        <v>5.94723597547127</v>
       </c>
       <c r="C57" t="n">
-        <v>29.2981493785209</v>
+        <v>5.304845408312902</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4485128597556386</v>
+        <v>12.11</v>
       </c>
       <c r="E57" t="n">
-        <v>4.683787006506974</v>
+        <v>0.9680844155553394</v>
       </c>
       <c r="F57" t="n">
-        <v>5.485614908024549</v>
+        <v>0.9682871838062471</v>
       </c>
       <c r="G57" t="n">
-        <v>27.41176470588235</v>
+        <v>4.942857142857143</v>
       </c>
       <c r="H57" t="n">
-        <v>21.43333333333333</v>
+        <v>3.96969696969697</v>
       </c>
       <c r="I57" t="n">
-        <v>40.11764705882353</v>
+        <v>7.058823529411764</v>
       </c>
       <c r="J57" t="n">
-        <v>37.52941176470588</v>
+        <v>7.194444444444445</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_support_runs_per_match</t>
+          <t>count_cross_receiver_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>7.296697706109471</v>
+        <v>1.143692936634113</v>
       </c>
       <c r="C58" t="n">
-        <v>6.566912236912239</v>
+        <v>1.020587877089425</v>
       </c>
       <c r="D58" t="n">
-        <v>0.444980683770335</v>
+        <v>12.06</v>
       </c>
       <c r="E58" t="n">
-        <v>1.17422802562357</v>
+        <v>0.2247395731718137</v>
       </c>
       <c r="F58" t="n">
-        <v>1.335940289545153</v>
+        <v>0.2775811558658358</v>
       </c>
       <c r="G58" t="n">
-        <v>5.735294117647059</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="H58" t="n">
-        <v>4.411764705882353</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="I58" t="n">
-        <v>8.558823529411764</v>
+        <v>1.5</v>
       </c>
       <c r="J58" t="n">
-        <v>8.911764705882353</v>
+        <v>1.552631578947368</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_leading_to_shot_per_match</t>
+          <t>count_dangerous_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.199795593913241</v>
+        <v>1.629752441517148</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1723323025490208</v>
+        <v>1.456470830526558</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4346966706437808</v>
+        <v>11.9</v>
       </c>
       <c r="E59" t="n">
-        <v>0.08828188920860353</v>
+        <v>0.3124877186678297</v>
       </c>
       <c r="F59" t="n">
-        <v>0.05000352092822971</v>
+        <v>0.4563758417148068</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1176470588235294</v>
+        <v>1.176470588235294</v>
       </c>
       <c r="H59" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="I59" t="n">
-        <v>0.2972972972972973</v>
+        <v>1.882352941176471</v>
       </c>
       <c r="J59" t="n">
-        <v>0.2368421052631579</v>
+        <v>2.447368421052631</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_received_per_match</t>
+          <t>cross_receiver_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2.300863047921871</v>
+        <v>0.1639796956620486</v>
       </c>
       <c r="C60" t="n">
-        <v>2.037655920968614</v>
+        <v>0.1465791651689484</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4302581005609785</v>
+        <v>11.87</v>
       </c>
       <c r="E60" t="n">
-        <v>0.2188886379758183</v>
+        <v>0.02045600353822701</v>
       </c>
       <c r="F60" t="n">
-        <v>0.537463809667263</v>
+        <v>0.04548143429401645</v>
       </c>
       <c r="G60" t="n">
-        <v>2.117647058823529</v>
+        <v>0.136764705882353</v>
       </c>
       <c r="H60" t="n">
-        <v>1.212121212121212</v>
+        <v>0.07866666666666666</v>
       </c>
       <c r="I60" t="n">
-        <v>2.676470588235294</v>
+        <v>0.1888235294117647</v>
       </c>
       <c r="J60" t="n">
-        <v>3.055555555555555</v>
+        <v>0.2280555555555556</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pulling_half_space_runs_per_match</t>
+          <t>support_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.5256643197819668</v>
+        <v>0.1212782648194413</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4481022790310715</v>
+        <v>0.1084716271657448</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4048317187777124</v>
+        <v>11.81</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1964053113133244</v>
+        <v>0.008724574232945039</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1761406448020426</v>
+        <v>0.02014085545014307</v>
       </c>
       <c r="G61" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1147058823529412</v>
       </c>
       <c r="H61" t="n">
-        <v>0.2702702702702703</v>
+        <v>0.08030303030303031</v>
       </c>
       <c r="I61" t="n">
-        <v>0.7837837837837838</v>
+        <v>0.1359459459459459</v>
       </c>
       <c r="J61" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.1410810810810811</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>overlap_runs_targeted_threat_per_match</t>
+          <t>count_pulling_half_space_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.05912600499659323</v>
+        <v>0.01747899159663865</v>
       </c>
       <c r="C62" t="n">
-        <v>0.05320524284487133</v>
+        <v>0.0156396503455327</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3932256559073541</v>
+        <v>11.76</v>
       </c>
       <c r="E62" t="n">
-        <v>0.01699218744966589</v>
+        <v>0.01595975094310524</v>
       </c>
       <c r="F62" t="n">
-        <v>0.01068816044352055</v>
+        <v>0.02143483774581696</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04058823529411765</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.03266666666666666</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0.08162162162162162</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="J62" t="n">
-        <v>0.07833333333333332</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_received_per_match</t>
+          <t>overlap_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>9.573009311832839</v>
+        <v>0.05912600499659323</v>
       </c>
       <c r="C63" t="n">
-        <v>8.801126191931145</v>
+        <v>0.05320524284487133</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3922273344291675</v>
+        <v>11.13</v>
       </c>
       <c r="E63" t="n">
-        <v>1.262320420025655</v>
+        <v>0.01699218744966589</v>
       </c>
       <c r="F63" t="n">
-        <v>1.353201470721109</v>
+        <v>0.01068816044352055</v>
       </c>
       <c r="G63" t="n">
-        <v>7.885714285714286</v>
+        <v>0.04058823529411765</v>
       </c>
       <c r="H63" t="n">
-        <v>6.433333333333334</v>
+        <v>0.03266666666666666</v>
       </c>
       <c r="I63" t="n">
-        <v>10.85294117647059</v>
+        <v>0.08162162162162162</v>
       </c>
       <c r="J63" t="n">
-        <v>11.1578947368421</v>
+        <v>0.07833333333333332</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>coming_short_runs_targeted_threat_per_match</t>
+          <t>count_dangerous_support_runs_per_match</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.02099250511015217</v>
+        <v>7.296697706109471</v>
       </c>
       <c r="C64" t="n">
-        <v>0.01853353653601332</v>
+        <v>6.566912236912239</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3870390726840048</v>
+        <v>11.11</v>
       </c>
       <c r="E64" t="n">
-        <v>0.004197425658834357</v>
+        <v>1.17422802562357</v>
       </c>
       <c r="F64" t="n">
-        <v>0.005787867802975151</v>
+        <v>1.335940289545153</v>
       </c>
       <c r="G64" t="n">
-        <v>0.01676470588235294</v>
+        <v>5.735294117647059</v>
       </c>
       <c r="H64" t="n">
-        <v>0.01078947368421053</v>
+        <v>4.411764705882353</v>
       </c>
       <c r="I64" t="n">
-        <v>0.02756756756756757</v>
+        <v>8.558823529411764</v>
       </c>
       <c r="J64" t="n">
-        <v>0.02916666666666667</v>
+        <v>8.911764705882353</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_per_match</t>
+          <t>runs_in_behind_received_threat_per_match</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>9.780358846241199</v>
+        <v>0.1609521235521236</v>
       </c>
       <c r="C65" t="n">
-        <v>8.831131491750686</v>
+        <v>0.1452746953016303</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3768477818307855</v>
+        <v>10.79</v>
       </c>
       <c r="E65" t="n">
-        <v>3.249431817937457</v>
+        <v>0.03096806171014679</v>
       </c>
       <c r="F65" t="n">
-        <v>1.813476918035459</v>
+        <v>0.03704793639882926</v>
       </c>
       <c r="G65" t="n">
-        <v>6.5</v>
+        <v>0.1220588235294118</v>
       </c>
       <c r="H65" t="n">
-        <v>5.868421052631579</v>
+        <v>0.08566666666666665</v>
       </c>
       <c r="I65" t="n">
-        <v>14.18918918918919</v>
+        <v>0.1991176470588235</v>
       </c>
       <c r="J65" t="n">
-        <v>12.51351351351351</v>
+        <v>0.2135294117647059</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_in_sample</t>
+          <t>count_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -2670,7 +2669,7 @@
         <v>8.831131491750687</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3768477818307855</v>
+        <v>10.75</v>
       </c>
       <c r="E66" t="n">
         <v>3.249431817937457</v>
@@ -2694,817 +2693,817 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_dropping_off_runs_targeted_per_match</t>
+          <t>count_pulling_half_space_runs_received_per_match</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01176470588235294</v>
+        <v>2.057438110379287</v>
       </c>
       <c r="C67" t="n">
-        <v>0.005773420479302832</v>
+        <v>1.858396806198664</v>
       </c>
       <c r="D67" t="n">
-        <v>0.3730019232961255</v>
+        <v>10.71</v>
       </c>
       <c r="E67" t="n">
-        <v>0.01610948698544606</v>
+        <v>0.3884017829614841</v>
       </c>
       <c r="F67" t="n">
-        <v>0.01632663640948621</v>
+        <v>0.4987647253571572</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1.263157894736842</v>
       </c>
       <c r="I67" t="n">
-        <v>0.02941176470588235</v>
+        <v>2.45945945945946</v>
       </c>
       <c r="J67" t="n">
-        <v>0.05882352941176471</v>
+        <v>2.945945945945946</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>cross_receiver_runs_targeted_threat_per_match</t>
+          <t>count_cross_receiver_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.4831396774926186</v>
+        <v>6.131546672723142</v>
       </c>
       <c r="C68" t="n">
-        <v>0.4393842997434328</v>
+        <v>5.542358372203575</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3721322900013326</v>
+        <v>10.63</v>
       </c>
       <c r="E68" t="n">
-        <v>0.06350403301734857</v>
+        <v>0.8891802319947392</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0978036335520875</v>
+        <v>1.017044092739819</v>
       </c>
       <c r="G68" t="n">
-        <v>0.3926470588235294</v>
+        <v>5.235294117647059</v>
       </c>
       <c r="H68" t="n">
-        <v>0.2990909090909091</v>
+        <v>4.121212121212121</v>
       </c>
       <c r="I68" t="n">
-        <v>0.5435135135135135</v>
+        <v>7.235294117647059</v>
       </c>
       <c r="J68" t="n">
-        <v>0.5989473684210527</v>
+        <v>7.527777777777778</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_coming_short_runs_targeted_per_match</t>
+          <t>count_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.03862366568248922</v>
+        <v>32.3626754485578</v>
       </c>
       <c r="C69" t="n">
-        <v>0.05395540971392365</v>
+        <v>29.2981493785209</v>
       </c>
       <c r="D69" t="n">
-        <v>0.3715909409555293</v>
+        <v>10.46</v>
       </c>
       <c r="E69" t="n">
-        <v>0.05586578878874394</v>
+        <v>4.683787006506974</v>
       </c>
       <c r="F69" t="n">
-        <v>0.03443169364792669</v>
+        <v>5.485614908024549</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>27.41176470588235</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>21.43333333333333</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1351351351351351</v>
+        <v>40.11764705882353</v>
       </c>
       <c r="J69" t="n">
-        <v>0.1351351351351351</v>
+        <v>37.52941176470588</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_leading_to_shot_per_match</t>
+          <t>cross_receiver_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1.143692936634113</v>
+        <v>0.4831396774926186</v>
       </c>
       <c r="C70" t="n">
-        <v>1.020587877089425</v>
+        <v>0.4393842997434328</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3699224394461988</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>0.2247395731718137</v>
+        <v>0.06350403301734857</v>
       </c>
       <c r="F70" t="n">
-        <v>0.2775811558658358</v>
+        <v>0.0978036335520875</v>
       </c>
       <c r="G70" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.3926470588235294</v>
       </c>
       <c r="H70" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.2990909090909091</v>
       </c>
       <c r="I70" t="n">
-        <v>1.5</v>
+        <v>0.5435135135135135</v>
       </c>
       <c r="J70" t="n">
-        <v>1.552631578947368</v>
+        <v>0.5989473684210527</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_received_per_match</t>
+          <t>count_dangerous_underlap_runs_received_per_match</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2.057438110379287</v>
+        <v>0.30007722007722</v>
       </c>
       <c r="C71" t="n">
-        <v>1.858396806198664</v>
+        <v>0.2749701863014556</v>
       </c>
       <c r="D71" t="n">
-        <v>0.3683369102553868</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>0.3884017829614841</v>
+        <v>0.06302476525880757</v>
       </c>
       <c r="F71" t="n">
-        <v>0.4987647253571572</v>
+        <v>0.1496518053537246</v>
       </c>
       <c r="G71" t="n">
-        <v>1.5</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="H71" t="n">
-        <v>1.263157894736842</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="I71" t="n">
-        <v>2.45945945945946</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="J71" t="n">
-        <v>2.945945945945946</v>
+        <v>0.6052631578947368</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_in_sample</t>
+          <t>count_dangerous_support_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>22.36934362934363</v>
+        <v>1.659418578242108</v>
       </c>
       <c r="C72" t="n">
-        <v>20.73403909317222</v>
+        <v>1.520790283669541</v>
       </c>
       <c r="D72" t="n">
-        <v>0.3468525484725485</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>4.355589999391016</v>
+        <v>0.09578375101524904</v>
       </c>
       <c r="F72" t="n">
-        <v>3.795990691848278</v>
+        <v>0.3608717684954741</v>
       </c>
       <c r="G72" t="n">
-        <v>17.08823529411765</v>
+        <v>1.558823529411765</v>
       </c>
       <c r="H72" t="n">
-        <v>13.1578947368421</v>
+        <v>1.066666666666667</v>
       </c>
       <c r="I72" t="n">
-        <v>27.26470588235294</v>
+        <v>1.764705882352941</v>
       </c>
       <c r="J72" t="n">
-        <v>28.30555555555556</v>
+        <v>2.111111111111111</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_per_match</t>
+          <t>count_dangerous_pulling_half_space_runs_received_per_match</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>22.36934362934363</v>
+        <v>0.08041789688848514</v>
       </c>
       <c r="C73" t="n">
-        <v>20.73403909317222</v>
+        <v>0.08823824910512217</v>
       </c>
       <c r="D73" t="n">
-        <v>0.3468525484725485</v>
+        <v>-8.859999999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>4.355589999391016</v>
+        <v>0.01242006092440807</v>
       </c>
       <c r="F73" t="n">
-        <v>3.795990691848278</v>
+        <v>0.05867126514706107</v>
       </c>
       <c r="G73" t="n">
-        <v>17.08823529411765</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="H73" t="n">
-        <v>13.1578947368421</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="I73" t="n">
-        <v>27.26470588235294</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="J73" t="n">
-        <v>28.30555555555556</v>
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>cross_receiver_runs_received_threat_per_match</t>
+          <t>overlap_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1639796956620486</v>
+        <v>0.04508194412900295</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1465791651689484</v>
+        <v>0.04142392129172316</v>
       </c>
       <c r="D74" t="n">
-        <v>0.342947659642123</v>
+        <v>8.83</v>
       </c>
       <c r="E74" t="n">
-        <v>0.02045600353822701</v>
+        <v>0.01528334019127634</v>
       </c>
       <c r="F74" t="n">
-        <v>0.04548143429401644</v>
+        <v>0.008375648516888922</v>
       </c>
       <c r="G74" t="n">
-        <v>0.136764705882353</v>
+        <v>0.02705882352941177</v>
       </c>
       <c r="H74" t="n">
-        <v>0.07866666666666666</v>
+        <v>0.02633333333333333</v>
       </c>
       <c r="I74" t="n">
-        <v>0.1888235294117647</v>
+        <v>0.0645945945945946</v>
       </c>
       <c r="J74" t="n">
-        <v>0.2280555555555556</v>
+        <v>0.06305555555555556</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>runs_in_behind_received_threat_per_match</t>
+          <t>count_support_runs_received_per_match</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1609521235521236</v>
+        <v>9.573009311832839</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1452746953016303</v>
+        <v>8.801126191931145</v>
       </c>
       <c r="D75" t="n">
-        <v>0.3404558563650017</v>
+        <v>8.77</v>
       </c>
       <c r="E75" t="n">
-        <v>0.03096806171014679</v>
+        <v>1.262320420025655</v>
       </c>
       <c r="F75" t="n">
-        <v>0.03704793639882926</v>
+        <v>1.353201470721109</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1220588235294118</v>
+        <v>7.885714285714286</v>
       </c>
       <c r="H75" t="n">
-        <v>0.08566666666666665</v>
+        <v>6.433333333333334</v>
       </c>
       <c r="I75" t="n">
-        <v>0.1991176470588235</v>
+        <v>10.85294117647059</v>
       </c>
       <c r="J75" t="n">
-        <v>0.2135294117647059</v>
+        <v>11.1578947368421</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_underlap_runs_per_match</t>
+          <t>count_dangerous_runs_ahead_of_the_ball_received_per_match</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1.629752441517148</v>
+        <v>2.032055416761299</v>
       </c>
       <c r="C76" t="n">
-        <v>1.456470830526558</v>
+        <v>1.873251689629398</v>
       </c>
       <c r="D76" t="n">
-        <v>0.3402069087198859</v>
+        <v>8.48</v>
       </c>
       <c r="E76" t="n">
-        <v>0.3124877186678297</v>
+        <v>0.5600067637458718</v>
       </c>
       <c r="F76" t="n">
-        <v>0.4563758417148068</v>
+        <v>0.3686157038129935</v>
       </c>
       <c r="G76" t="n">
-        <v>1.176470588235294</v>
+        <v>1.441176470588235</v>
       </c>
       <c r="H76" t="n">
-        <v>0.868421052631579</v>
+        <v>1.212121212121212</v>
       </c>
       <c r="I76" t="n">
-        <v>1.882352941176471</v>
+        <v>2.685714285714285</v>
       </c>
       <c r="J76" t="n">
-        <v>2.447368421052631</v>
+        <v>2.352941176470588</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pulling_wide_runs_per_match</t>
+          <t>runs_in_behind_threat_per_match</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.02302521008403361</v>
+        <v>0.9773756075403135</v>
       </c>
       <c r="C77" t="n">
-        <v>0.03554327396432659</v>
+        <v>0.9026613884480758</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3361317894972893</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>0.03728669059314253</v>
+        <v>0.1843025851245145</v>
       </c>
       <c r="F77" t="n">
-        <v>0.04174717388052308</v>
+        <v>0.167537293696371</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>0.7470588235294118</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>0.6786666666666666</v>
       </c>
       <c r="I77" t="n">
-        <v>0.08571428571428572</v>
+        <v>1.213714285714286</v>
       </c>
       <c r="J77" t="n">
-        <v>0.1428571428571428</v>
+        <v>1.241470588235294</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>runs_in_behind_threat_per_match</t>
+          <t>count_dangerous_underlap_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.9773756075403135</v>
+        <v>0.5359800136270725</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9026613884480758</v>
+        <v>0.4960625649170541</v>
       </c>
       <c r="D78" t="n">
-        <v>0.3321692155722519</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>0.1843025851245145</v>
+        <v>0.1427869694884782</v>
       </c>
       <c r="F78" t="n">
-        <v>0.167537293696371</v>
+        <v>0.2333374290705338</v>
       </c>
       <c r="G78" t="n">
-        <v>0.7470588235294118</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="H78" t="n">
-        <v>0.6786666666666666</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="I78" t="n">
-        <v>1.213714285714286</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="J78" t="n">
-        <v>1.241470588235294</v>
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_support_runs_targeted_per_match</t>
+          <t>count_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1.659418578242108</v>
+        <v>22.36934362934363</v>
       </c>
       <c r="C79" t="n">
-        <v>1.520790283669541</v>
+        <v>20.73403909317222</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3194790349760559</v>
+        <v>7.89</v>
       </c>
       <c r="E79" t="n">
-        <v>0.09578375101524904</v>
+        <v>4.355589999391016</v>
       </c>
       <c r="F79" t="n">
-        <v>0.3608717684954741</v>
+        <v>3.795990691848278</v>
       </c>
       <c r="G79" t="n">
-        <v>1.558823529411765</v>
+        <v>17.08823529411765</v>
       </c>
       <c r="H79" t="n">
-        <v>1.066666666666667</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="I79" t="n">
-        <v>1.764705882352941</v>
+        <v>27.26470588235294</v>
       </c>
       <c r="J79" t="n">
-        <v>2.111111111111111</v>
+        <v>28.30555555555556</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_in_sample</t>
+          <t>runs_in_behind_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>53.67384510560981</v>
+        <v>0.3367260958437429</v>
       </c>
       <c r="C80" t="n">
-        <v>55.42291531127444</v>
+        <v>0.3124782739274999</v>
       </c>
       <c r="D80" t="n">
-        <v>0.3027347404476339</v>
+        <v>7.76</v>
       </c>
       <c r="E80" t="n">
-        <v>6.287169289861645</v>
+        <v>0.05171993661245074</v>
       </c>
       <c r="F80" t="n">
-        <v>6.082707815726875</v>
+        <v>0.0669803383624709</v>
       </c>
       <c r="G80" t="n">
-        <v>44.88235294117647</v>
+        <v>0.2814705882352941</v>
       </c>
       <c r="H80" t="n">
-        <v>44.90909090909091</v>
+        <v>0.223</v>
       </c>
       <c r="I80" t="n">
-        <v>59.72972972972973</v>
+        <v>0.4014285714285715</v>
       </c>
       <c r="J80" t="n">
-        <v>65.73684210526316</v>
+        <v>0.4570588235294118</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_per_match</t>
+          <t>count_support_runs_per_match</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>53.67384510560981</v>
+        <v>37.44808539632069</v>
       </c>
       <c r="C81" t="n">
-        <v>55.42291531127444</v>
+        <v>34.76193595348395</v>
       </c>
       <c r="D81" t="n">
-        <v>0.3027347404476339</v>
+        <v>7.73</v>
       </c>
       <c r="E81" t="n">
-        <v>6.287169289861645</v>
+        <v>5.254525586248627</v>
       </c>
       <c r="F81" t="n">
-        <v>6.082707815726875</v>
+        <v>3.503271187118939</v>
       </c>
       <c r="G81" t="n">
-        <v>44.88235294117647</v>
+        <v>31.77142857142857</v>
       </c>
       <c r="H81" t="n">
-        <v>44.90909090909091</v>
+        <v>29.38235294117647</v>
       </c>
       <c r="I81" t="n">
-        <v>59.72972972972973</v>
+        <v>43.35135135135135</v>
       </c>
       <c r="J81" t="n">
-        <v>65.73684210526316</v>
+        <v>40.22222222222222</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_ahead_of_the_ball_received_per_match</t>
+          <t>pulling_half_space_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2.032055416761299</v>
+        <v>0.01987926413808767</v>
       </c>
       <c r="C82" t="n">
-        <v>1.873251689629399</v>
+        <v>0.01852204064061649</v>
       </c>
       <c r="D82" t="n">
-        <v>0.2933221599909284</v>
+        <v>7.33</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5600067637458718</v>
+        <v>0.002301578771532749</v>
       </c>
       <c r="F82" t="n">
-        <v>0.3686157038129935</v>
+        <v>0.004698466915296335</v>
       </c>
       <c r="G82" t="n">
-        <v>1.441176470588235</v>
+        <v>0.01764705882352941</v>
       </c>
       <c r="H82" t="n">
-        <v>1.212121212121212</v>
+        <v>0.01066666666666667</v>
       </c>
       <c r="I82" t="n">
-        <v>2.685714285714285</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="J82" t="n">
-        <v>2.352941176470588</v>
+        <v>0.02702702702702703</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>overlap_runs_received_threat_per_match</t>
+          <t>count_runs_ahead_of_the_ball_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.04508194412900295</v>
+        <v>1.469230070406541</v>
       </c>
       <c r="C83" t="n">
-        <v>0.04142392129172315</v>
+        <v>1.376848847963399</v>
       </c>
       <c r="D83" t="n">
-        <v>0.2841468367492098</v>
+        <v>6.71</v>
       </c>
       <c r="E83" t="n">
-        <v>0.01528334019127634</v>
+        <v>0.2150808549224011</v>
       </c>
       <c r="F83" t="n">
-        <v>0.008375648516888922</v>
+        <v>0.3403765690004406</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02705882352941177</v>
+        <v>1.235294117647059</v>
       </c>
       <c r="H83" t="n">
-        <v>0.02633333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="I83" t="n">
-        <v>0.0645945945945946</v>
+        <v>1.771428571428571</v>
       </c>
       <c r="J83" t="n">
-        <v>0.06305555555555556</v>
+        <v>1.823529411764706</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_targeted_per_match</t>
+          <t>count_coming_short_runs_received_per_match</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>11.20654099477629</v>
+        <v>7.165600726777197</v>
       </c>
       <c r="C84" t="n">
-        <v>10.5555273974469</v>
+        <v>6.725914978949034</v>
       </c>
       <c r="D84" t="n">
-        <v>0.2817717933868527</v>
+        <v>6.54</v>
       </c>
       <c r="E84" t="n">
-        <v>1.308442476589012</v>
+        <v>1.039969670608072</v>
       </c>
       <c r="F84" t="n">
-        <v>1.473844945780269</v>
+        <v>1.484553721368912</v>
       </c>
       <c r="G84" t="n">
-        <v>9.428571428571429</v>
+        <v>5.558823529411764</v>
       </c>
       <c r="H84" t="n">
-        <v>7.8</v>
+        <v>4.131578947368421</v>
       </c>
       <c r="I84" t="n">
-        <v>12.48648648648649</v>
+        <v>8.054054054054054</v>
       </c>
       <c r="J84" t="n">
-        <v>13.05263157894737</v>
+        <v>10.11111111111111</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>runs_in_behind_targeted_threat_per_match</t>
+          <t>count_support_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.3367260958437429</v>
+        <v>11.20654099477629</v>
       </c>
       <c r="C85" t="n">
-        <v>0.3124782739274999</v>
+        <v>10.5555273974469</v>
       </c>
       <c r="D85" t="n">
-        <v>0.2804552687078058</v>
+        <v>6.17</v>
       </c>
       <c r="E85" t="n">
-        <v>0.05171993661245074</v>
+        <v>1.308442476589012</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0669803383624709</v>
+        <v>1.473844945780269</v>
       </c>
       <c r="G85" t="n">
-        <v>0.2814705882352941</v>
+        <v>9.428571428571429</v>
       </c>
       <c r="H85" t="n">
-        <v>0.223</v>
+        <v>7.8</v>
       </c>
       <c r="I85" t="n">
-        <v>0.4014285714285715</v>
+        <v>12.48648648648649</v>
       </c>
       <c r="J85" t="n">
-        <v>0.4570588235294118</v>
+        <v>13.05263157894737</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_received_per_match</t>
+          <t>count_runs_in_behind_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>7.165600726777197</v>
+        <v>0.1914830797183738</v>
       </c>
       <c r="C86" t="n">
-        <v>6.725914978949035</v>
+        <v>0.1803966082603854</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2558084151660458</v>
+        <v>6.15</v>
       </c>
       <c r="E86" t="n">
-        <v>1.039969670608072</v>
+        <v>0.09395303309557985</v>
       </c>
       <c r="F86" t="n">
-        <v>1.484553721368912</v>
+        <v>0.09833298823033293</v>
       </c>
       <c r="G86" t="n">
-        <v>5.558823529411764</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="H86" t="n">
-        <v>4.131578947368421</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="I86" t="n">
-        <v>8.054054054054054</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="J86" t="n">
-        <v>10.11111111111111</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_leading_to_shot_per_match</t>
+          <t>count_dangerous_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.9812764024528731</v>
+        <v>16.40917101975926</v>
       </c>
       <c r="C87" t="n">
-        <v>1.036352876941112</v>
+        <v>15.46229069204301</v>
       </c>
       <c r="D87" t="n">
-        <v>0.2517120506466018</v>
+        <v>6.12</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2569290331104926</v>
+        <v>2.762269858339679</v>
       </c>
       <c r="F87" t="n">
-        <v>0.218460210128559</v>
+        <v>2.720380189123743</v>
       </c>
       <c r="G87" t="n">
-        <v>0.8235294117647058</v>
+        <v>12.82352941176471</v>
       </c>
       <c r="H87" t="n">
-        <v>0.6176470588235294</v>
+        <v>12.16666666666667</v>
       </c>
       <c r="I87" t="n">
-        <v>1.432432432432432</v>
+        <v>19.65714285714286</v>
       </c>
       <c r="J87" t="n">
-        <v>1.447368421052632</v>
+        <v>21.32352941176471</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>pulling_half_space_runs_targeted_threat_per_match</t>
+          <t>count_dangerous_runs_in_behind_received_per_match</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.01987926413808767</v>
+        <v>2.664051782875312</v>
       </c>
       <c r="C88" t="n">
-        <v>0.01852204064061649</v>
+        <v>2.510394579775384</v>
       </c>
       <c r="D88" t="n">
-        <v>0.249431221077376</v>
+        <v>6.12</v>
       </c>
       <c r="E88" t="n">
-        <v>0.002301578771532749</v>
+        <v>0.4870330323988936</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004698466915296335</v>
+        <v>0.6306946926585427</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01764705882352941</v>
+        <v>2.029411764705882</v>
       </c>
       <c r="H88" t="n">
-        <v>0.01066666666666667</v>
+        <v>1.514285714285714</v>
       </c>
       <c r="I88" t="n">
-        <v>0.02352941176470588</v>
+        <v>3.205882352941177</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02702702702702703</v>
+        <v>3.794117647058823</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_in_behind_per_match</t>
+          <t>count_overlap_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>16.40917101975926</v>
+        <v>0.05134226663638428</v>
       </c>
       <c r="C89" t="n">
-        <v>15.46229069204301</v>
+        <v>0.0544771388734237</v>
       </c>
       <c r="D89" t="n">
-        <v>0.2461134338847539</v>
+        <v>-5.75</v>
       </c>
       <c r="E89" t="n">
-        <v>2.762269858339679</v>
+        <v>0.02233715319321644</v>
       </c>
       <c r="F89" t="n">
-        <v>2.720380189123743</v>
+        <v>0.03423108647606065</v>
       </c>
       <c r="G89" t="n">
-        <v>12.82352941176471</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="H89" t="n">
-        <v>12.16666666666667</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>19.65714285714286</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="J89" t="n">
-        <v>21.32352941176471</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_targeted_per_match</t>
+          <t>count_overlap_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>18.06243924596866</v>
+        <v>4.286618214853509</v>
       </c>
       <c r="C90" t="n">
-        <v>18.39687493653438</v>
+        <v>4.060504102671286</v>
       </c>
       <c r="D90" t="n">
-        <v>0.2211806687060543</v>
+        <v>5.57</v>
       </c>
       <c r="E90" t="n">
-        <v>1.375380319621505</v>
+        <v>1.062005644672877</v>
       </c>
       <c r="F90" t="n">
-        <v>2.18358180791825</v>
+        <v>0.9873021360292875</v>
       </c>
       <c r="G90" t="n">
-        <v>16.02941176470588</v>
+        <v>3.085714285714286</v>
       </c>
       <c r="H90" t="n">
-        <v>13.51515151515152</v>
+        <v>2.266666666666667</v>
       </c>
       <c r="I90" t="n">
-        <v>19.64705882352941</v>
+        <v>5.72972972972973</v>
       </c>
       <c r="J90" t="n">
-        <v>21.86842105263158</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="91">
@@ -3517,10 +3516,10 @@
         <v>0.1572814898932546</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1492330166320879</v>
+        <v>0.1492330166320878</v>
       </c>
       <c r="D91" t="n">
-        <v>0.2194872339667372</v>
+        <v>5.39</v>
       </c>
       <c r="E91" t="n">
         <v>0.02558815519676611</v>
@@ -3544,125 +3543,125 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_ahead_of_the_ball_targeted_per_match</t>
+          <t>count_support_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2.98611855553032</v>
+        <v>0.9812764024528731</v>
       </c>
       <c r="C92" t="n">
-        <v>2.840636351038828</v>
+        <v>1.036352876941112</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1982365630306963</v>
+        <v>-5.31</v>
       </c>
       <c r="E92" t="n">
-        <v>0.5035039330622904</v>
+        <v>0.2569290331104926</v>
       </c>
       <c r="F92" t="n">
-        <v>0.4777956415274409</v>
+        <v>0.218460210128559</v>
       </c>
       <c r="G92" t="n">
-        <v>2.558823529411764</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="H92" t="n">
-        <v>1.727272727272727</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="I92" t="n">
-        <v>3.657142857142857</v>
+        <v>1.432432432432432</v>
       </c>
       <c r="J92" t="n">
-        <v>3.444444444444445</v>
+        <v>1.447368421052632</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_leading_to_shot_per_match</t>
+          <t>count_dangerous_runs_ahead_of_the_ball_targeted_per_match</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1.469230070406541</v>
+        <v>2.98611855553032</v>
       </c>
       <c r="C93" t="n">
-        <v>1.376848847963399</v>
+        <v>2.840636351038828</v>
       </c>
       <c r="D93" t="n">
-        <v>0.190931597705978</v>
+        <v>5.12</v>
       </c>
       <c r="E93" t="n">
-        <v>0.2150808549224011</v>
+        <v>0.5035039330622904</v>
       </c>
       <c r="F93" t="n">
-        <v>0.3403765690004406</v>
+        <v>0.4777956415274409</v>
       </c>
       <c r="G93" t="n">
-        <v>1.235294117647059</v>
+        <v>2.558823529411764</v>
       </c>
       <c r="H93" t="n">
-        <v>0.7666666666666667</v>
+        <v>1.727272727272727</v>
       </c>
       <c r="I93" t="n">
-        <v>1.771428571428571</v>
+        <v>3.657142857142857</v>
       </c>
       <c r="J93" t="n">
-        <v>1.823529411764706</v>
+        <v>3.444444444444445</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pulling_wide_runs_received_per_match</t>
+          <t>count_dangerous_runs_in_behind_targeted_per_match</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.005714285714285714</v>
+        <v>5.654967067908245</v>
       </c>
       <c r="C94" t="n">
-        <v>0.004126984126984127</v>
+        <v>5.382131680150256</v>
       </c>
       <c r="D94" t="n">
-        <v>0.1867040112037347</v>
+        <v>5.07</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0127775312999988</v>
+        <v>0.7758067678307432</v>
       </c>
       <c r="F94" t="n">
-        <v>0.01092819966860858</v>
+        <v>1.16846072446463</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>4.675675675675675</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>3.542857142857143</v>
       </c>
       <c r="I94" t="n">
-        <v>0.02857142857142857</v>
+        <v>6.628571428571429</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03333333333333333</v>
+        <v>7.852941176470588</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_dropping_off_runs_per_match</t>
+          <t>count_dangerous_coming_short_runs_received_per_match</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.03512605042016807</v>
+        <v>0.03321826027708381</v>
       </c>
       <c r="C95" t="n">
-        <v>0.02900239389403476</v>
+        <v>0.0349365283421011</v>
       </c>
       <c r="D95" t="n">
-        <v>0.1867040112037346</v>
+        <v>-4.92</v>
       </c>
       <c r="E95" t="n">
-        <v>0.02466068008003318</v>
+        <v>0.04430428137680489</v>
       </c>
       <c r="F95" t="n">
-        <v>0.03476469466326691</v>
+        <v>0.02596764344927216</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -3671,893 +3670,553 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="J95" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.07894736842105263</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_dropping_off_runs_received_per_match</t>
+          <t>count_coming_short_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.005882352941176471</v>
+        <v>7.745359981830569</v>
       </c>
       <c r="C96" t="n">
-        <v>0.003812636165577342</v>
+        <v>7.415314834355082</v>
       </c>
       <c r="D96" t="n">
-        <v>0.1867040112037346</v>
+        <v>4.45</v>
       </c>
       <c r="E96" t="n">
-        <v>0.01315334104411641</v>
+        <v>1.075019158813042</v>
       </c>
       <c r="F96" t="n">
-        <v>0.01006625878658774</v>
+        <v>1.600351367776258</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>6.058823529411764</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>4.526315789473684</v>
       </c>
       <c r="I96" t="n">
-        <v>0.02941176470588235</v>
+        <v>8.648648648648649</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02941176470588235</v>
+        <v>10.80555555555556</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_in_behind_received_per_match</t>
+          <t>count_pulling_half_space_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2.664051782875312</v>
+        <v>2.431265046559164</v>
       </c>
       <c r="C97" t="n">
-        <v>2.510394579775385</v>
+        <v>2.338355475414299</v>
       </c>
       <c r="D97" t="n">
-        <v>0.1817354124435042</v>
+        <v>3.97</v>
       </c>
       <c r="E97" t="n">
-        <v>0.4870330323988936</v>
+        <v>0.477303333162449</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6306946926585427</v>
+        <v>0.5846374389431258</v>
       </c>
       <c r="G97" t="n">
-        <v>2.029411764705882</v>
+        <v>1.735294117647059</v>
       </c>
       <c r="H97" t="n">
-        <v>1.514285714285714</v>
+        <v>1.533333333333333</v>
       </c>
       <c r="I97" t="n">
-        <v>3.205882352941177</v>
+        <v>2.852941176470588</v>
       </c>
       <c r="J97" t="n">
-        <v>3.794117647058823</v>
+        <v>3.702702702702703</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>count_overlap_runs_targeted_per_match</t>
+          <t>count_overlap_runs_received_per_match</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>4.286618214853509</v>
+        <v>3.369311832841245</v>
       </c>
       <c r="C98" t="n">
-        <v>4.060504102671285</v>
+        <v>3.243879816449476</v>
       </c>
       <c r="D98" t="n">
-        <v>0.166337194956167</v>
+        <v>3.87</v>
       </c>
       <c r="E98" t="n">
-        <v>1.062005644672877</v>
+        <v>0.9116439938075028</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9873021360292875</v>
+        <v>0.8132765674554925</v>
       </c>
       <c r="G98" t="n">
-        <v>3.085714285714286</v>
+        <v>2.441176470588236</v>
       </c>
       <c r="H98" t="n">
-        <v>2.266666666666667</v>
+        <v>1.866666666666667</v>
       </c>
       <c r="I98" t="n">
-        <v>5.72972972972973</v>
+        <v>4.567567567567568</v>
       </c>
       <c r="J98" t="n">
-        <v>6.5</v>
+        <v>5.416666666666667</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_targeted_per_match</t>
+          <t>count_dangerous_pulling_wide_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>7.745359981830569</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="C99" t="n">
-        <v>7.415314834355081</v>
+        <v>0.005928785928785929</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1629032656017753</v>
+        <v>-3.62</v>
       </c>
       <c r="E99" t="n">
-        <v>1.075019158813042</v>
+        <v>0.0127775312999988</v>
       </c>
       <c r="F99" t="n">
-        <v>1.600351367776258</v>
+        <v>0.01233647406445749</v>
       </c>
       <c r="G99" t="n">
-        <v>6.058823529411764</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>4.526315789473684</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>8.648648648648649</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="J99" t="n">
-        <v>10.80555555555556</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_in_behind_targeted_per_match</t>
+          <t>count_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>5.654967067908245</v>
+        <v>9.704555984555984</v>
       </c>
       <c r="C100" t="n">
-        <v>5.382131680150256</v>
+        <v>9.377482145407843</v>
       </c>
       <c r="D100" t="n">
-        <v>0.1608271537956099</v>
+        <v>3.49</v>
       </c>
       <c r="E100" t="n">
-        <v>0.7758067678307432</v>
+        <v>1.880635762178646</v>
       </c>
       <c r="F100" t="n">
-        <v>1.16846072446463</v>
+        <v>2.010143341861189</v>
       </c>
       <c r="G100" t="n">
-        <v>4.675675675675675</v>
+        <v>8.029411764705882</v>
       </c>
       <c r="H100" t="n">
-        <v>3.542857142857143</v>
+        <v>5.9</v>
       </c>
       <c r="I100" t="n">
-        <v>6.628571428571429</v>
+        <v>12.35135135135135</v>
       </c>
       <c r="J100" t="n">
-        <v>7.852941176470588</v>
+        <v>14.91666666666667</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pulling_half_space_runs_received_per_match</t>
+          <t>count_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.08041789688848514</v>
+        <v>53.67384510560981</v>
       </c>
       <c r="C101" t="n">
-        <v>0.08823824910512217</v>
+        <v>55.42291531127444</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1565920585372543</v>
+        <v>-3.16</v>
       </c>
       <c r="E101" t="n">
-        <v>0.01242006092440807</v>
+        <v>6.287169289861645</v>
       </c>
       <c r="F101" t="n">
-        <v>0.05867126514706107</v>
+        <v>6.082707815726875</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05882352941176471</v>
+        <v>44.88235294117647</v>
       </c>
       <c r="H101" t="n">
-        <v>0.02631578947368421</v>
+        <v>44.90909090909091</v>
       </c>
       <c r="I101" t="n">
-        <v>0.08823529411764706</v>
+        <v>59.72972972972973</v>
       </c>
       <c r="J101" t="n">
-        <v>0.2352941176470588</v>
+        <v>65.73684210526316</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_underlap_runs_received_per_match</t>
+          <t>count_dangerous_pulling_half_space_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.30007722007722</v>
+        <v>0.1266636384283443</v>
       </c>
       <c r="C102" t="n">
-        <v>0.2749701863014556</v>
+        <v>0.1306449407068602</v>
       </c>
       <c r="D102" t="n">
-        <v>0.1421661250591887</v>
+        <v>-3.05</v>
       </c>
       <c r="E102" t="n">
-        <v>0.06302476525880757</v>
+        <v>0.03407824047120905</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1496518053537246</v>
+        <v>0.06462692066164011</v>
       </c>
       <c r="G102" t="n">
-        <v>0.2432432432432433</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="H102" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="I102" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="J102" t="n">
-        <v>0.6052631578947368</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_underlap_runs_targeted_per_match</t>
+          <t>runs_ahead_of_the_ball_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.5359800136270725</v>
+        <v>0.2214660458778106</v>
       </c>
       <c r="C103" t="n">
-        <v>0.4960625649170541</v>
+        <v>0.2161462300666635</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1412091503625844</v>
+        <v>2.46</v>
       </c>
       <c r="E103" t="n">
-        <v>0.1427869694884782</v>
+        <v>0.02332306685771477</v>
       </c>
       <c r="F103" t="n">
-        <v>0.2333374290705338</v>
+        <v>0.03102553455050423</v>
       </c>
       <c r="G103" t="n">
-        <v>0.3428571428571429</v>
+        <v>0.1882352941176471</v>
       </c>
       <c r="H103" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.1427272727272727</v>
       </c>
       <c r="I103" t="n">
-        <v>0.7352941176470589</v>
+        <v>0.2442857142857143</v>
       </c>
       <c r="J103" t="n">
-        <v>1.052631578947368</v>
+        <v>0.2539473684210526</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>count_overlap_runs_leading_to_shot_per_match</t>
+          <t>count_dangerous_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.4612491483079719</v>
+        <v>11.38725868725869</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4683000486715657</v>
+        <v>11.11787895490682</v>
       </c>
       <c r="D104" t="n">
-        <v>0.1331669785170459</v>
+        <v>2.42</v>
       </c>
       <c r="E104" t="n">
-        <v>0.08546385460767944</v>
+        <v>1.720617622348265</v>
       </c>
       <c r="F104" t="n">
-        <v>0.1187405702769979</v>
+        <v>1.585738002965896</v>
       </c>
       <c r="G104" t="n">
-        <v>0.3714285714285714</v>
+        <v>8.882352941176471</v>
       </c>
       <c r="H104" t="n">
-        <v>0.2647058823529412</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="I104" t="n">
-        <v>0.5882352941176471</v>
+        <v>13.14705882352941</v>
       </c>
       <c r="J104" t="n">
-        <v>0.6176470588235294</v>
+        <v>13.35294117647059</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_received_per_match</t>
+          <t>count_runs_in_behind_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>13.56240744946627</v>
+        <v>1.140281626163979</v>
       </c>
       <c r="C105" t="n">
-        <v>13.64143977075866</v>
+        <v>1.161414045624572</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1268912408106939</v>
+        <v>-1.82</v>
       </c>
       <c r="E105" t="n">
-        <v>1.323571842315648</v>
+        <v>0.2698911639461046</v>
       </c>
       <c r="F105" t="n">
-        <v>1.777789060691256</v>
+        <v>0.4143125599478831</v>
       </c>
       <c r="G105" t="n">
-        <v>11.52941176470588</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="H105" t="n">
-        <v>10.06060606060606</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="I105" t="n">
-        <v>15.11764705882353</v>
+        <v>1.529411764705882</v>
       </c>
       <c r="J105" t="n">
-        <v>16.86842105263158</v>
+        <v>2.058823529411764</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>count_overlap_runs_leading_to_goal_per_match</t>
+          <t>count_runs_ahead_of_the_ball_targeted_per_match</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.05134226663638428</v>
+        <v>18.06243924596866</v>
       </c>
       <c r="C106" t="n">
-        <v>0.05447713887342372</v>
+        <v>18.39687493653438</v>
       </c>
       <c r="D106" t="n">
-        <v>0.1222264662704282</v>
+        <v>-1.82</v>
       </c>
       <c r="E106" t="n">
-        <v>0.02233715319321644</v>
+        <v>1.375380319621505</v>
       </c>
       <c r="F106" t="n">
-        <v>0.03423108647606065</v>
+        <v>2.18358180791825</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02857142857142857</v>
+        <v>16.02941176470588</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>13.51515151515152</v>
       </c>
       <c r="I106" t="n">
-        <v>0.08108108108108109</v>
+        <v>19.64705882352941</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1176470588235294</v>
+        <v>21.86842105263158</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_targeted_per_match</t>
+          <t>count_cross_receiver_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>2.431265046559164</v>
+        <v>0.2191551215080627</v>
       </c>
       <c r="C107" t="n">
-        <v>2.338355475414299</v>
+        <v>0.215327060806937</v>
       </c>
       <c r="D107" t="n">
-        <v>0.1189051675946295</v>
+        <v>1.78</v>
       </c>
       <c r="E107" t="n">
-        <v>0.477303333162449</v>
+        <v>0.07238663638389523</v>
       </c>
       <c r="F107" t="n">
-        <v>0.5846374389431258</v>
+        <v>0.1181090748514684</v>
       </c>
       <c r="G107" t="n">
-        <v>1.735294117647059</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="H107" t="n">
-        <v>1.533333333333333</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="I107" t="n">
-        <v>2.852941176470588</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="J107" t="n">
-        <v>3.702702702702703</v>
+        <v>0.4473684210526316</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_leading_to_shot_per_match</t>
+          <t>count_overlap_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1.140281626163979</v>
+        <v>0.4612491483079719</v>
       </c>
       <c r="C108" t="n">
-        <v>1.161414045624572</v>
+        <v>0.4683000486715657</v>
       </c>
       <c r="D108" t="n">
-        <v>0.1169848217470614</v>
+        <v>-1.51</v>
       </c>
       <c r="E108" t="n">
-        <v>0.2698911639461046</v>
+        <v>0.08546385460767944</v>
       </c>
       <c r="F108" t="n">
-        <v>0.4143125599478831</v>
+        <v>0.1187405702769979</v>
       </c>
       <c r="G108" t="n">
-        <v>0.9117647058823529</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="H108" t="n">
+        <v>0.2647058823529412</v>
+      </c>
+      <c r="I108" t="n">
         <v>0.5882352941176471</v>
       </c>
-      <c r="I108" t="n">
-        <v>1.529411764705882</v>
-      </c>
       <c r="J108" t="n">
-        <v>2.058823529411764</v>
+        <v>0.6176470588235294</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>count_overlap_runs_in_sample</t>
+          <t>runs_ahead_of_the_ball_threat_per_match</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>9.704555984555984</v>
+        <v>0.7606445605269136</v>
       </c>
       <c r="C109" t="n">
-        <v>9.377482145407843</v>
+        <v>0.7559838735241213</v>
       </c>
       <c r="D109" t="n">
-        <v>0.1051500789460613</v>
+        <v>0.62</v>
       </c>
       <c r="E109" t="n">
-        <v>1.880635762178646</v>
+        <v>0.09844403691900214</v>
       </c>
       <c r="F109" t="n">
-        <v>2.010143341861189</v>
+        <v>0.08810505861464672</v>
       </c>
       <c r="G109" t="n">
-        <v>8.029411764705882</v>
+        <v>0.5935294117647059</v>
       </c>
       <c r="H109" t="n">
-        <v>5.9</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="I109" t="n">
-        <v>12.35135135135135</v>
+        <v>0.8476470588235294</v>
       </c>
       <c r="J109" t="n">
-        <v>14.91666666666667</v>
+        <v>0.8814705882352941</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>count_overlap_runs_per_match</t>
+          <t>count_runs_ahead_of_the_ball_received_per_match</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>9.704555984555984</v>
+        <v>13.56240744946627</v>
       </c>
       <c r="C110" t="n">
-        <v>9.377482145407843</v>
+        <v>13.64143977075866</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1051500789460613</v>
+        <v>-0.58</v>
       </c>
       <c r="E110" t="n">
-        <v>1.880635762178646</v>
+        <v>1.323571842315648</v>
       </c>
       <c r="F110" t="n">
-        <v>2.010143341861189</v>
+        <v>1.777789060691256</v>
       </c>
       <c r="G110" t="n">
-        <v>8.029411764705882</v>
+        <v>11.52941176470588</v>
       </c>
       <c r="H110" t="n">
-        <v>5.9</v>
+        <v>10.06060606060606</v>
       </c>
       <c r="I110" t="n">
-        <v>12.35135135135135</v>
+        <v>15.11764705882353</v>
       </c>
       <c r="J110" t="n">
-        <v>14.91666666666667</v>
+        <v>16.86842105263158</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_leading_to_goal_per_match</t>
+          <t>count_dangerous_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.01747899159663865</v>
+        <v>0.140663184192596</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0156396503455327</v>
+        <v>0.1404923921951786</v>
       </c>
       <c r="D111" t="n">
-        <v>0.09965801236692483</v>
+        <v>0.12</v>
       </c>
       <c r="E111" t="n">
-        <v>0.01595975094310524</v>
+        <v>0.1032875068513947</v>
       </c>
       <c r="F111" t="n">
-        <v>0.02143483774581696</v>
+        <v>0.06516509806774992</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="I111" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="J111" t="n">
-        <v>0.05882352941176471</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="inlineStr">
-        <is>
-          <t>count_dangerous_pulling_half_space_runs_targeted_per_match</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>0.1266636384283443</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0.1306449407068602</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0.09941148629391328</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0.03407824047120905</v>
-      </c>
-      <c r="F112" t="n">
-        <v>0.06462692066164011</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0.08823529411764706</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0.05263157894736842</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0.1764705882352941</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0.2777777777777778</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="inlineStr">
-        <is>
-          <t>count_overlap_runs_received_per_match</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>3.369311832841245</v>
-      </c>
-      <c r="C113" t="n">
-        <v>3.243879816449476</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.09905624065189755</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0.9116439938075028</v>
-      </c>
-      <c r="F113" t="n">
-        <v>0.8132765674554925</v>
-      </c>
-      <c r="G113" t="n">
-        <v>2.441176470588236</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1.866666666666667</v>
-      </c>
-      <c r="I113" t="n">
-        <v>4.567567567567568</v>
-      </c>
-      <c r="J113" t="n">
-        <v>5.416666666666667</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="inlineStr">
-        <is>
-          <t>runs_ahead_of_the_ball_targeted_threat_per_match</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>0.2214660458778106</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.2161462300666635</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.06840987622613309</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0.02332306685771477</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0.03102553455050423</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0.1882352941176471</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0.1427272727272727</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0.2442857142857143</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0.2539473684210526</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="inlineStr">
-        <is>
-          <t>count_dangerous_runs_ahead_of_the_ball_per_match</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>11.38725868725869</v>
-      </c>
-      <c r="C115" t="n">
-        <v>11.11787895490682</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.06473539571925589</v>
-      </c>
-      <c r="E115" t="n">
-        <v>1.720617622348265</v>
-      </c>
-      <c r="F115" t="n">
-        <v>1.585738002965896</v>
-      </c>
-      <c r="G115" t="n">
-        <v>8.882352941176471</v>
-      </c>
-      <c r="H115" t="n">
-        <v>8.333333333333334</v>
-      </c>
-      <c r="I115" t="n">
-        <v>13.14705882352941</v>
-      </c>
-      <c r="J115" t="n">
-        <v>13.35294117647059</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="inlineStr">
-        <is>
-          <t>count_dangerous_coming_short_runs_received_per_match</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>0.03321826027708381</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.0349365283421011</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.06117752903214982</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0.04430428137680489</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0.02596764344927216</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0.1081081081081081</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0.07894736842105263</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="inlineStr">
-        <is>
-          <t>count_runs_in_behind_leading_to_goal_per_match</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>0.1914830797183738</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.1803966082603854</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0.06044668922243692</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0.09395303309557985</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0.09833298823033293</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="inlineStr">
-        <is>
-          <t>runs_ahead_of_the_ball_threat_per_match</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>0.7606445605269136</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.7559838735241213</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.04118096215821435</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.09844403691900214</v>
-      </c>
-      <c r="F118" t="n">
-        <v>0.08810505861464672</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0.5935294117647059</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0.5757575757575758</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0.8476470588235294</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0.8814705882352941</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="inlineStr">
-        <is>
-          <t>count_cross_receiver_runs_leading_to_goal_per_match</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>0.2191551215080627</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0.2153270608069369</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.01749094599612132</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0.07238663638389523</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0.1181090748514684</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.1470588235294118</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0.3235294117647059</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0.4473684210526316</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="inlineStr">
-        <is>
-          <t>count_dangerous_pulling_wide_runs_targeted_per_match</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>0.005714285714285714</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.005928785928785929</v>
-      </c>
-      <c r="D120" t="n">
-        <v>1.480297366166875e-17</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0.0127775312999988</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0.01233647406445749</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0.03333333333333333</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="inlineStr">
-        <is>
-          <t>count_dangerous_coming_short_runs_per_match</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>0.140663184192596</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0.1404923921951786</v>
-      </c>
-      <c r="D121" t="n">
-        <v>7.401486830834377e-18</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0.1032875068513947</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0.06516509806774992</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0.08823529411764706</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0.0303030303030303</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0.3243243243243243</v>
-      </c>
-      <c r="J121" t="n">
         <v>0.2571428571428571</v>
       </c>
     </row>

--- a/Tableau métriques/moyenne/2022_2023/Skill Corner/moyenne_running.xlsx
+++ b/Tableau métriques/moyenne/2022_2023/Skill Corner/moyenne_running.xlsx
@@ -487,19 +487,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02769001937302454</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01305468147573411</v>
+        <v>0.01252366250155833</v>
       </c>
       <c r="D2" t="n">
-        <v>125.3</v>
+        <v>121.1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02751921268080819</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01846896155600711</v>
+        <v>0.01760929363114253</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -508,10 +508,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05528975905399131</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.05712411528047374</v>
       </c>
     </row>
     <row r="3">
@@ -521,19 +521,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01176470588235294</v>
+        <v>0.01137896533096724</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005773420479302832</v>
+        <v>0.00549437481276523</v>
       </c>
       <c r="D3" t="n">
-        <v>103.77</v>
+        <v>107.1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01610948698544606</v>
+        <v>0.01560176369323259</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01632663640948621</v>
+        <v>0.01552651107658803</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02957739813544082</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05589914485245999</v>
       </c>
     </row>
     <row r="4">
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0057703081232493</v>
+        <v>0.005498597183629306</v>
       </c>
       <c r="D4" t="n">
         <v>-100</v>
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01194708011781278</v>
+        <v>0.01139793735566171</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02925832106651132</v>
       </c>
     </row>
     <row r="5">
@@ -589,19 +589,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.005882352941176471</v>
+        <v>0.005445614646525153</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01860008172701671</v>
+        <v>0.01789433902107879</v>
       </c>
       <c r="D5" t="n">
-        <v>-68.37</v>
+        <v>-69.56999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01315334104411641</v>
+        <v>0.01217676452889873</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02249733262912574</v>
+        <v>0.02152603738494325</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -610,32 +610,32 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02722807323262577</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.0530414395663656</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_dropping_off_runs_received_per_match</t>
+          <t>count_coming_short_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.005882352941176471</v>
+        <v>0.01049492162912188</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003812636165577342</v>
+        <v>0.02242198896331433</v>
       </c>
       <c r="D6" t="n">
-        <v>54.29</v>
+        <v>-53.19</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01315334104411641</v>
+        <v>0.01438723762942291</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01006625878658774</v>
+        <v>0.02297117357823422</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -644,32 +644,32 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02721071981424149</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.07513509446091121</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_leading_to_goal_per_match</t>
+          <t>count_dangerous_dropping_off_runs_received_per_match</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01128775834658188</v>
+        <v>0.005463485703879075</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0228463794098469</v>
+        <v>0.003675802828230366</v>
       </c>
       <c r="D7" t="n">
-        <v>-50.59</v>
+        <v>48.63</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01547937862593079</v>
+        <v>0.0122167254279719</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0242329210677283</v>
+        <v>0.009708565510277068</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -678,214 +678,214 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02731742851939537</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.02862056508443703</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>dropping_off_runs_received_threat_per_match</t>
+          <t>count_support_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.002835793776970247</v>
+        <v>0.05017389764857431</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00196756960007734</v>
+        <v>0.08740224260260973</v>
       </c>
       <c r="D8" t="n">
-        <v>44.13</v>
+        <v>-42.59</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001794011693204707</v>
+        <v>0.04203533052109559</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0008587215842305649</v>
+        <v>0.03627840570075577</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001428571428571429</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0005714285714285715</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.005882352941176471</v>
+        <v>0.113323708422624</v>
       </c>
       <c r="J8" t="n">
-        <v>0.003243243243243244</v>
+        <v>0.1477101486741461</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_leading_to_shot_per_match</t>
+          <t>dropping_off_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2486213945037475</v>
+        <v>0.002666588348625911</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1742635220963394</v>
+        <v>0.001886306927024645</v>
       </c>
       <c r="D9" t="n">
-        <v>42.67</v>
+        <v>41.37</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1052869417151723</v>
+        <v>0.001686164434352541</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1151600692319571</v>
+        <v>0.0008219054782718297</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.001389337886536505</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.0005455767927752043</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.005539396275385014</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.00308006078832342</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_leading_to_shot_per_match</t>
+          <t>count_underlap_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1597410856234386</v>
+        <v>0.2344285376299985</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1122707951810119</v>
+        <v>0.1666895119018189</v>
       </c>
       <c r="D10" t="n">
-        <v>42.28</v>
+        <v>40.64</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04878862681526781</v>
+        <v>0.09977812311105753</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06437350688154378</v>
+        <v>0.1088523300654939</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.08077024042155398</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.03121098626716604</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2432432432432433</v>
+        <v>0.3332035613835733</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2058823529411765</v>
+        <v>0.3986099443367876</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_received_per_match</t>
+          <t>count_pulling_half_space_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.282289348171701</v>
+        <v>0.1509871544701869</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9033813351770009</v>
+        <v>0.1079194644861849</v>
       </c>
       <c r="D11" t="n">
-        <v>41.94</v>
+        <v>39.91</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2874572114042568</v>
+        <v>0.04445516593263612</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3731612432364002</v>
+        <v>0.06260139868773804</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0.1091142017901716</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.764705882352941</v>
+        <v>0.2268787908377788</v>
       </c>
       <c r="J11" t="n">
-        <v>1.628571428571429</v>
+        <v>0.1970915987961524</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_leading_to_shot_per_match</t>
+          <t>count_underlap_runs_received_per_match</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2413081989552578</v>
+        <v>1.208449759899064</v>
       </c>
       <c r="C12" t="n">
-        <v>0.170345028394564</v>
+        <v>0.8699016749401306</v>
       </c>
       <c r="D12" t="n">
-        <v>41.66</v>
+        <v>38.92</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1140057362935018</v>
+        <v>0.2677888885951721</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08830685873272019</v>
+        <v>0.3443747021015954</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.9521334841693817</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.3185692517526336</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3823529411764706</v>
+        <v>1.661043214719462</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3142857142857143</v>
+        <v>1.534118292516617</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_leading_to_goal_per_match</t>
+          <t>count_pulling_wide_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.05277310924369748</v>
+        <v>0.2278577179877673</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08901583260716389</v>
+        <v>0.1643417149250941</v>
       </c>
       <c r="D13" t="n">
-        <v>-40.71</v>
+        <v>38.65</v>
       </c>
       <c r="E13" t="n">
-        <v>0.04373947561733162</v>
+        <v>0.1071275284428076</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03707964950028693</v>
+        <v>0.08615520660942615</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.07976360907484689</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.027805239742956</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.3595986153546988</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.3052712053000255</v>
       </c>
     </row>
     <row r="14">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.005714285714285714</v>
+        <v>0.005280140803754767</v>
       </c>
       <c r="C14" t="n">
-        <v>0.004126984126984127</v>
+        <v>0.003856135912793977</v>
       </c>
       <c r="D14" t="n">
-        <v>38.46</v>
+        <v>36.93</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0127775312999988</v>
+        <v>0.01180675376796604</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01092819966860858</v>
+        <v>0.0102030460699807</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.02640070401877383</v>
       </c>
       <c r="J14" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.03087372645878357</v>
       </c>
     </row>
     <row r="15">
@@ -929,19 +929,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02302521008403361</v>
+        <v>0.02161256847448662</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0355432739643266</v>
+        <v>0.03335211964314262</v>
       </c>
       <c r="D15" t="n">
-        <v>-35.22</v>
+        <v>-35.2</v>
       </c>
       <c r="E15" t="n">
-        <v>0.03728669059314253</v>
+        <v>0.03500292787357966</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04174717388052308</v>
+        <v>0.03905983271631639</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.08046574043609778</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1331282233772289</v>
       </c>
     </row>
     <row r="16">
@@ -963,65 +963,65 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.00312514194867136</v>
+        <v>0.00294526067478036</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002315333402639904</v>
+        <v>0.002217191289321507</v>
       </c>
       <c r="D16" t="n">
-        <v>34.98</v>
+        <v>32.84</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001857166063183987</v>
+        <v>0.001747707597975145</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0008491477482143878</v>
+        <v>0.0008114996436101721</v>
       </c>
       <c r="G16" t="n">
-        <v>0.001428571428571429</v>
+        <v>0.001389337886536505</v>
       </c>
       <c r="H16" t="n">
-        <v>0.001081081081081081</v>
+        <v>0.001137240697771507</v>
       </c>
       <c r="I16" t="n">
-        <v>0.005882352941176471</v>
+        <v>0.005539396275385014</v>
       </c>
       <c r="J16" t="n">
-        <v>0.003636363636363637</v>
+        <v>0.003618154525881063</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>underlap_runs_received_threat_per_match</t>
+          <t>count_dangerous_coming_short_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02211428571428571</v>
+        <v>0.03628168856575327</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01716833263241932</v>
+        <v>0.05063755460776275</v>
       </c>
       <c r="D17" t="n">
-        <v>28.81</v>
+        <v>-28.35</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004911405626974961</v>
+        <v>0.05217427771588727</v>
       </c>
       <c r="F17" t="n">
-        <v>0.008148875782859477</v>
+        <v>0.03251786561823274</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01735294117647059</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.03029411764705883</v>
+        <v>0.1262954050558266</v>
       </c>
       <c r="J17" t="n">
-        <v>0.03210526315789473</v>
+        <v>0.1291941498364644</v>
       </c>
     </row>
     <row r="18">
@@ -1031,65 +1031,65 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01053863275039746</v>
+        <v>0.009972684588664396</v>
       </c>
       <c r="C18" t="n">
-        <v>0.008200076035989348</v>
+        <v>0.007848872099083947</v>
       </c>
       <c r="D18" t="n">
-        <v>28.52</v>
+        <v>27.06</v>
       </c>
       <c r="E18" t="n">
-        <v>0.003873515088173755</v>
+        <v>0.003598954986098368</v>
       </c>
       <c r="F18" t="n">
-        <v>0.002828003723619227</v>
+        <v>0.002669479502531965</v>
       </c>
       <c r="G18" t="n">
-        <v>0.006000000000000001</v>
+        <v>0.005819112639516728</v>
       </c>
       <c r="H18" t="n">
-        <v>0.003243243243243243</v>
+        <v>0.003158785720538958</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01647058823529412</v>
+        <v>0.01550589561244296</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01324324324324324</v>
+        <v>0.01263842588039146</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_coming_short_runs_targeted_per_match</t>
+          <t>count_dangerous_overlap_runs_received_per_match</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.03862366568248922</v>
+        <v>0.5468572885316091</v>
       </c>
       <c r="C19" t="n">
-        <v>0.05395540971392365</v>
+        <v>0.4315648047587116</v>
       </c>
       <c r="D19" t="n">
-        <v>-28.42</v>
+        <v>26.71</v>
       </c>
       <c r="E19" t="n">
-        <v>0.05586578878874394</v>
+        <v>0.2942558371321773</v>
       </c>
       <c r="F19" t="n">
-        <v>0.03443169364792669</v>
+        <v>0.1036951018346623</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.250743556734477</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.2298713942220491</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1351351351351351</v>
+        <v>1.013564474884296</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1351351351351351</v>
+        <v>0.5894036864279746</v>
       </c>
     </row>
     <row r="20">
@@ -1099,65 +1099,65 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.019495798319328</v>
+        <v>1.910383962307654</v>
       </c>
       <c r="C20" t="n">
-        <v>1.578079876748608</v>
+        <v>1.511439730275394</v>
       </c>
       <c r="D20" t="n">
-        <v>27.97</v>
+        <v>26.39</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6767882233554676</v>
+        <v>0.6470964413769447</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3391328849400838</v>
+        <v>0.3125964251485928</v>
       </c>
       <c r="G20" t="n">
-        <v>1.411764705882353</v>
+        <v>1.347651667994059</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9696969696969697</v>
+        <v>0.9111970926963665</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2.861549459546477</v>
       </c>
       <c r="J20" t="n">
-        <v>2.205882352941177</v>
+        <v>2.115374133588056</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_overlap_runs_received_per_match</t>
+          <t>underlap_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5738087667499432</v>
+        <v>0.02088302278590875</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4510401652506915</v>
+        <v>0.01653401206570746</v>
       </c>
       <c r="D21" t="n">
-        <v>27.22</v>
+        <v>26.3</v>
       </c>
       <c r="E21" t="n">
-        <v>0.293274209824726</v>
+        <v>0.004580658412729944</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1056177066434502</v>
+        <v>0.007497984724970141</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2647058823529412</v>
+        <v>0.01653269943775891</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2424242424242424</v>
+        <v>0.00563524775587181</v>
       </c>
       <c r="I21" t="n">
-        <v>1.027027027027027</v>
+        <v>0.02850833885326284</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.03076654465914628</v>
       </c>
     </row>
     <row r="22">
@@ -1167,167 +1167,167 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.7629343629343628</v>
+        <v>0.7244840139357109</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6029781435973385</v>
+        <v>0.5770723441256208</v>
       </c>
       <c r="D22" t="n">
-        <v>26.53</v>
+        <v>25.54</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3049076767895035</v>
+        <v>0.3044070808992645</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1540741507985022</v>
+        <v>0.1496644470112355</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4411764705882353</v>
+        <v>0.4194854590846135</v>
       </c>
       <c r="H22" t="n">
-        <v>0.303030303030303</v>
+        <v>0.2853259302805511</v>
       </c>
       <c r="I22" t="n">
-        <v>1.243243243243243</v>
+        <v>1.215378836531381</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.8692741207143564</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_targeted_per_match</t>
+          <t>count_runs_ahead_of_the_ball_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.844960254372019</v>
+        <v>0.1188038756304113</v>
       </c>
       <c r="C23" t="n">
-        <v>1.459206016357719</v>
+        <v>0.1589608463757547</v>
       </c>
       <c r="D23" t="n">
-        <v>26.44</v>
+        <v>-25.26</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4210158209238694</v>
+        <v>0.06745665071366566</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5423025918077695</v>
+        <v>0.08496633216812889</v>
       </c>
       <c r="G23" t="n">
-        <v>1.441176470588235</v>
+        <v>0.05509967299579636</v>
       </c>
       <c r="H23" t="n">
-        <v>0.631578947368421</v>
+        <v>0.05793848564324854</v>
       </c>
       <c r="I23" t="n">
-        <v>2.529411764705882</v>
+        <v>0.2224687000437143</v>
       </c>
       <c r="J23" t="n">
-        <v>2.4</v>
+        <v>0.3208138736137173</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_leading_to_shot_per_match</t>
+          <t>count_underlap_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1447876447876448</v>
+        <v>1.738685926660329</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1152578645148305</v>
+        <v>1.403447779809248</v>
       </c>
       <c r="D24" t="n">
-        <v>25.62</v>
+        <v>23.89</v>
       </c>
       <c r="E24" t="n">
-        <v>0.08190890494267634</v>
+        <v>0.3898244211770124</v>
       </c>
       <c r="F24" t="n">
-        <v>0.05554121807102219</v>
+        <v>0.5055772628856152</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05882352941176471</v>
+        <v>1.371514702628258</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.5959172001939947</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2647058823529412</v>
+        <v>2.374844954089112</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2352941176470588</v>
+        <v>2.292311416354662</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_leading_to_goal_per_match</t>
+          <t>pulling_wide_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1215943674767204</v>
+        <v>0.05002568588956773</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1631717013141162</v>
+        <v>0.04049756339665233</v>
       </c>
       <c r="D25" t="n">
-        <v>-25.48</v>
+        <v>23.53</v>
       </c>
       <c r="E25" t="n">
-        <v>0.07149293053178021</v>
+        <v>0.01208152060220526</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08685293004724939</v>
+        <v>0.01007891348198547</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.03848084726600516</v>
       </c>
       <c r="H25" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.0268783809694901</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.06389275295372976</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3243243243243243</v>
+        <v>0.06507860918312172</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>pulling_wide_runs_threat_per_match</t>
+          <t>count_dropping_off_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.05300095389507153</v>
+        <v>0.1360375844458032</v>
       </c>
       <c r="C26" t="n">
-        <v>0.04241096380446226</v>
+        <v>0.1106117558495886</v>
       </c>
       <c r="D26" t="n">
-        <v>24.97</v>
+        <v>22.99</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01324893679010998</v>
+        <v>0.07688721328752619</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0109602554231781</v>
+        <v>0.05347928963523948</v>
       </c>
       <c r="G26" t="n">
-        <v>0.04029411764705883</v>
+        <v>0.05465819628053849</v>
       </c>
       <c r="H26" t="n">
-        <v>0.027</v>
+        <v>0.02884934391783707</v>
       </c>
       <c r="I26" t="n">
-        <v>0.06823529411764706</v>
+        <v>0.2480205364776384</v>
       </c>
       <c r="J26" t="n">
-        <v>0.06918918918918919</v>
+        <v>0.2253658432778291</v>
       </c>
     </row>
     <row r="27">
@@ -1337,1017 +1337,1017 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01502216670451965</v>
+        <v>0.0141561219549271</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01213050430109254</v>
+        <v>0.0116140125925065</v>
       </c>
       <c r="D27" t="n">
-        <v>23.84</v>
+        <v>21.89</v>
       </c>
       <c r="E27" t="n">
-        <v>0.003257878342118194</v>
+        <v>0.002997120749277291</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003190851450662979</v>
+        <v>0.002944447613879232</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01028571428571429</v>
+        <v>0.009745966655146749</v>
       </c>
       <c r="H27" t="n">
-        <v>0.007272727272727273</v>
+        <v>0.007029600512504191</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01864864864864865</v>
+        <v>0.01748632089970249</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0172972972972973</v>
+        <v>0.01628280423818539</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>underlap_runs_targeted_threat_per_match</t>
+          <t>count_dangerous_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.03500354303883715</v>
+        <v>0.03330442010776923</v>
       </c>
       <c r="C28" t="n">
-        <v>0.02865559912371057</v>
+        <v>0.0276428399348412</v>
       </c>
       <c r="D28" t="n">
-        <v>22.15</v>
+        <v>20.48</v>
       </c>
       <c r="E28" t="n">
-        <v>0.009906303913364707</v>
+        <v>0.02396933233193849</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01211203510397688</v>
+        <v>0.03302328592018258</v>
       </c>
       <c r="G28" t="n">
-        <v>0.02735294117647059</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.01233333333333333</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.05205882352941177</v>
+        <v>0.0587525201847014</v>
       </c>
       <c r="J28" t="n">
-        <v>0.05421052631578947</v>
+        <v>0.1120634330429209</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>pulling_wide_runs_targeted_threat_per_match</t>
+          <t>underlap_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01977774244833069</v>
+        <v>0.03304245104115892</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01624244137587791</v>
+        <v>0.02751411534353377</v>
       </c>
       <c r="D29" t="n">
-        <v>21.77</v>
+        <v>20.09</v>
       </c>
       <c r="E29" t="n">
-        <v>0.004257955696066907</v>
+        <v>0.009225254444759745</v>
       </c>
       <c r="F29" t="n">
-        <v>0.004304861248756499</v>
+        <v>0.01125756418196256</v>
       </c>
       <c r="G29" t="n">
-        <v>0.014</v>
+        <v>0.02607404974758256</v>
       </c>
       <c r="H29" t="n">
-        <v>0.009393939393939394</v>
+        <v>0.01264066469979645</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0245945945945946</v>
+        <v>0.04893387992852501</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0245945945945946</v>
+        <v>0.05194950397477166</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>coming_short_runs_received_threat_per_match</t>
+          <t>pulling_wide_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01881694299341358</v>
+        <v>0.01864098533719086</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0155061816068008</v>
+        <v>0.01555361632795356</v>
       </c>
       <c r="D30" t="n">
-        <v>21.35</v>
+        <v>19.85</v>
       </c>
       <c r="E30" t="n">
-        <v>0.004094633680388263</v>
+        <v>0.003911464943316614</v>
       </c>
       <c r="F30" t="n">
-        <v>0.005067497852992307</v>
+        <v>0.003950278107811228</v>
       </c>
       <c r="G30" t="n">
-        <v>0.015</v>
+        <v>0.01323453752652344</v>
       </c>
       <c r="H30" t="n">
-        <v>0.008947368421052633</v>
+        <v>0.009091856813179346</v>
       </c>
       <c r="I30" t="n">
-        <v>0.02513513513513514</v>
+        <v>0.02305738298992284</v>
       </c>
       <c r="J30" t="n">
-        <v>0.02555555555555556</v>
+        <v>0.0231701846833156</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_dropping_off_runs_per_match</t>
+          <t>coming_short_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.03512605042016807</v>
+        <v>0.01778706978715441</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02900239389403476</v>
+        <v>0.0149455535089739</v>
       </c>
       <c r="D31" t="n">
-        <v>21.11</v>
+        <v>19.01</v>
       </c>
       <c r="E31" t="n">
-        <v>0.02466068008003318</v>
+        <v>0.003708773133031177</v>
       </c>
       <c r="F31" t="n">
-        <v>0.03476469466326691</v>
+        <v>0.005058610925949855</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.01421548645414093</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.008468220863168431</v>
       </c>
       <c r="I31" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.02351000702569468</v>
       </c>
       <c r="J31" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.02469034904686544</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_received_per_match</t>
+          <t>count_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5.267254144901203</v>
+        <v>4.747174985418675</v>
       </c>
       <c r="C32" t="n">
-        <v>4.366864156585518</v>
+        <v>4.042097973235183</v>
       </c>
       <c r="D32" t="n">
-        <v>20.62</v>
+        <v>17.44</v>
       </c>
       <c r="E32" t="n">
-        <v>1.647830662075578</v>
+        <v>1.230192151394218</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9844801859043973</v>
+        <v>1.028751715854412</v>
       </c>
       <c r="G32" t="n">
-        <v>3.264705882352941</v>
+        <v>3.379502531058231</v>
       </c>
       <c r="H32" t="n">
-        <v>2.424242424242424</v>
+        <v>2.058598927930185</v>
       </c>
       <c r="I32" t="n">
-        <v>7.676470588235294</v>
+        <v>6.082721889134036</v>
       </c>
       <c r="J32" t="n">
-        <v>5.864864864864865</v>
+        <v>5.910152025013828</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_targeted_per_match</t>
+          <t>count_dropping_off_runs_received_per_match</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5.440163524869407</v>
+        <v>4.982187715458941</v>
       </c>
       <c r="C33" t="n">
-        <v>4.536415650099861</v>
+        <v>4.251340197427579</v>
       </c>
       <c r="D33" t="n">
-        <v>19.92</v>
+        <v>17.19</v>
       </c>
       <c r="E33" t="n">
-        <v>1.646713685845159</v>
+        <v>1.545633738269943</v>
       </c>
       <c r="F33" t="n">
-        <v>1.00544720084903</v>
+        <v>0.9078764048508294</v>
       </c>
       <c r="G33" t="n">
-        <v>3.441176470588236</v>
+        <v>3.093833193602439</v>
       </c>
       <c r="H33" t="n">
-        <v>2.606060606060606</v>
+        <v>2.346390103173717</v>
       </c>
       <c r="I33" t="n">
-        <v>7.852941176470588</v>
+        <v>7.227852654218057</v>
       </c>
       <c r="J33" t="n">
-        <v>6.054054054054054</v>
+        <v>5.660923187685812</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_per_match</t>
+          <t>underlap_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5.03464001816943</v>
+        <v>0.09365576075060385</v>
       </c>
       <c r="C34" t="n">
-        <v>4.210339844085974</v>
+        <v>0.08009402935293225</v>
       </c>
       <c r="D34" t="n">
-        <v>19.58</v>
+        <v>16.93</v>
       </c>
       <c r="E34" t="n">
-        <v>1.324652689731996</v>
+        <v>0.01781004550504102</v>
       </c>
       <c r="F34" t="n">
-        <v>1.106251376768684</v>
+        <v>0.02120323278698528</v>
       </c>
       <c r="G34" t="n">
-        <v>3.558823529411764</v>
+        <v>0.07043871141722924</v>
       </c>
       <c r="H34" t="n">
-        <v>2.184210526315789</v>
+        <v>0.04354383113253902</v>
       </c>
       <c r="I34" t="n">
-        <v>6.470588235294118</v>
+        <v>0.1123285040916038</v>
       </c>
       <c r="J34" t="n">
-        <v>6.210526315789473</v>
+        <v>0.1224789325918473</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>underlap_runs_threat_per_match</t>
+          <t>count_dropping_off_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.09907158755394049</v>
+        <v>5.144213553896612</v>
       </c>
       <c r="C35" t="n">
-        <v>0.08326552503611326</v>
+        <v>4.413943061932198</v>
       </c>
       <c r="D35" t="n">
-        <v>18.98</v>
+        <v>16.54</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01926072665186084</v>
+        <v>1.544767780050396</v>
       </c>
       <c r="F35" t="n">
-        <v>0.02311287936022197</v>
+        <v>0.9195069735328452</v>
       </c>
       <c r="G35" t="n">
-        <v>0.07411764705882352</v>
+        <v>3.260436263303359</v>
       </c>
       <c r="H35" t="n">
-        <v>0.04631578947368421</v>
+        <v>2.539831838601986</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1194117647058824</v>
+        <v>7.394864735713973</v>
       </c>
       <c r="J35" t="n">
-        <v>0.1286842105263158</v>
+        <v>5.839951217756985</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>support_runs_received_threat_per_match</t>
+          <t>cross_receiver_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.09550797183738359</v>
+        <v>1.83176838174468</v>
       </c>
       <c r="C36" t="n">
-        <v>0.08101203343989721</v>
+        <v>1.576165296967013</v>
       </c>
       <c r="D36" t="n">
-        <v>17.89</v>
+        <v>16.22</v>
       </c>
       <c r="E36" t="n">
-        <v>0.006948291942969022</v>
+        <v>0.2099841269529641</v>
       </c>
       <c r="F36" t="n">
-        <v>0.01622784333167735</v>
+        <v>0.2997120353132746</v>
       </c>
       <c r="G36" t="n">
-        <v>0.08742857142857142</v>
+        <v>1.593140543380372</v>
       </c>
       <c r="H36" t="n">
-        <v>0.05545454545454546</v>
+        <v>1.221320062240568</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1054054054054054</v>
+        <v>2.142631750392004</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1118918918918919</v>
+        <v>2.10888047855736</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_support_runs_received_per_match</t>
+          <t>support_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.225064728594141</v>
+        <v>0.09028927583393308</v>
       </c>
       <c r="C37" t="n">
-        <v>1.039528233553001</v>
+        <v>0.07789774785452661</v>
       </c>
       <c r="D37" t="n">
-        <v>17.85</v>
+        <v>15.91</v>
       </c>
       <c r="E37" t="n">
-        <v>0.06669332249841392</v>
+        <v>0.006043327561722079</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3027036093979674</v>
+        <v>0.01576422597176341</v>
       </c>
       <c r="G37" t="n">
-        <v>1.171428571428571</v>
+        <v>0.08300050960947312</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.05367714549024658</v>
       </c>
       <c r="I37" t="n">
-        <v>1.323529411764706</v>
+        <v>0.09921955296395972</v>
       </c>
       <c r="J37" t="n">
-        <v>1.594594594594595</v>
+        <v>0.1111324192930615</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>cross_receiver_runs_threat_per_match</t>
+          <t>count_dangerous_support_runs_received_per_match</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.933697842380196</v>
+        <v>1.15764356968475</v>
       </c>
       <c r="C38" t="n">
-        <v>1.641328133714512</v>
+        <v>1.00126925848676</v>
       </c>
       <c r="D38" t="n">
-        <v>17.81</v>
+        <v>15.62</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2162733862392378</v>
+        <v>0.06438003328085173</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3201385495565845</v>
+        <v>0.2997563853312157</v>
       </c>
       <c r="G38" t="n">
-        <v>1.678235294117647</v>
+        <v>1.109704201339782</v>
       </c>
       <c r="H38" t="n">
-        <v>1.267272727272727</v>
+        <v>0.5539190447581552</v>
       </c>
       <c r="I38" t="n">
-        <v>2.25764705882353</v>
+        <v>1.260356609502151</v>
       </c>
       <c r="J38" t="n">
-        <v>2.207631578947368</v>
+        <v>1.616007393750416</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pulling_half_space_runs_per_match</t>
+          <t>count_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.5256643197819668</v>
+        <v>15.64269268188016</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4481022790310716</v>
+        <v>13.63331000364831</v>
       </c>
       <c r="D39" t="n">
-        <v>17.31</v>
+        <v>14.74</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1964053113133244</v>
+        <v>3.664530201810727</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1761406448020426</v>
+        <v>2.565828474641723</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2857142857142857</v>
+        <v>11.93125545665169</v>
       </c>
       <c r="H39" t="n">
-        <v>0.2702702702702703</v>
+        <v>10.03125199111734</v>
       </c>
       <c r="I39" t="n">
-        <v>0.7837837837837838</v>
+        <v>19.798156669993</v>
       </c>
       <c r="J39" t="n">
-        <v>0.8333333333333334</v>
+        <v>20.03947341058666</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_per_match</t>
+          <t>count_pulling_wide_runs_received_per_match</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>13.15358164887577</v>
+        <v>5.762424238770808</v>
       </c>
       <c r="C40" t="n">
-        <v>11.26796543638649</v>
+        <v>5.047185467188311</v>
       </c>
       <c r="D40" t="n">
-        <v>16.73</v>
+        <v>14.17</v>
       </c>
       <c r="E40" t="n">
-        <v>3.299187090186889</v>
+        <v>1.452218337674106</v>
       </c>
       <c r="F40" t="n">
-        <v>1.907114898166378</v>
+        <v>1.067956695018217</v>
       </c>
       <c r="G40" t="n">
-        <v>9.029411764705882</v>
+        <v>3.570134981767033</v>
       </c>
       <c r="H40" t="n">
-        <v>7.515151515151516</v>
+        <v>3.07571589292271</v>
       </c>
       <c r="I40" t="n">
-        <v>17.91176470588235</v>
+        <v>7.053799525897585</v>
       </c>
       <c r="J40" t="n">
-        <v>14.48571428571429</v>
+        <v>7.6061024090623</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_per_match</t>
+          <t>count_dangerous_cross_receiver_runs_received_per_match</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.5298750851692</v>
+        <v>2.094939029639039</v>
       </c>
       <c r="C41" t="n">
-        <v>14.22687936056357</v>
+        <v>1.835614469665264</v>
       </c>
       <c r="D41" t="n">
-        <v>16.19</v>
+        <v>14.13</v>
       </c>
       <c r="E41" t="n">
-        <v>3.983872186272472</v>
+        <v>0.2112054663964298</v>
       </c>
       <c r="F41" t="n">
-        <v>2.842585910498578</v>
+        <v>0.4785342441226482</v>
       </c>
       <c r="G41" t="n">
-        <v>12.54285714285714</v>
+        <v>1.898904080770484</v>
       </c>
       <c r="H41" t="n">
-        <v>10.13333333333333</v>
+        <v>1.08454054083357</v>
       </c>
       <c r="I41" t="n">
-        <v>21.11764705882353</v>
+        <v>2.45367515881237</v>
       </c>
       <c r="J41" t="n">
-        <v>21.2972972972973</v>
+        <v>2.764398309110187</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_received_per_match</t>
+          <t>count_coming_short_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>6.104047240517828</v>
+        <v>0.1876380268857537</v>
       </c>
       <c r="C42" t="n">
-        <v>5.254601749833948</v>
+        <v>0.1644526173864143</v>
       </c>
       <c r="D42" t="n">
-        <v>16.17</v>
+        <v>14.1</v>
       </c>
       <c r="E42" t="n">
-        <v>1.568009288541477</v>
+        <v>0.08179644400384535</v>
       </c>
       <c r="F42" t="n">
-        <v>1.162970445661781</v>
+        <v>0.04679537543416203</v>
       </c>
       <c r="G42" t="n">
-        <v>3.771428571428571</v>
+        <v>0.1109901675266374</v>
       </c>
       <c r="H42" t="n">
-        <v>3.181818181818182</v>
+        <v>0.06265217103062243</v>
       </c>
       <c r="I42" t="n">
-        <v>7.529411764705882</v>
+        <v>0.2768391295277102</v>
       </c>
       <c r="J42" t="n">
-        <v>8.081081081081081</v>
+        <v>0.2225693812936097</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>pulling_half_space_runs_threat_per_match</t>
+          <t>count_runs_in_behind_received_per_match</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.08071414944356121</v>
+        <v>6.234200315574355</v>
       </c>
       <c r="C43" t="n">
-        <v>0.06952424228337541</v>
+        <v>5.470723464037502</v>
       </c>
       <c r="D43" t="n">
-        <v>16.09</v>
+        <v>13.96</v>
       </c>
       <c r="E43" t="n">
-        <v>0.02622143412195011</v>
+        <v>0.9617318592409085</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0158463337713869</v>
+        <v>1.247292630501096</v>
       </c>
       <c r="G43" t="n">
-        <v>0.05400000000000001</v>
+        <v>5.350279147932795</v>
       </c>
       <c r="H43" t="n">
-        <v>0.04763157894736842</v>
+        <v>3.588636915353773</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1148648648648649</v>
+        <v>7.829576837978302</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1016666666666667</v>
+        <v>7.415331008253603</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_cross_receiver_runs_received_per_match</t>
+          <t>pulling_half_space_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.202993413581649</v>
+        <v>0.01491592059396884</v>
       </c>
       <c r="C44" t="n">
-        <v>1.899340618411826</v>
+        <v>0.01310114720608618</v>
       </c>
       <c r="D44" t="n">
-        <v>15.99</v>
+        <v>13.85</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2280269272663426</v>
+        <v>0.001882499461372655</v>
       </c>
       <c r="F44" t="n">
-        <v>0.507588224222779</v>
+        <v>0.003482038455277747</v>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0.01242437453502286</v>
       </c>
       <c r="H44" t="n">
-        <v>1.121212121212121</v>
+        <v>0.006766270290390098</v>
       </c>
       <c r="I44" t="n">
-        <v>2.588235294117647</v>
+        <v>0.01759904346468094</v>
       </c>
       <c r="J44" t="n">
-        <v>2.861111111111111</v>
+        <v>0.02067169724937537</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_leading_to_shot_per_match</t>
+          <t>count_pulling_wide_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.199795593913241</v>
+        <v>6.7369245927642</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1723323025490208</v>
+        <v>5.918045935510211</v>
       </c>
       <c r="D45" t="n">
-        <v>15.94</v>
+        <v>13.84</v>
       </c>
       <c r="E45" t="n">
-        <v>0.08828188920860353</v>
+        <v>1.591717115735222</v>
       </c>
       <c r="F45" t="n">
-        <v>0.05000352092822971</v>
+        <v>1.243276454911405</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1176470588235294</v>
+        <v>4.283748658814123</v>
       </c>
       <c r="H45" t="n">
-        <v>0.06060606060606061</v>
+        <v>3.492341827207502</v>
       </c>
       <c r="I45" t="n">
-        <v>0.2972972972972973</v>
+        <v>8.250259044937902</v>
       </c>
       <c r="J45" t="n">
-        <v>0.2368421052631579</v>
+        <v>9.058695845963724</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>pulling_half_space_runs_received_threat_per_match</t>
+          <t>count_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.01573595275948217</v>
+        <v>12.43672521816509</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01358132677730201</v>
+        <v>10.932566444621</v>
       </c>
       <c r="D46" t="n">
-        <v>15.86</v>
+        <v>13.76</v>
       </c>
       <c r="E46" t="n">
-        <v>0.00195295401117147</v>
+        <v>3.076633237766453</v>
       </c>
       <c r="F46" t="n">
-        <v>0.003517195800661562</v>
+        <v>1.760941410158468</v>
       </c>
       <c r="G46" t="n">
-        <v>0.01323529411764706</v>
+        <v>8.566217521240192</v>
       </c>
       <c r="H46" t="n">
-        <v>0.007105263157894737</v>
+        <v>7.296130187066609</v>
       </c>
       <c r="I46" t="n">
-        <v>0.01852941176470588</v>
+        <v>16.82639813399743</v>
       </c>
       <c r="J46" t="n">
-        <v>0.02117647058823529</v>
+        <v>13.66452523763706</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_targeted_per_match</t>
+          <t>count_dangerous_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>7.119391324097205</v>
+        <v>22.36376382970826</v>
       </c>
       <c r="C47" t="n">
-        <v>6.158386166311863</v>
+        <v>19.81547532090722</v>
       </c>
       <c r="D47" t="n">
-        <v>15.6</v>
+        <v>12.86</v>
       </c>
       <c r="E47" t="n">
-        <v>1.709743739007609</v>
+        <v>2.486911916756037</v>
       </c>
       <c r="F47" t="n">
-        <v>1.355341432245053</v>
+        <v>3.127898783874977</v>
       </c>
       <c r="G47" t="n">
-        <v>4.514285714285714</v>
+        <v>20.33656341524368</v>
       </c>
       <c r="H47" t="n">
-        <v>3.606060606060606</v>
+        <v>15.97345929937693</v>
       </c>
       <c r="I47" t="n">
-        <v>8.72972972972973</v>
+        <v>26.59772167190674</v>
       </c>
       <c r="J47" t="n">
-        <v>9.621621621621621</v>
+        <v>25.03137843885926</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_received_per_match</t>
+          <t>pulling_half_space_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>6.591692028162617</v>
+        <v>0.076043885260194</v>
       </c>
       <c r="C48" t="n">
-        <v>5.720157795606712</v>
+        <v>0.06753275469691832</v>
       </c>
       <c r="D48" t="n">
-        <v>15.24</v>
+        <v>12.6</v>
       </c>
       <c r="E48" t="n">
-        <v>1.061434827120191</v>
+        <v>0.02411134508025837</v>
       </c>
       <c r="F48" t="n">
-        <v>1.337399908735841</v>
+        <v>0.01532160382017762</v>
       </c>
       <c r="G48" t="n">
-        <v>5.628571428571429</v>
+        <v>0.05144954170792503</v>
       </c>
       <c r="H48" t="n">
-        <v>3.6</v>
+        <v>0.0452364702064231</v>
       </c>
       <c r="I48" t="n">
-        <v>8.352941176470589</v>
+        <v>0.1072520049408139</v>
       </c>
       <c r="J48" t="n">
-        <v>7.789473684210527</v>
+        <v>0.09698819107700109</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_cross_receiver_runs_per_match</t>
+          <t>count_runs_in_behind_targeted_per_match</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>23.63631614808085</v>
+        <v>12.80394198848673</v>
       </c>
       <c r="C49" t="n">
-        <v>20.64195828211308</v>
+        <v>11.39788451963951</v>
       </c>
       <c r="D49" t="n">
-        <v>14.51</v>
+        <v>12.34</v>
       </c>
       <c r="E49" t="n">
-        <v>2.664515372094752</v>
+        <v>1.315264983670297</v>
       </c>
       <c r="F49" t="n">
-        <v>3.395903039360439</v>
+        <v>2.210192380948166</v>
       </c>
       <c r="G49" t="n">
-        <v>21.28571428571428</v>
+        <v>11.87095309249914</v>
       </c>
       <c r="H49" t="n">
-        <v>15.36666666666667</v>
+        <v>8.555769810726055</v>
       </c>
       <c r="I49" t="n">
-        <v>28.08823529411765</v>
+        <v>14.86424441958515</v>
       </c>
       <c r="J49" t="n">
-        <v>26.23684210526316</v>
+        <v>15.24044592171525</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_targeted_per_match</t>
+          <t>count_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>13.54401544401544</v>
+        <v>23.02691843492039</v>
       </c>
       <c r="C50" t="n">
-        <v>11.91308101274046</v>
+        <v>20.56781550914021</v>
       </c>
       <c r="D50" t="n">
-        <v>13.69</v>
+        <v>11.96</v>
       </c>
       <c r="E50" t="n">
-        <v>1.446076973805465</v>
+        <v>2.444011552770854</v>
       </c>
       <c r="F50" t="n">
-        <v>2.39745144440049</v>
+        <v>3.329143781554643</v>
       </c>
       <c r="G50" t="n">
-        <v>12.57142857142857</v>
+        <v>21.27923454305461</v>
       </c>
       <c r="H50" t="n">
-        <v>8.633333333333333</v>
+        <v>16.40282320358346</v>
       </c>
       <c r="I50" t="n">
-        <v>15.88235294117647</v>
+        <v>27.26260019186615</v>
       </c>
       <c r="J50" t="n">
-        <v>15.94117647058824</v>
+        <v>26.132589244897</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_per_match</t>
+          <t>coming_short_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>24.3328276175335</v>
+        <v>0.06497682862086117</v>
       </c>
       <c r="C51" t="n">
-        <v>21.42363677416309</v>
+        <v>0.05830872876891664</v>
       </c>
       <c r="D51" t="n">
-        <v>13.58</v>
+        <v>11.44</v>
       </c>
       <c r="E51" t="n">
-        <v>2.616511304276901</v>
+        <v>0.01285059289177608</v>
       </c>
       <c r="F51" t="n">
-        <v>3.612867593131247</v>
+        <v>0.01046818645654368</v>
       </c>
       <c r="G51" t="n">
-        <v>22.25714285714286</v>
+        <v>0.05533988365342796</v>
       </c>
       <c r="H51" t="n">
-        <v>15.93333333333333</v>
+        <v>0.03757470466118829</v>
       </c>
       <c r="I51" t="n">
-        <v>28.79411764705882</v>
+        <v>0.08290289183240014</v>
       </c>
       <c r="J51" t="n">
-        <v>27.39473684210526</v>
+        <v>0.07622500100487753</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>coming_short_runs_threat_per_match</t>
+          <t>overlap_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.06880031796502387</v>
+        <v>0.1374145827839113</v>
       </c>
       <c r="C52" t="n">
-        <v>0.06057783296544907</v>
+        <v>0.1235596209137788</v>
       </c>
       <c r="D52" t="n">
-        <v>13.57</v>
+        <v>11.21</v>
       </c>
       <c r="E52" t="n">
-        <v>0.01428719992441168</v>
+        <v>0.03268859150166546</v>
       </c>
       <c r="F52" t="n">
-        <v>0.01088963198847657</v>
+        <v>0.01972176269899258</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05800000000000001</v>
+        <v>0.1012727565487956</v>
       </c>
       <c r="H52" t="n">
-        <v>0.03973684210526316</v>
+        <v>0.09273682071711066</v>
       </c>
       <c r="I52" t="n">
-        <v>0.08864864864864866</v>
+        <v>0.1753476194519207</v>
       </c>
       <c r="J52" t="n">
-        <v>0.07972222222222222</v>
+        <v>0.1743589770099868</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>coming_short_runs_targeted_threat_per_match</t>
+          <t>count_dangerous_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.02099250511015217</v>
+        <v>0.4973318316781435</v>
       </c>
       <c r="C53" t="n">
-        <v>0.01853353653601332</v>
+        <v>0.4473815773880324</v>
       </c>
       <c r="D53" t="n">
-        <v>13.27</v>
+        <v>11.17</v>
       </c>
       <c r="E53" t="n">
-        <v>0.004197425658834357</v>
+        <v>0.1795408351307535</v>
       </c>
       <c r="F53" t="n">
-        <v>0.005787867802975151</v>
+        <v>0.1915450661076668</v>
       </c>
       <c r="G53" t="n">
-        <v>0.01676470588235294</v>
+        <v>0.2804678061005465</v>
       </c>
       <c r="H53" t="n">
-        <v>0.01078947368421053</v>
+        <v>0.2553093218191865</v>
       </c>
       <c r="I53" t="n">
-        <v>0.02756756756756757</v>
+        <v>0.7321108146223195</v>
       </c>
       <c r="J53" t="n">
-        <v>0.02916666666666667</v>
+        <v>0.8633621089746674</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_received_per_match</t>
+          <t>coming_short_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2.300863047921871</v>
+        <v>0.01985048184941446</v>
       </c>
       <c r="C54" t="n">
-        <v>2.037655920968614</v>
+        <v>0.01786260871433121</v>
       </c>
       <c r="D54" t="n">
-        <v>12.92</v>
+        <v>11.13</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2188886379758183</v>
+        <v>0.003789143331716193</v>
       </c>
       <c r="F54" t="n">
-        <v>0.537463809667263</v>
+        <v>0.005761854873367597</v>
       </c>
       <c r="G54" t="n">
-        <v>2.117647058823529</v>
+        <v>0.01589091908780507</v>
       </c>
       <c r="H54" t="n">
-        <v>1.212121212121212</v>
+        <v>0.01020948574926055</v>
       </c>
       <c r="I54" t="n">
-        <v>2.676470588235294</v>
+        <v>0.02579028394456848</v>
       </c>
       <c r="J54" t="n">
-        <v>3.055555555555555</v>
+        <v>0.02806839985310515</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>support_runs_threat_per_match</t>
+          <t>count_cross_receiver_runs_received_per_match</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.4943071542130365</v>
+        <v>2.189330846317515</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4391199932311387</v>
+        <v>1.971060918938876</v>
       </c>
       <c r="D55" t="n">
-        <v>12.57</v>
+        <v>11.07</v>
       </c>
       <c r="E55" t="n">
-        <v>0.07135612900377183</v>
+        <v>0.2053019034307826</v>
       </c>
       <c r="F55" t="n">
-        <v>0.07069584010410122</v>
+        <v>0.5039437982321234</v>
       </c>
       <c r="G55" t="n">
-        <v>0.4029411764705882</v>
+        <v>2.010445692182469</v>
       </c>
       <c r="H55" t="n">
-        <v>0.3326470588235294</v>
+        <v>1.171048943343229</v>
       </c>
       <c r="I55" t="n">
-        <v>0.5745945945945946</v>
+        <v>2.536521140398626</v>
       </c>
       <c r="J55" t="n">
-        <v>0.5655555555555556</v>
+        <v>2.954950846517222</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>overlap_runs_threat_per_match</t>
+          <t>support_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1451175562116739</v>
+        <v>0.4689741281163716</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1292573054780485</v>
+        <v>0.4233356376851268</v>
       </c>
       <c r="D56" t="n">
-        <v>12.27</v>
+        <v>10.78</v>
       </c>
       <c r="E56" t="n">
-        <v>0.03405899082800623</v>
+        <v>0.06783334637053247</v>
       </c>
       <c r="F56" t="n">
-        <v>0.02166429085145441</v>
+        <v>0.06440834807815854</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1064705882352941</v>
+        <v>0.384337035555343</v>
       </c>
       <c r="H56" t="n">
-        <v>0.09000000000000001</v>
+        <v>0.3263614988359756</v>
       </c>
       <c r="I56" t="n">
-        <v>0.1832432432432433</v>
+        <v>0.544407170248292</v>
       </c>
       <c r="J56" t="n">
-        <v>0.1816666666666667</v>
+        <v>0.5397877091365488</v>
       </c>
     </row>
     <row r="57">
@@ -2357,167 +2357,167 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>5.94723597547127</v>
+        <v>5.630210746766608</v>
       </c>
       <c r="C57" t="n">
-        <v>5.304845408312902</v>
+        <v>5.09574361656777</v>
       </c>
       <c r="D57" t="n">
-        <v>12.11</v>
+        <v>10.49</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9680844155553394</v>
+        <v>0.902755295073286</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9682871838062471</v>
+        <v>0.8972585230606955</v>
       </c>
       <c r="G57" t="n">
-        <v>4.942857142857143</v>
+        <v>4.709577989735559</v>
       </c>
       <c r="H57" t="n">
-        <v>3.96969696969697</v>
+        <v>3.836607867904359</v>
       </c>
       <c r="I57" t="n">
-        <v>7.058823529411764</v>
+        <v>6.686627059701481</v>
       </c>
       <c r="J57" t="n">
-        <v>7.194444444444445</v>
+        <v>6.901739388121303</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_leading_to_shot_per_match</t>
+          <t>support_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1.143692936634113</v>
+        <v>0.1149457168554285</v>
       </c>
       <c r="C58" t="n">
-        <v>1.020587877089425</v>
+        <v>0.1042718188873143</v>
       </c>
       <c r="D58" t="n">
-        <v>12.06</v>
+        <v>10.24</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2247395731718137</v>
+        <v>0.008026255091553976</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2775811558658358</v>
+        <v>0.0193651950365758</v>
       </c>
       <c r="G58" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.1094468109065608</v>
       </c>
       <c r="H58" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.07748433660786538</v>
       </c>
       <c r="I58" t="n">
-        <v>1.5</v>
+        <v>0.1288616063284622</v>
       </c>
       <c r="J58" t="n">
-        <v>1.552631578947368</v>
+        <v>0.1390826780344993</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_underlap_runs_per_match</t>
+          <t>count_cross_receiver_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1.629752441517148</v>
+        <v>1.094092416065802</v>
       </c>
       <c r="C59" t="n">
-        <v>1.456470830526558</v>
+        <v>0.9927757145829441</v>
       </c>
       <c r="D59" t="n">
-        <v>11.9</v>
+        <v>10.21</v>
       </c>
       <c r="E59" t="n">
-        <v>0.3124877186678297</v>
+        <v>0.2171875799551835</v>
       </c>
       <c r="F59" t="n">
-        <v>0.4563758417148068</v>
+        <v>0.2589503111391243</v>
       </c>
       <c r="G59" t="n">
-        <v>1.176470588235294</v>
+        <v>0.8363971012027678</v>
       </c>
       <c r="H59" t="n">
-        <v>0.868421052631579</v>
+        <v>0.5910882029764566</v>
       </c>
       <c r="I59" t="n">
-        <v>1.882352941176471</v>
+        <v>1.428065199684525</v>
       </c>
       <c r="J59" t="n">
-        <v>2.447368421052631</v>
+        <v>1.496899579568682</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>cross_receiver_runs_received_threat_per_match</t>
+          <t>count_dangerous_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1639796956620486</v>
+        <v>1.54256903801808</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1465791651689484</v>
+        <v>1.402790287410096</v>
       </c>
       <c r="D60" t="n">
-        <v>11.87</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>0.02045600353822701</v>
+        <v>0.2953237095591141</v>
       </c>
       <c r="F60" t="n">
-        <v>0.04548143429401645</v>
+        <v>0.423220489128728</v>
       </c>
       <c r="G60" t="n">
-        <v>0.136764705882353</v>
+        <v>1.113779187854191</v>
       </c>
       <c r="H60" t="n">
-        <v>0.07866666666666666</v>
+        <v>0.8183555213347858</v>
       </c>
       <c r="I60" t="n">
-        <v>0.1888235294117647</v>
+        <v>1.799412897324985</v>
       </c>
       <c r="J60" t="n">
-        <v>0.2280555555555556</v>
+        <v>2.327770567008699</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>support_runs_targeted_threat_per_match</t>
+          <t>overlap_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1212782648194413</v>
+        <v>0.05585661647632134</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1084716271657448</v>
+        <v>0.05086397353101706</v>
       </c>
       <c r="D61" t="n">
-        <v>11.81</v>
+        <v>9.82</v>
       </c>
       <c r="E61" t="n">
-        <v>0.008724574232945039</v>
+        <v>0.01642504436672879</v>
       </c>
       <c r="F61" t="n">
-        <v>0.02014085545014307</v>
+        <v>0.009830977181614979</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1147058823529412</v>
+        <v>0.03849466879588755</v>
       </c>
       <c r="H61" t="n">
-        <v>0.08030303030303031</v>
+        <v>0.03387649693282355</v>
       </c>
       <c r="I61" t="n">
-        <v>0.1359459459459459</v>
+        <v>0.07841485060960739</v>
       </c>
       <c r="J61" t="n">
-        <v>0.1410810810810811</v>
+        <v>0.07494892447142643</v>
       </c>
     </row>
     <row r="62">
@@ -2527,19 +2527,19 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01747899159663865</v>
+        <v>0.01693563913082301</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0156396503455327</v>
+        <v>0.01542975477343684</v>
       </c>
       <c r="D62" t="n">
-        <v>11.76</v>
+        <v>9.76</v>
       </c>
       <c r="E62" t="n">
-        <v>0.01595975094310524</v>
+        <v>0.01554833381326185</v>
       </c>
       <c r="F62" t="n">
-        <v>0.02143483774581696</v>
+        <v>0.02107691394698044</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -2548,78 +2548,78 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.03080446897545021</v>
       </c>
       <c r="J62" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05563780486252901</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>overlap_runs_targeted_threat_per_match</t>
+          <t>cross_receiver_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.05912600499659323</v>
+        <v>0.1555613485450285</v>
       </c>
       <c r="C63" t="n">
-        <v>0.05320524284487133</v>
+        <v>0.1420314238860771</v>
       </c>
       <c r="D63" t="n">
-        <v>11.13</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>0.01699218744966589</v>
+        <v>0.01973611384754042</v>
       </c>
       <c r="F63" t="n">
-        <v>0.01068816044352055</v>
+        <v>0.04274563808014833</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04058823529411765</v>
+        <v>0.1295655025197718</v>
       </c>
       <c r="H63" t="n">
-        <v>0.03266666666666666</v>
+        <v>0.09036808634153265</v>
       </c>
       <c r="I63" t="n">
-        <v>0.08162162162162162</v>
+        <v>0.1791758691600291</v>
       </c>
       <c r="J63" t="n">
-        <v>0.07833333333333332</v>
+        <v>0.2218580740211024</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_support_runs_per_match</t>
+          <t>count_overlap_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>7.296697706109471</v>
+        <v>0.04824595387565339</v>
       </c>
       <c r="C64" t="n">
-        <v>6.566912236912239</v>
+        <v>0.05327003446308768</v>
       </c>
       <c r="D64" t="n">
-        <v>11.11</v>
+        <v>-9.43</v>
       </c>
       <c r="E64" t="n">
-        <v>1.17422802562357</v>
+        <v>0.02091289128180243</v>
       </c>
       <c r="F64" t="n">
-        <v>1.335940289545153</v>
+        <v>0.03206292752228918</v>
       </c>
       <c r="G64" t="n">
-        <v>5.735294117647059</v>
+        <v>0.02652844364990118</v>
       </c>
       <c r="H64" t="n">
-        <v>4.411764705882353</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>8.558823529411764</v>
+        <v>0.07563152691523251</v>
       </c>
       <c r="J64" t="n">
-        <v>8.911764705882353</v>
+        <v>0.1105202129640321</v>
       </c>
     </row>
     <row r="65">
@@ -2629,99 +2629,99 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1609521235521236</v>
+        <v>0.1521342001055794</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1452746953016303</v>
+        <v>0.1391210384682773</v>
       </c>
       <c r="D65" t="n">
-        <v>10.79</v>
+        <v>9.35</v>
       </c>
       <c r="E65" t="n">
-        <v>0.03096806171014679</v>
+        <v>0.02993409790014813</v>
       </c>
       <c r="F65" t="n">
-        <v>0.03704793639882926</v>
+        <v>0.03502372035822822</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1220588235294118</v>
+        <v>0.1160884479798959</v>
       </c>
       <c r="H65" t="n">
-        <v>0.08566666666666665</v>
+        <v>0.08633918289738768</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1991176470588235</v>
+        <v>0.1904855807830041</v>
       </c>
       <c r="J65" t="n">
-        <v>0.2135294117647059</v>
+        <v>0.2042723706922048</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_per_match</t>
+          <t>count_dangerous_support_runs_per_match</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>9.780358846241199</v>
+        <v>6.921100213476761</v>
       </c>
       <c r="C66" t="n">
-        <v>8.831131491750687</v>
+        <v>6.329820220193446</v>
       </c>
       <c r="D66" t="n">
-        <v>10.75</v>
+        <v>9.34</v>
       </c>
       <c r="E66" t="n">
-        <v>3.249431817937457</v>
+        <v>1.115927342065968</v>
       </c>
       <c r="F66" t="n">
-        <v>1.813476918035459</v>
+        <v>1.239437041886461</v>
       </c>
       <c r="G66" t="n">
-        <v>6.5</v>
+        <v>5.487586482286936</v>
       </c>
       <c r="H66" t="n">
-        <v>5.868421052631579</v>
+        <v>4.358262169942124</v>
       </c>
       <c r="I66" t="n">
-        <v>14.18918918918919</v>
+        <v>8.130264756760454</v>
       </c>
       <c r="J66" t="n">
-        <v>12.51351351351351</v>
+        <v>8.553342974367789</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_received_per_match</t>
+          <t>count_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2.057438110379287</v>
+        <v>30.5973092561144</v>
       </c>
       <c r="C67" t="n">
-        <v>1.858396806198664</v>
+        <v>28.03306698476286</v>
       </c>
       <c r="D67" t="n">
-        <v>10.71</v>
+        <v>9.15</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3884017829614841</v>
+        <v>4.236160742482096</v>
       </c>
       <c r="F67" t="n">
-        <v>0.4987647253571572</v>
+        <v>5.039614746545453</v>
       </c>
       <c r="G67" t="n">
-        <v>1.5</v>
+        <v>26.05936893634424</v>
       </c>
       <c r="H67" t="n">
-        <v>1.263157894736842</v>
+        <v>21.67726166232588</v>
       </c>
       <c r="I67" t="n">
-        <v>2.45945945945946</v>
+        <v>37.58372704589014</v>
       </c>
       <c r="J67" t="n">
-        <v>2.945945945945946</v>
+        <v>35.77872133700276</v>
       </c>
     </row>
     <row r="68">
@@ -2731,65 +2731,65 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>6.131546672723142</v>
+        <v>5.808981590838298</v>
       </c>
       <c r="C68" t="n">
-        <v>5.542358372203575</v>
+        <v>5.324669731355109</v>
       </c>
       <c r="D68" t="n">
-        <v>10.63</v>
+        <v>9.1</v>
       </c>
       <c r="E68" t="n">
-        <v>0.8891802319947392</v>
+        <v>0.8245437799459622</v>
       </c>
       <c r="F68" t="n">
-        <v>1.017044092739819</v>
+        <v>0.9407782049983107</v>
       </c>
       <c r="G68" t="n">
-        <v>5.235294117647059</v>
+        <v>4.984585196057901</v>
       </c>
       <c r="H68" t="n">
-        <v>4.121212121212121</v>
+        <v>3.981089826515812</v>
       </c>
       <c r="I68" t="n">
-        <v>7.235294117647059</v>
+        <v>6.851873773539887</v>
       </c>
       <c r="J68" t="n">
-        <v>7.527777777777778</v>
+        <v>7.220261351089205</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_per_match</t>
+          <t>count_pulling_half_space_runs_received_per_match</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>32.3626754485578</v>
+        <v>1.946644908781009</v>
       </c>
       <c r="C69" t="n">
-        <v>29.2981493785209</v>
+        <v>1.78866028167792</v>
       </c>
       <c r="D69" t="n">
-        <v>10.46</v>
+        <v>8.83</v>
       </c>
       <c r="E69" t="n">
-        <v>4.683787006506974</v>
+        <v>0.3623374224856787</v>
       </c>
       <c r="F69" t="n">
-        <v>5.485614908024549</v>
+        <v>0.4669432687367154</v>
       </c>
       <c r="G69" t="n">
-        <v>27.41176470588235</v>
+        <v>1.41793299284072</v>
       </c>
       <c r="H69" t="n">
-        <v>21.43333333333333</v>
+        <v>1.202796928653448</v>
       </c>
       <c r="I69" t="n">
-        <v>40.11764705882353</v>
+        <v>2.308801527678555</v>
       </c>
       <c r="J69" t="n">
-        <v>37.52941176470588</v>
+        <v>2.804069227068205</v>
       </c>
     </row>
     <row r="70">
@@ -2799,99 +2799,99 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.4831396774926186</v>
+        <v>0.4569771733460767</v>
       </c>
       <c r="C70" t="n">
-        <v>0.4393842997434328</v>
+        <v>0.4222504575538062</v>
       </c>
       <c r="D70" t="n">
-        <v>9.960000000000001</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>0.06350403301734857</v>
+        <v>0.05952079932313923</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0978036335520875</v>
+        <v>0.09241397817793116</v>
       </c>
       <c r="G70" t="n">
-        <v>0.3926470588235294</v>
+        <v>0.3724644205625216</v>
       </c>
       <c r="H70" t="n">
-        <v>0.2990909090909091</v>
+        <v>0.2887480400898518</v>
       </c>
       <c r="I70" t="n">
-        <v>0.5435135135135135</v>
+        <v>0.5155425179352766</v>
       </c>
       <c r="J70" t="n">
-        <v>0.5989473684210527</v>
+        <v>0.5716660235785657</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_underlap_runs_received_per_match</t>
+          <t>count_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.30007722007722</v>
+        <v>9.226057464224644</v>
       </c>
       <c r="C71" t="n">
-        <v>0.2749701863014556</v>
+        <v>8.536652026136499</v>
       </c>
       <c r="D71" t="n">
-        <v>9.130000000000001</v>
+        <v>8.08</v>
       </c>
       <c r="E71" t="n">
-        <v>0.06302476525880757</v>
+        <v>2.989123549984147</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1496518053537246</v>
+        <v>1.686705593492601</v>
       </c>
       <c r="G71" t="n">
-        <v>0.2432432432432433</v>
+        <v>6.170553284614794</v>
       </c>
       <c r="H71" t="n">
-        <v>0.06666666666666667</v>
+        <v>5.56094043123976</v>
       </c>
       <c r="I71" t="n">
-        <v>0.3823529411764706</v>
+        <v>13.25822434237027</v>
       </c>
       <c r="J71" t="n">
-        <v>0.6052631578947368</v>
+        <v>11.88432166259355</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_support_runs_targeted_per_match</t>
+          <t>overlap_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1.659418578242108</v>
+        <v>0.04268711844545265</v>
       </c>
       <c r="C72" t="n">
-        <v>1.520790283669541</v>
+        <v>0.03961281130282552</v>
       </c>
       <c r="D72" t="n">
-        <v>9.119999999999999</v>
+        <v>7.76</v>
       </c>
       <c r="E72" t="n">
-        <v>0.09578375101524904</v>
+        <v>0.01489369959229019</v>
       </c>
       <c r="F72" t="n">
-        <v>0.3608717684954741</v>
+        <v>0.007721304042886162</v>
       </c>
       <c r="G72" t="n">
-        <v>1.558823529411765</v>
+        <v>0.02562363665948502</v>
       </c>
       <c r="H72" t="n">
-        <v>1.066666666666667</v>
+        <v>0.02685120729774234</v>
       </c>
       <c r="I72" t="n">
-        <v>1.764705882352941</v>
+        <v>0.06251794055164439</v>
       </c>
       <c r="J72" t="n">
-        <v>2.111111111111111</v>
+        <v>0.06010170518741187</v>
       </c>
     </row>
     <row r="73">
@@ -2901,235 +2901,235 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.08041789688848514</v>
+        <v>0.07859939343819095</v>
       </c>
       <c r="C73" t="n">
-        <v>0.08823824910512217</v>
+        <v>0.08508215823917076</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.859999999999999</v>
+        <v>-7.62</v>
       </c>
       <c r="E73" t="n">
-        <v>0.01242006092440807</v>
+        <v>0.01377205463774507</v>
       </c>
       <c r="F73" t="n">
-        <v>0.05867126514706107</v>
+        <v>0.06077483375316468</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05603607541430022</v>
       </c>
       <c r="H73" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02518257365902795</v>
       </c>
       <c r="I73" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.09137770361278495</v>
       </c>
       <c r="J73" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.2505479552121862</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>overlap_runs_received_threat_per_match</t>
+          <t>count_support_runs_received_per_match</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.04508194412900295</v>
+        <v>9.072046376467222</v>
       </c>
       <c r="C74" t="n">
-        <v>0.04142392129172316</v>
+        <v>8.44977389986345</v>
       </c>
       <c r="D74" t="n">
-        <v>8.83</v>
+        <v>7.36</v>
       </c>
       <c r="E74" t="n">
-        <v>0.01528334019127634</v>
+        <v>1.142725368826423</v>
       </c>
       <c r="F74" t="n">
-        <v>0.008375648516888922</v>
+        <v>1.216671633222888</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02705882352941177</v>
+        <v>7.509972760186478</v>
       </c>
       <c r="H74" t="n">
-        <v>0.02633333333333333</v>
+        <v>6.516059601806655</v>
       </c>
       <c r="I74" t="n">
-        <v>0.0645945945945946</v>
+        <v>10.15957209109135</v>
       </c>
       <c r="J74" t="n">
-        <v>0.06305555555555556</v>
+        <v>10.56831044948577</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_received_per_match</t>
+          <t>count_dangerous_support_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>9.573009311832839</v>
+        <v>1.571298919986389</v>
       </c>
       <c r="C75" t="n">
-        <v>8.801126191931145</v>
+        <v>1.464683903298</v>
       </c>
       <c r="D75" t="n">
-        <v>8.77</v>
+        <v>7.28</v>
       </c>
       <c r="E75" t="n">
-        <v>1.262320420025655</v>
+        <v>0.08568870618468326</v>
       </c>
       <c r="F75" t="n">
-        <v>1.353201470721109</v>
+        <v>0.3572342187127142</v>
       </c>
       <c r="G75" t="n">
-        <v>7.885714285714286</v>
+        <v>1.486169289875895</v>
       </c>
       <c r="H75" t="n">
-        <v>6.433333333333334</v>
+        <v>1.047466315128806</v>
       </c>
       <c r="I75" t="n">
-        <v>10.85294117647059</v>
+        <v>1.677779752514053</v>
       </c>
       <c r="J75" t="n">
-        <v>11.1578947368421</v>
+        <v>2.060723344079608</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_ahead_of_the_ball_received_per_match</t>
+          <t>runs_in_behind_threat_per_match</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2.032055416761299</v>
+        <v>0.9243357721401931</v>
       </c>
       <c r="C76" t="n">
-        <v>1.873251689629398</v>
+        <v>0.863959691705018</v>
       </c>
       <c r="D76" t="n">
-        <v>8.48</v>
+        <v>6.99</v>
       </c>
       <c r="E76" t="n">
-        <v>0.5600067637458718</v>
+        <v>0.1732964622864961</v>
       </c>
       <c r="F76" t="n">
-        <v>0.3686157038129935</v>
+        <v>0.1549821345537455</v>
       </c>
       <c r="G76" t="n">
-        <v>1.441176470588235</v>
+        <v>0.7096772957859874</v>
       </c>
       <c r="H76" t="n">
-        <v>1.212121212121212</v>
+        <v>0.690308117287595</v>
       </c>
       <c r="I76" t="n">
-        <v>2.685714285714285</v>
+        <v>1.151938279246457</v>
       </c>
       <c r="J76" t="n">
-        <v>2.352941176470588</v>
+        <v>1.18087449688156</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>runs_in_behind_threat_per_match</t>
+          <t>count_dangerous_underlap_runs_received_per_match</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.9773756075403135</v>
+        <v>0.2840642538933148</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9026613884480758</v>
+        <v>0.2660550294987155</v>
       </c>
       <c r="D77" t="n">
-        <v>8.279999999999999</v>
+        <v>6.77</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1843025851245145</v>
+        <v>0.06037316216662055</v>
       </c>
       <c r="F77" t="n">
-        <v>0.167537293696371</v>
+        <v>0.1381077923284757</v>
       </c>
       <c r="G77" t="n">
-        <v>0.7470588235294118</v>
+        <v>0.228598392410755</v>
       </c>
       <c r="H77" t="n">
-        <v>0.6786666666666666</v>
+        <v>0.09501776178088148</v>
       </c>
       <c r="I77" t="n">
-        <v>1.213714285714286</v>
+        <v>0.3607717829155187</v>
       </c>
       <c r="J77" t="n">
-        <v>1.241470588235294</v>
+        <v>0.5822101690306303</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_underlap_runs_targeted_per_match</t>
+          <t>count_support_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.5359800136270725</v>
+        <v>0.9356358404604709</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4960625649170541</v>
+        <v>1.00164117032888</v>
       </c>
       <c r="D78" t="n">
-        <v>8.050000000000001</v>
+        <v>-6.59</v>
       </c>
       <c r="E78" t="n">
-        <v>0.1427869694884782</v>
+        <v>0.2645303582012015</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2333374290705338</v>
+        <v>0.2033920616801181</v>
       </c>
       <c r="G78" t="n">
-        <v>0.3428571428571429</v>
+        <v>0.7673628051079973</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.5927562581965465</v>
       </c>
       <c r="I78" t="n">
-        <v>0.7352941176470589</v>
+        <v>1.400142099838577</v>
       </c>
       <c r="J78" t="n">
-        <v>1.052631578947368</v>
+        <v>1.372817678558631</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_per_match</t>
+          <t>count_dangerous_underlap_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>22.36934362934363</v>
+        <v>0.5071168938251682</v>
       </c>
       <c r="C79" t="n">
-        <v>20.73403909317222</v>
+        <v>0.4766602227133486</v>
       </c>
       <c r="D79" t="n">
-        <v>7.89</v>
+        <v>6.39</v>
       </c>
       <c r="E79" t="n">
-        <v>4.355589999391016</v>
+        <v>0.1348682438383041</v>
       </c>
       <c r="F79" t="n">
-        <v>3.795990691848278</v>
+        <v>0.2164523233080156</v>
       </c>
       <c r="G79" t="n">
-        <v>17.08823529411765</v>
+        <v>0.3233123151585403</v>
       </c>
       <c r="H79" t="n">
-        <v>13.1578947368421</v>
+        <v>0.2494465927701427</v>
       </c>
       <c r="I79" t="n">
-        <v>27.26470588235294</v>
+        <v>0.6925794539057475</v>
       </c>
       <c r="J79" t="n">
-        <v>28.30555555555556</v>
+        <v>1.009214951839839</v>
       </c>
     </row>
     <row r="80">
@@ -3139,1085 +3139,1085 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.3367260958437429</v>
+        <v>0.3180815463529346</v>
       </c>
       <c r="C80" t="n">
-        <v>0.3124782739274999</v>
+        <v>0.2992999083778061</v>
       </c>
       <c r="D80" t="n">
-        <v>7.76</v>
+        <v>6.28</v>
       </c>
       <c r="E80" t="n">
-        <v>0.05171993661245074</v>
+        <v>0.04974919128273343</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0669803383624709</v>
+        <v>0.06212676421865752</v>
       </c>
       <c r="G80" t="n">
-        <v>0.2814705882352941</v>
+        <v>0.2674483062131352</v>
       </c>
       <c r="H80" t="n">
-        <v>0.223</v>
+        <v>0.2135932783159116</v>
       </c>
       <c r="I80" t="n">
-        <v>0.4014285714285715</v>
+        <v>0.3795710275612836</v>
       </c>
       <c r="J80" t="n">
-        <v>0.4570588235294118</v>
+        <v>0.4360492234964251</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_per_match</t>
+          <t>count_dangerous_runs_ahead_of_the_ball_received_per_match</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>37.44808539632069</v>
+        <v>1.918774802835933</v>
       </c>
       <c r="C81" t="n">
-        <v>34.76193595348395</v>
+        <v>1.806392920256341</v>
       </c>
       <c r="D81" t="n">
-        <v>7.73</v>
+        <v>6.22</v>
       </c>
       <c r="E81" t="n">
-        <v>5.254525586248627</v>
+        <v>0.5364290803318505</v>
       </c>
       <c r="F81" t="n">
-        <v>3.503271187118939</v>
+        <v>0.3282283157284392</v>
       </c>
       <c r="G81" t="n">
-        <v>31.77142857142857</v>
+        <v>1.376766254568558</v>
       </c>
       <c r="H81" t="n">
-        <v>29.38235294117647</v>
+        <v>1.194415229896976</v>
       </c>
       <c r="I81" t="n">
-        <v>43.35135135135135</v>
+        <v>2.547846002774774</v>
       </c>
       <c r="J81" t="n">
-        <v>40.22222222222222</v>
+        <v>2.224655131108416</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>pulling_half_space_runs_targeted_threat_per_match</t>
+          <t>count_support_runs_per_match</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.01987926413808767</v>
+        <v>35.48510943800579</v>
       </c>
       <c r="C82" t="n">
-        <v>0.01852204064061649</v>
+        <v>33.42999771570595</v>
       </c>
       <c r="D82" t="n">
-        <v>7.33</v>
+        <v>6.15</v>
       </c>
       <c r="E82" t="n">
-        <v>0.002301578771532749</v>
+        <v>4.87361364908043</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004698466915296335</v>
+        <v>3.091023178574966</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01764705882352941</v>
+        <v>30.26430668812324</v>
       </c>
       <c r="H82" t="n">
-        <v>0.01066666666666667</v>
+        <v>28.67891535213989</v>
       </c>
       <c r="I82" t="n">
-        <v>0.02352941176470588</v>
+        <v>41.07717462922015</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02702702702702703</v>
+        <v>38.29346392566186</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_leading_to_shot_per_match</t>
+          <t>count_runs_in_behind_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1.469230070406541</v>
+        <v>0.1808042647712257</v>
       </c>
       <c r="C83" t="n">
-        <v>1.376848847963399</v>
+        <v>0.1706734636084017</v>
       </c>
       <c r="D83" t="n">
-        <v>6.71</v>
+        <v>5.94</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2150808549224011</v>
+        <v>0.08929075123274159</v>
       </c>
       <c r="F83" t="n">
-        <v>0.3403765690004406</v>
+        <v>0.09421356117527027</v>
       </c>
       <c r="G83" t="n">
-        <v>1.235294117647059</v>
+        <v>0.05101689032581576</v>
       </c>
       <c r="H83" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.05795257667644149</v>
       </c>
       <c r="I83" t="n">
-        <v>1.771428571428571</v>
+        <v>0.2668825495350537</v>
       </c>
       <c r="J83" t="n">
-        <v>1.823529411764706</v>
+        <v>0.3977240903544262</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_received_per_match</t>
+          <t>count_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>7.165600726777197</v>
+        <v>21.11743400402191</v>
       </c>
       <c r="C84" t="n">
-        <v>6.725914978949034</v>
+        <v>20.01701534990752</v>
       </c>
       <c r="D84" t="n">
-        <v>6.54</v>
+        <v>5.5</v>
       </c>
       <c r="E84" t="n">
-        <v>1.039969670608072</v>
+        <v>3.934831091422609</v>
       </c>
       <c r="F84" t="n">
-        <v>1.484553721368912</v>
+        <v>3.60564129362416</v>
       </c>
       <c r="G84" t="n">
-        <v>5.558823529411764</v>
+        <v>16.24217081592758</v>
       </c>
       <c r="H84" t="n">
-        <v>4.131578947368421</v>
+        <v>12.40100554590085</v>
       </c>
       <c r="I84" t="n">
-        <v>8.054054054054054</v>
+        <v>25.54304227185718</v>
       </c>
       <c r="J84" t="n">
-        <v>10.11111111111111</v>
+        <v>27.00489967654079</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_targeted_per_match</t>
+          <t>pulling_half_space_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>11.20654099477629</v>
+        <v>0.01879819833417477</v>
       </c>
       <c r="C85" t="n">
-        <v>10.5555273974469</v>
+        <v>0.01786163089146396</v>
       </c>
       <c r="D85" t="n">
-        <v>6.17</v>
+        <v>5.24</v>
       </c>
       <c r="E85" t="n">
-        <v>1.308442476589012</v>
+        <v>0.002244182107478014</v>
       </c>
       <c r="F85" t="n">
-        <v>1.473844945780269</v>
+        <v>0.004655629156503669</v>
       </c>
       <c r="G85" t="n">
-        <v>9.428571428571429</v>
+        <v>0.01662393623055165</v>
       </c>
       <c r="H85" t="n">
-        <v>7.8</v>
+        <v>0.01068519687414793</v>
       </c>
       <c r="I85" t="n">
-        <v>12.48648648648649</v>
+        <v>0.02233360650231047</v>
       </c>
       <c r="J85" t="n">
-        <v>13.05263157894737</v>
+        <v>0.02614815038218812</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_leading_to_goal_per_match</t>
+          <t>count_dangerous_runs_in_behind_received_per_match</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.1914830797183738</v>
+        <v>2.524999866936552</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1803966082603854</v>
+        <v>2.402650095909449</v>
       </c>
       <c r="D86" t="n">
-        <v>6.15</v>
+        <v>5.09</v>
       </c>
       <c r="E86" t="n">
-        <v>0.09395303309557985</v>
+        <v>0.4764679058791113</v>
       </c>
       <c r="F86" t="n">
-        <v>0.09833298823033293</v>
+        <v>0.5953403853359936</v>
       </c>
       <c r="G86" t="n">
-        <v>0.05405405405405406</v>
+        <v>1.933793487706074</v>
       </c>
       <c r="H86" t="n">
-        <v>0.06060606060606061</v>
+        <v>1.430984377973487</v>
       </c>
       <c r="I86" t="n">
-        <v>0.2857142857142857</v>
+        <v>3.084452397888688</v>
       </c>
       <c r="J86" t="n">
-        <v>0.4166666666666667</v>
+        <v>3.63178481166219</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_in_behind_per_match</t>
+          <t>count_dangerous_pulling_wide_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>16.40917101975926</v>
+        <v>0.005280140803754767</v>
       </c>
       <c r="C87" t="n">
-        <v>15.46229069204301</v>
+        <v>0.005560056919016129</v>
       </c>
       <c r="D87" t="n">
-        <v>6.12</v>
+        <v>-5.03</v>
       </c>
       <c r="E87" t="n">
-        <v>2.762269858339679</v>
+        <v>0.01180675376796604</v>
       </c>
       <c r="F87" t="n">
-        <v>2.720380189123743</v>
+        <v>0.0115573612441528</v>
       </c>
       <c r="G87" t="n">
-        <v>12.82352941176471</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>12.16666666666667</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>19.65714285714286</v>
+        <v>0.02640070401877383</v>
       </c>
       <c r="J87" t="n">
-        <v>21.32352941176471</v>
+        <v>0.03087372645878357</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_in_behind_received_per_match</t>
+          <t>count_runs_ahead_of_the_ball_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2.664051782875312</v>
+        <v>1.388173976506313</v>
       </c>
       <c r="C88" t="n">
-        <v>2.510394579775384</v>
+        <v>1.322640678119915</v>
       </c>
       <c r="D88" t="n">
-        <v>6.12</v>
+        <v>4.95</v>
       </c>
       <c r="E88" t="n">
-        <v>0.4870330323988936</v>
+        <v>0.2111784105768477</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6306946926585427</v>
+        <v>0.3097532973424976</v>
       </c>
       <c r="G88" t="n">
-        <v>2.029411764705882</v>
+        <v>1.152462876033001</v>
       </c>
       <c r="H88" t="n">
-        <v>1.514285714285714</v>
+        <v>0.8030654090148929</v>
       </c>
       <c r="I88" t="n">
-        <v>3.205882352941177</v>
+        <v>1.685802616284876</v>
       </c>
       <c r="J88" t="n">
-        <v>3.794117647058823</v>
+        <v>1.732728245162805</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>count_overlap_runs_leading_to_goal_per_match</t>
+          <t>count_dangerous_pulling_half_space_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.05134226663638428</v>
+        <v>0.1225206281024083</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0544771388734237</v>
+        <v>0.1287980250652373</v>
       </c>
       <c r="D89" t="n">
-        <v>-5.75</v>
+        <v>-4.87</v>
       </c>
       <c r="E89" t="n">
-        <v>0.02233715319321644</v>
+        <v>0.03381020583939949</v>
       </c>
       <c r="F89" t="n">
-        <v>0.03423108647606065</v>
+        <v>0.06868927426752268</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.0858477078387038</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>0.04994908053586136</v>
       </c>
       <c r="I89" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.1681608137221217</v>
       </c>
       <c r="J89" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.262519707251603</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>count_overlap_runs_targeted_per_match</t>
+          <t>count_support_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>4.286618214853509</v>
+        <v>10.62612635573127</v>
       </c>
       <c r="C90" t="n">
-        <v>4.060504102671286</v>
+        <v>10.13712054968992</v>
       </c>
       <c r="D90" t="n">
-        <v>5.57</v>
+        <v>4.82</v>
       </c>
       <c r="E90" t="n">
-        <v>1.062005644672877</v>
+        <v>1.192943338263535</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9873021360292875</v>
+        <v>1.31326660376286</v>
       </c>
       <c r="G90" t="n">
-        <v>3.085714285714286</v>
+        <v>8.979736848371108</v>
       </c>
       <c r="H90" t="n">
-        <v>2.266666666666667</v>
+        <v>7.959989937000914</v>
       </c>
       <c r="I90" t="n">
-        <v>5.72972972972973</v>
+        <v>11.85537007570145</v>
       </c>
       <c r="J90" t="n">
-        <v>6.5</v>
+        <v>12.36100277625691</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>runs_ahead_of_the_ball_received_threat_per_match</t>
+          <t>count_dangerous_coming_short_runs_received_per_match</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.1572814898932546</v>
+        <v>0.03119408857321508</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1492330166320878</v>
+        <v>0.03277164173566353</v>
       </c>
       <c r="D91" t="n">
-        <v>5.39</v>
+        <v>-4.81</v>
       </c>
       <c r="E91" t="n">
-        <v>0.02558815519676611</v>
+        <v>0.04131209466048441</v>
       </c>
       <c r="F91" t="n">
-        <v>0.02359471456786407</v>
+        <v>0.02443400700582102</v>
       </c>
       <c r="G91" t="n">
-        <v>0.116764705882353</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.1015151515151515</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0.1797142857142857</v>
+        <v>0.1008574050931357</v>
       </c>
       <c r="J91" t="n">
-        <v>0.1844736842105263</v>
+        <v>0.07314511522969881</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_leading_to_shot_per_match</t>
+          <t>count_dangerous_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.9812764024528731</v>
+        <v>15.528632880572</v>
       </c>
       <c r="C92" t="n">
-        <v>1.036352876941112</v>
+        <v>14.81742708799681</v>
       </c>
       <c r="D92" t="n">
-        <v>-5.31</v>
+        <v>4.8</v>
       </c>
       <c r="E92" t="n">
-        <v>0.2569290331104926</v>
+        <v>2.583062758275802</v>
       </c>
       <c r="F92" t="n">
-        <v>0.218460210128559</v>
+        <v>2.51940332562843</v>
       </c>
       <c r="G92" t="n">
-        <v>0.8235294117647058</v>
+        <v>12.1962476287664</v>
       </c>
       <c r="H92" t="n">
-        <v>0.6176470588235294</v>
+        <v>12.20179719455563</v>
       </c>
       <c r="I92" t="n">
-        <v>1.432432432432432</v>
+        <v>18.6575090726791</v>
       </c>
       <c r="J92" t="n">
-        <v>1.447368421052632</v>
+        <v>20.29243987678937</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_ahead_of_the_ball_targeted_per_match</t>
+          <t>count_coming_short_runs_received_per_match</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2.98611855553032</v>
+        <v>6.774165969605346</v>
       </c>
       <c r="C93" t="n">
-        <v>2.840636351038828</v>
+        <v>6.476633574095686</v>
       </c>
       <c r="D93" t="n">
-        <v>5.12</v>
+        <v>4.59</v>
       </c>
       <c r="E93" t="n">
-        <v>0.5035039330622904</v>
+        <v>0.9417004490284701</v>
       </c>
       <c r="F93" t="n">
-        <v>0.4777956415274409</v>
+        <v>1.434746565039997</v>
       </c>
       <c r="G93" t="n">
-        <v>2.558823529411764</v>
+        <v>5.283874404165428</v>
       </c>
       <c r="H93" t="n">
-        <v>1.727272727272727</v>
+        <v>3.893778937841446</v>
       </c>
       <c r="I93" t="n">
-        <v>3.657142857142857</v>
+        <v>7.516590848221795</v>
       </c>
       <c r="J93" t="n">
-        <v>3.444444444444445</v>
+        <v>9.70102260507138</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_in_behind_targeted_per_match</t>
+          <t>count_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>5.654967067908245</v>
+        <v>50.77487258421799</v>
       </c>
       <c r="C94" t="n">
-        <v>5.382131680150256</v>
+        <v>53.16720971799358</v>
       </c>
       <c r="D94" t="n">
-        <v>5.07</v>
+        <v>-4.5</v>
       </c>
       <c r="E94" t="n">
-        <v>0.7758067678307432</v>
+        <v>5.67475229309893</v>
       </c>
       <c r="F94" t="n">
-        <v>1.16846072446463</v>
+        <v>5.330816183104456</v>
       </c>
       <c r="G94" t="n">
-        <v>4.675675675675675</v>
+        <v>42.67643955212576</v>
       </c>
       <c r="H94" t="n">
-        <v>3.542857142857143</v>
+        <v>43.56095728612141</v>
       </c>
       <c r="I94" t="n">
-        <v>6.628571428571429</v>
+        <v>56.40639586918651</v>
       </c>
       <c r="J94" t="n">
-        <v>7.852941176470588</v>
+        <v>62.48092476813824</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_coming_short_runs_received_per_match</t>
+          <t>count_overlap_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.03321826027708381</v>
+        <v>4.038657430806892</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0349365283421011</v>
+        <v>3.877231580549506</v>
       </c>
       <c r="D95" t="n">
-        <v>-4.92</v>
+        <v>4.16</v>
       </c>
       <c r="E95" t="n">
-        <v>0.04430428137680489</v>
+        <v>1.001127483047425</v>
       </c>
       <c r="F95" t="n">
-        <v>0.02596764344927216</v>
+        <v>0.9338162069390955</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>2.908286842629951</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2.225576940243287</v>
       </c>
       <c r="I95" t="n">
-        <v>0.1081081081081081</v>
+        <v>5.416213216877121</v>
       </c>
       <c r="J95" t="n">
-        <v>0.07894736842105263</v>
+        <v>6.19268251689396</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_targeted_per_match</t>
+          <t>count_dangerous_runs_in_behind_targeted_per_match</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>7.745359981830569</v>
+        <v>5.3516984656266</v>
       </c>
       <c r="C96" t="n">
-        <v>7.415314834355082</v>
+        <v>5.153796089803669</v>
       </c>
       <c r="D96" t="n">
-        <v>4.45</v>
+        <v>3.84</v>
       </c>
       <c r="E96" t="n">
-        <v>1.075019158813042</v>
+        <v>0.7637082768774501</v>
       </c>
       <c r="F96" t="n">
-        <v>1.600351367776258</v>
+        <v>1.088453431876718</v>
       </c>
       <c r="G96" t="n">
-        <v>6.058823529411764</v>
+        <v>4.377928951059934</v>
       </c>
       <c r="H96" t="n">
-        <v>4.526315789473684</v>
+        <v>3.34896341308638</v>
       </c>
       <c r="I96" t="n">
-        <v>8.648648648648649</v>
+        <v>6.282073512021145</v>
       </c>
       <c r="J96" t="n">
-        <v>10.80555555555556</v>
+        <v>7.501054970179717</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_targeted_per_match</t>
+          <t>runs_ahead_of_the_ball_received_threat_per_match</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2.431265046559164</v>
+        <v>0.148622244861383</v>
       </c>
       <c r="C97" t="n">
-        <v>2.338355475414299</v>
+        <v>0.1436368441265211</v>
       </c>
       <c r="D97" t="n">
-        <v>3.97</v>
+        <v>3.47</v>
       </c>
       <c r="E97" t="n">
-        <v>0.477303333162449</v>
+        <v>0.02440856416064481</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5846374389431258</v>
+        <v>0.02085406882282198</v>
       </c>
       <c r="G97" t="n">
-        <v>1.735294117647059</v>
+        <v>0.1109472227925198</v>
       </c>
       <c r="H97" t="n">
-        <v>1.533333333333333</v>
+        <v>0.09855319826920583</v>
       </c>
       <c r="I97" t="n">
-        <v>2.852941176470588</v>
+        <v>0.1705822483581542</v>
       </c>
       <c r="J97" t="n">
-        <v>3.702702702702703</v>
+        <v>0.1756736086864429</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>count_overlap_runs_received_per_match</t>
+          <t>count_overlap_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>3.369311832841245</v>
+        <v>0.433608716040314</v>
       </c>
       <c r="C98" t="n">
-        <v>3.243879816449476</v>
+        <v>0.4480882107464263</v>
       </c>
       <c r="D98" t="n">
-        <v>3.87</v>
+        <v>-3.23</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9116439938075028</v>
+        <v>0.07918840397688212</v>
       </c>
       <c r="F98" t="n">
-        <v>0.8132765674554925</v>
+        <v>0.1097217576638321</v>
       </c>
       <c r="G98" t="n">
-        <v>2.441176470588236</v>
+        <v>0.3525002941328</v>
       </c>
       <c r="H98" t="n">
-        <v>1.866666666666667</v>
+        <v>0.2480868523355559</v>
       </c>
       <c r="I98" t="n">
-        <v>4.567567567567568</v>
+        <v>0.5518591298621296</v>
       </c>
       <c r="J98" t="n">
-        <v>5.416666666666667</v>
+        <v>0.5897815155807066</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pulling_wide_runs_targeted_per_match</t>
+          <t>count_runs_ahead_of_the_ball_targeted_per_match</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.005714285714285714</v>
+        <v>17.08672597827528</v>
       </c>
       <c r="C99" t="n">
-        <v>0.005928785928785929</v>
+        <v>17.64489920601032</v>
       </c>
       <c r="D99" t="n">
-        <v>-3.62</v>
+        <v>-3.16</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0127775312999988</v>
+        <v>1.204122719003154</v>
       </c>
       <c r="F99" t="n">
-        <v>0.01233647406445749</v>
+        <v>1.901065421571589</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>15.23623212116495</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>13.08893645390671</v>
       </c>
       <c r="I99" t="n">
-        <v>0.02857142857142857</v>
+        <v>18.3779359798941</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03333333333333333</v>
+        <v>20.85007784552728</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>count_overlap_runs_per_match</t>
+          <t>count_dangerous_runs_ahead_of_the_ball_targeted_per_match</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>9.704555984555984</v>
+        <v>2.821290940261414</v>
       </c>
       <c r="C100" t="n">
-        <v>9.377482145407843</v>
+        <v>2.738958146969384</v>
       </c>
       <c r="D100" t="n">
-        <v>3.49</v>
+        <v>3.01</v>
       </c>
       <c r="E100" t="n">
-        <v>1.880635762178646</v>
+        <v>0.4886527595904537</v>
       </c>
       <c r="F100" t="n">
-        <v>2.010143341861189</v>
+        <v>0.427735520289508</v>
       </c>
       <c r="G100" t="n">
-        <v>8.029411764705882</v>
+        <v>2.399054283059796</v>
       </c>
       <c r="H100" t="n">
-        <v>5.9</v>
+        <v>1.682636897002249</v>
       </c>
       <c r="I100" t="n">
-        <v>12.35135135135135</v>
+        <v>3.469226884853058</v>
       </c>
       <c r="J100" t="n">
-        <v>14.91666666666667</v>
+        <v>3.310977119421743</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_per_match</t>
+          <t>count_runs_in_behind_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>53.67384510560981</v>
+        <v>1.080428496287343</v>
       </c>
       <c r="C101" t="n">
-        <v>55.42291531127444</v>
+        <v>1.109558625725524</v>
       </c>
       <c r="D101" t="n">
-        <v>-3.16</v>
+        <v>-2.63</v>
       </c>
       <c r="E101" t="n">
-        <v>6.287169289861645</v>
+        <v>0.2656849313133641</v>
       </c>
       <c r="F101" t="n">
-        <v>6.082707815726875</v>
+        <v>0.3875477114157033</v>
       </c>
       <c r="G101" t="n">
-        <v>44.88235294117647</v>
+        <v>0.8524547620550883</v>
       </c>
       <c r="H101" t="n">
-        <v>44.90909090909091</v>
+        <v>0.5813193946183559</v>
       </c>
       <c r="I101" t="n">
-        <v>59.72972972972973</v>
+        <v>1.465657922989342</v>
       </c>
       <c r="J101" t="n">
-        <v>65.73684210526316</v>
+        <v>1.954025350837213</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pulling_half_space_runs_targeted_per_match</t>
+          <t>count_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.1266636384283443</v>
+        <v>9.188891195186404</v>
       </c>
       <c r="C102" t="n">
-        <v>0.1306449407068602</v>
+        <v>8.95641248139942</v>
       </c>
       <c r="D102" t="n">
-        <v>-3.05</v>
+        <v>2.6</v>
       </c>
       <c r="E102" t="n">
-        <v>0.03407824047120905</v>
+        <v>1.816076627735287</v>
       </c>
       <c r="F102" t="n">
-        <v>0.06462692066164011</v>
+        <v>1.882008919083159</v>
       </c>
       <c r="G102" t="n">
-        <v>0.08823529411764706</v>
+        <v>7.624595917942829</v>
       </c>
       <c r="H102" t="n">
-        <v>0.05263157894736842</v>
+        <v>5.882868673470027</v>
       </c>
       <c r="I102" t="n">
-        <v>0.1764705882352941</v>
+        <v>11.79113939168924</v>
       </c>
       <c r="J102" t="n">
-        <v>0.2777777777777778</v>
+        <v>14.23142800943367</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>runs_ahead_of_the_ball_targeted_threat_per_match</t>
+          <t>count_overlap_runs_received_per_match</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.2214660458778106</v>
+        <v>3.177297170267415</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2161462300666635</v>
+        <v>3.097461574638003</v>
       </c>
       <c r="D103" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="E103" t="n">
-        <v>0.02332306685771477</v>
+        <v>0.8642418641643014</v>
       </c>
       <c r="F103" t="n">
-        <v>0.03102553455050423</v>
+        <v>0.766118526106335</v>
       </c>
       <c r="G103" t="n">
-        <v>0.1882352941176471</v>
+        <v>2.316700814952275</v>
       </c>
       <c r="H103" t="n">
-        <v>0.1427272727272727</v>
+        <v>1.814726275970723</v>
       </c>
       <c r="I103" t="n">
-        <v>0.2442857142857143</v>
+        <v>4.33168597323998</v>
       </c>
       <c r="J103" t="n">
-        <v>0.2539473684210526</v>
+        <v>5.149832224177044</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_ahead_of_the_ball_per_match</t>
+          <t>count_coming_short_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>11.38725868725869</v>
+        <v>7.323995730356108</v>
       </c>
       <c r="C104" t="n">
-        <v>11.11787895490682</v>
+        <v>7.143760413512691</v>
       </c>
       <c r="D104" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="E104" t="n">
-        <v>1.720617622348265</v>
+        <v>0.969442463162159</v>
       </c>
       <c r="F104" t="n">
-        <v>1.585738002965896</v>
+        <v>1.5355125738824</v>
       </c>
       <c r="G104" t="n">
-        <v>8.882352941176471</v>
+        <v>5.756637432544481</v>
       </c>
       <c r="H104" t="n">
-        <v>8.333333333333334</v>
+        <v>4.263688322353812</v>
       </c>
       <c r="I104" t="n">
-        <v>13.14705882352941</v>
+        <v>8.076187677634726</v>
       </c>
       <c r="J104" t="n">
-        <v>13.35294117647059</v>
+        <v>10.35412036249233</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_leading_to_shot_per_match</t>
+          <t>count_dangerous_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1.140281626163979</v>
+        <v>0.1319524856623776</v>
       </c>
       <c r="C105" t="n">
-        <v>1.161414045624572</v>
+        <v>0.1352178158071996</v>
       </c>
       <c r="D105" t="n">
-        <v>-1.82</v>
+        <v>-2.41</v>
       </c>
       <c r="E105" t="n">
-        <v>0.2698911639461046</v>
+        <v>0.09546401545630094</v>
       </c>
       <c r="F105" t="n">
-        <v>0.4143125599478831</v>
+        <v>0.06457625487960333</v>
       </c>
       <c r="G105" t="n">
-        <v>0.9117647058823529</v>
+        <v>0.08330917932193788</v>
       </c>
       <c r="H105" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.02873293503100284</v>
       </c>
       <c r="I105" t="n">
-        <v>1.529411764705882</v>
+        <v>0.3017955595144256</v>
       </c>
       <c r="J105" t="n">
-        <v>2.058823529411764</v>
+        <v>0.2385636628051799</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_targeted_per_match</t>
+          <t>count_runs_ahead_of_the_ball_received_per_match</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>18.06243924596866</v>
+        <v>12.8338882157705</v>
       </c>
       <c r="C106" t="n">
-        <v>18.39687493653438</v>
+        <v>13.09677147084157</v>
       </c>
       <c r="D106" t="n">
-        <v>-1.82</v>
+        <v>-2.01</v>
       </c>
       <c r="E106" t="n">
-        <v>1.375380319621505</v>
+        <v>1.185671068380367</v>
       </c>
       <c r="F106" t="n">
-        <v>2.18358180791825</v>
+        <v>1.566286538497157</v>
       </c>
       <c r="G106" t="n">
-        <v>16.02941176470588</v>
+        <v>10.95678924835043</v>
       </c>
       <c r="H106" t="n">
-        <v>13.51515151515152</v>
+        <v>9.655340132547424</v>
       </c>
       <c r="I106" t="n">
-        <v>19.64705882352941</v>
+        <v>14.13613383822383</v>
       </c>
       <c r="J106" t="n">
-        <v>21.86842105263158</v>
+        <v>16.06432520499358</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_leading_to_goal_per_match</t>
+          <t>count_pulling_half_space_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.2191551215080627</v>
+        <v>2.29698787385705</v>
       </c>
       <c r="C107" t="n">
-        <v>0.215327060806937</v>
+        <v>2.252032926992321</v>
       </c>
       <c r="D107" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="E107" t="n">
-        <v>0.07238663638389523</v>
+        <v>0.4480061107109465</v>
       </c>
       <c r="F107" t="n">
-        <v>0.1181090748514684</v>
+        <v>0.546568439349278</v>
       </c>
       <c r="G107" t="n">
-        <v>0.1470588235294118</v>
+        <v>1.635118990511812</v>
       </c>
       <c r="H107" t="n">
-        <v>0.03333333333333333</v>
+        <v>1.530296679609827</v>
       </c>
       <c r="I107" t="n">
-        <v>0.3235294117647059</v>
+        <v>2.712220763157746</v>
       </c>
       <c r="J107" t="n">
-        <v>0.4473684210526316</v>
+        <v>3.518437987306073</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>count_overlap_runs_leading_to_shot_per_match</t>
+          <t>runs_ahead_of_the_ball_threat_per_match</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.4612491483079719</v>
+        <v>0.7199239943491872</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4683000486715657</v>
+        <v>0.7261233658865521</v>
       </c>
       <c r="D108" t="n">
-        <v>-1.51</v>
+        <v>-0.85</v>
       </c>
       <c r="E108" t="n">
-        <v>0.08546385460767944</v>
+        <v>0.09367264305936675</v>
       </c>
       <c r="F108" t="n">
-        <v>0.1187405702769979</v>
+        <v>0.07618839350106089</v>
       </c>
       <c r="G108" t="n">
-        <v>0.3714285714285714</v>
+        <v>0.5646340557229731</v>
       </c>
       <c r="H108" t="n">
-        <v>0.2647058823529412</v>
+        <v>0.5604072738047174</v>
       </c>
       <c r="I108" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.8083929413512301</v>
       </c>
       <c r="J108" t="n">
-        <v>0.6176470588235294</v>
+        <v>0.8401907813760819</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>runs_ahead_of_the_ball_threat_per_match</t>
+          <t>count_dangerous_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.7606445605269136</v>
+        <v>10.7751464627343</v>
       </c>
       <c r="C109" t="n">
-        <v>0.7559838735241213</v>
+        <v>10.69150561033093</v>
       </c>
       <c r="D109" t="n">
-        <v>0.62</v>
+        <v>0.78</v>
       </c>
       <c r="E109" t="n">
-        <v>0.09844403691900214</v>
+        <v>1.664635275233912</v>
       </c>
       <c r="F109" t="n">
-        <v>0.08810505861464672</v>
+        <v>1.381643539815801</v>
       </c>
       <c r="G109" t="n">
-        <v>0.5935294117647059</v>
+        <v>8.455514036456707</v>
       </c>
       <c r="H109" t="n">
-        <v>0.5757575757575758</v>
+        <v>8.106401909168245</v>
       </c>
       <c r="I109" t="n">
-        <v>0.8476470588235294</v>
+        <v>12.53264935547111</v>
       </c>
       <c r="J109" t="n">
-        <v>0.8814705882352941</v>
+        <v>12.68912452120863</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_received_per_match</t>
+          <t>runs_ahead_of_the_ball_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>13.56240744946627</v>
+        <v>0.2093178393356515</v>
       </c>
       <c r="C110" t="n">
-        <v>13.64143977075866</v>
+        <v>0.2079540234743319</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.58</v>
+        <v>0.66</v>
       </c>
       <c r="E110" t="n">
-        <v>1.323571842315648</v>
+        <v>0.02253870962696092</v>
       </c>
       <c r="F110" t="n">
-        <v>1.777789060691256</v>
+        <v>0.02716545472936907</v>
       </c>
       <c r="G110" t="n">
-        <v>11.52941176470588</v>
+        <v>0.1790435471956333</v>
       </c>
       <c r="H110" t="n">
-        <v>10.06060606060606</v>
+        <v>0.1385352515779048</v>
       </c>
       <c r="I110" t="n">
-        <v>15.11764705882353</v>
+        <v>0.2316785107204554</v>
       </c>
       <c r="J110" t="n">
-        <v>16.86842105263158</v>
+        <v>0.2425348059352125</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_coming_short_runs_per_match</t>
+          <t>count_cross_receiver_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.140663184192596</v>
+        <v>0.2084997320625716</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1404923921951786</v>
+        <v>0.2091789803117924</v>
       </c>
       <c r="D111" t="n">
-        <v>0.12</v>
+        <v>-0.32</v>
       </c>
       <c r="E111" t="n">
-        <v>0.1032875068513947</v>
+        <v>0.07291247036971721</v>
       </c>
       <c r="F111" t="n">
-        <v>0.06516509806774992</v>
+        <v>0.1124914870234921</v>
       </c>
       <c r="G111" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.1380315816608677</v>
       </c>
       <c r="H111" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.06305832895428271</v>
       </c>
       <c r="I111" t="n">
-        <v>0.3243243243243243</v>
+        <v>0.3168254170333317</v>
       </c>
       <c r="J111" t="n">
-        <v>0.2571428571428571</v>
+        <v>0.4356668452929587</v>
       </c>
     </row>
   </sheetData>
